--- a/db/excel/sqlite-inovation-manager-v1.xlsx
+++ b/db/excel/sqlite-inovation-manager-v1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DINHNV\MyData\LAPTRINH\NODE4\node4-inovation\db\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C05E03A-FA32-4BAF-B354-C56936EC24FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="495" windowWidth="18330" windowHeight="12405" tabRatio="500" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="495" windowWidth="18330" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
@@ -25,9 +19,8 @@
     <sheet name="staffs" sheetId="17" state="hidden" r:id="rId10"/>
     <sheet name="users" sheetId="10" r:id="rId11"/>
     <sheet name="ideas_categories" sheetId="19" r:id="rId12"/>
-    <sheet name="ideas_status_type" sheetId="21" r:id="rId13"/>
-    <sheet name="ideas_statuses" sheetId="20" r:id="rId14"/>
-    <sheet name="ideas_questions" sheetId="22" r:id="rId15"/>
+    <sheet name="ideas_statuses" sheetId="20" r:id="rId13"/>
+    <sheet name="ideas_questions" sheetId="22" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$E$52</definedName>
@@ -46,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="363">
   <si>
     <t>table_name</t>
   </si>
@@ -849,9 +842,6 @@
     <t>Mã danh mục trạng thái ý tưởng</t>
   </si>
   <si>
-    <t>status_type</t>
-  </si>
-  <si>
     <t>Tên trạng thái</t>
   </si>
   <si>
@@ -876,9 +866,6 @@
     <t>Địa chỉ liên hệ của user</t>
   </si>
   <si>
-    <t>Trạng thái hiệu lực</t>
-  </si>
-  <si>
     <t>Trật tự sắp xếp</t>
   </si>
   <si>
@@ -894,9 +881,6 @@
     <t>Công ty dịch vụ Mobifone khu vực 3</t>
   </si>
   <si>
-    <t>Kết thúc</t>
-  </si>
-  <si>
     <t>Ý tưởng mới</t>
   </si>
   <si>
@@ -978,15 +962,6 @@
     <t>burlywood</t>
   </si>
   <si>
-    <t>Hủy bỏ</t>
-  </si>
-  <si>
-    <t>Đang triển khai</t>
-  </si>
-  <si>
-    <t>Mới khởi tạo</t>
-  </si>
-  <si>
     <t>ideas_marks</t>
   </si>
   <si>
@@ -1044,27 +1019,6 @@
     <t>assets/imgs/background-idea.jpg</t>
   </si>
   <si>
-    <t>archive</t>
-  </si>
-  <si>
-    <t>finish</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>inprogress</t>
-  </si>
-  <si>
-    <t>Có thể triển khai sau (200k)</t>
-  </si>
-  <si>
-    <t>Hoàn thành (200k+500k+(…))</t>
-  </si>
-  <si>
-    <t>Giai đoạn triển khai (...+500k+...)</t>
-  </si>
-  <si>
     <t>Đo lường?</t>
   </si>
   <si>
@@ -1080,9 +1034,6 @@
     <t>Có khả thi không?</t>
   </si>
   <si>
-    <t>Chấp nhận triển khai (200k)</t>
-  </si>
-  <si>
     <t>Nguyễn Văn Định</t>
   </si>
   <si>
@@ -1096,18 +1047,6 @@
   </si>
   <si>
     <t>0766777123</t>
-  </si>
-  <si>
-    <t>ideas_status_type</t>
-  </si>
-  <si>
-    <t>mã loại trạng thái giai đoạn</t>
-  </si>
-  <si>
-    <t>tên giai đoạn</t>
-  </si>
-  <si>
-    <t>mô tả giai đoạn</t>
   </si>
   <si>
     <t xml:space="preserve">PRIMARY KEY </t>
@@ -1211,11 +1150,23 @@
   <si>
     <t>Mô tả Ý tưởng đầu tiên của dinh1</t>
   </si>
+  <si>
+    <t>Hoàn thành</t>
+  </si>
+  <si>
+    <t>Chấp nhận triển khai</t>
+  </si>
+  <si>
+    <t>Giai đoạn triển khai</t>
+  </si>
+  <si>
+    <t>Có thể triển khai sau</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
@@ -1760,7 +1711,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1918,7 +1869,6 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1930,7 +1880,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2529,11 +2478,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMI74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMI68"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.25"/>
@@ -3592,10 +3541,10 @@
         <v>46</v>
       </c>
       <c r="D2" s="59" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>272</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:1023" ht="37.5">
@@ -3609,7 +3558,7 @@
         <v>240</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E3" s="26"/>
     </row>
@@ -3624,7 +3573,7 @@
         <v>49</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E4" s="26"/>
     </row>
@@ -3639,7 +3588,7 @@
         <v>51</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E5" s="24"/>
     </row>
@@ -3654,7 +3603,7 @@
         <v>53</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E6" s="24"/>
     </row>
@@ -3669,7 +3618,7 @@
         <v>55</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E7" s="24"/>
     </row>
@@ -3684,7 +3633,7 @@
         <v>57</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E8" s="24"/>
     </row>
@@ -3693,13 +3642,13 @@
         <v>45</v>
       </c>
       <c r="B9" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" s="46" t="s">
         <v>274</v>
       </c>
-      <c r="C9" s="46" t="s">
-        <v>275</v>
-      </c>
       <c r="D9" s="61" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E9" s="24"/>
     </row>
@@ -3714,7 +3663,7 @@
         <v>237</v>
       </c>
       <c r="D10" s="61" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E10" s="24"/>
     </row>
@@ -3729,7 +3678,7 @@
         <v>238</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E11" s="24"/>
     </row>
@@ -3741,10 +3690,10 @@
         <v>60</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>30</v>
@@ -3761,7 +3710,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E13" s="13"/>
     </row>
@@ -3776,7 +3725,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="60" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E14" s="13"/>
     </row>
@@ -3791,7 +3740,7 @@
         <v>62</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E15" s="58"/>
     </row>
@@ -3806,10 +3755,10 @@
         <v>19</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>272</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3823,7 +3772,7 @@
         <v>20</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E17" s="4"/>
     </row>
@@ -3836,7 +3785,7 @@
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E18" s="4"/>
     </row>
@@ -3851,7 +3800,7 @@
         <v>249</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E19" s="4"/>
     </row>
@@ -3866,7 +3815,7 @@
         <v>21</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E20" s="5"/>
     </row>
@@ -3881,7 +3830,7 @@
         <v>24</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E21" s="6"/>
     </row>
@@ -3896,7 +3845,7 @@
         <v>22</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E22" s="5"/>
     </row>
@@ -3905,13 +3854,13 @@
         <v>18</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E23" s="5"/>
     </row>
@@ -3926,7 +3875,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E24" s="5"/>
     </row>
@@ -3938,10 +3887,10 @@
         <v>17</v>
       </c>
       <c r="C25" s="46" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E25" s="5"/>
     </row>
@@ -3950,13 +3899,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C26" s="46" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E26" s="5"/>
     </row>
@@ -3969,10 +3918,10 @@
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3986,39 +3935,39 @@
         <v>261</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="73" t="s">
-        <v>328</v>
+      <c r="B29" s="72" t="s">
+        <v>322</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>329</v>
-      </c>
-      <c r="D29" s="74" t="s">
-        <v>322</v>
-      </c>
-      <c r="E29" s="75" t="s">
-        <v>295</v>
+        <v>323</v>
+      </c>
+      <c r="D29" s="73" t="s">
+        <v>316</v>
+      </c>
+      <c r="E29" s="74" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="76" t="s">
+      <c r="B30" s="75" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="46"/>
       <c r="D30" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E30" s="9"/>
     </row>
@@ -4033,10 +3982,10 @@
         <v>232</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>272</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="38.25">
@@ -4050,7 +3999,7 @@
         <v>236</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E32" s="5"/>
     </row>
@@ -4065,7 +4014,7 @@
         <v>250</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E33" s="5"/>
     </row>
@@ -4080,7 +4029,7 @@
         <v>249</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E34" s="4"/>
     </row>
@@ -4089,13 +4038,13 @@
         <v>231</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C35" s="46" t="s">
         <v>234</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E35" s="5"/>
     </row>
@@ -4110,7 +4059,7 @@
         <v>235</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E36" s="5"/>
     </row>
@@ -4125,7 +4074,7 @@
         <v>244</v>
       </c>
       <c r="D37" s="64" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E37" s="5"/>
     </row>
@@ -4134,13 +4083,13 @@
         <v>241</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C38" s="51" t="s">
         <v>242</v>
       </c>
       <c r="D38" s="64" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E38" s="5"/>
     </row>
@@ -4155,7 +4104,7 @@
         <v>245</v>
       </c>
       <c r="D39" s="64" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E39" s="5"/>
     </row>
@@ -4170,7 +4119,7 @@
         <v>246</v>
       </c>
       <c r="D40" s="64" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E40" s="9"/>
     </row>
@@ -4185,10 +4134,10 @@
         <v>259</v>
       </c>
       <c r="D41" s="65" t="s">
+        <v>271</v>
+      </c>
+      <c r="E41" s="11" t="s">
         <v>272</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4202,7 +4151,7 @@
         <v>258</v>
       </c>
       <c r="D42" s="66" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E42" s="5"/>
     </row>
@@ -4217,7 +4166,7 @@
         <v>252</v>
       </c>
       <c r="D43" s="65" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E43" s="5"/>
     </row>
@@ -4232,7 +4181,7 @@
         <v>253</v>
       </c>
       <c r="D44" s="65" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E44" s="5"/>
     </row>
@@ -4244,10 +4193,10 @@
         <v>256</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D45" s="66" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E45" s="5"/>
     </row>
@@ -4262,7 +4211,7 @@
         <v>245</v>
       </c>
       <c r="D46" s="64" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E46" s="5"/>
     </row>
@@ -4277,7 +4226,7 @@
         <v>257</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E47" s="9"/>
     </row>
@@ -4292,13 +4241,13 @@
         <v>263</v>
       </c>
       <c r="D48" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="E48" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="E48" s="11" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1023">
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="43" t="s">
         <v>262</v>
       </c>
@@ -4309,11 +4258,11 @@
         <v>264</v>
       </c>
       <c r="D49" s="67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="1:1023">
+    <row r="50" spans="1:5">
       <c r="A50" s="43" t="s">
         <v>262</v>
       </c>
@@ -4321,29 +4270,29 @@
         <v>59</v>
       </c>
       <c r="C50" s="46" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D50" s="67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:1023">
+    <row r="51" spans="1:5">
       <c r="A51" s="43" t="s">
         <v>262</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>356</v>
-      </c>
-      <c r="C51" s="83" t="s">
-        <v>357</v>
+        <v>338</v>
+      </c>
+      <c r="C51" s="81" t="s">
+        <v>339</v>
       </c>
       <c r="D51" s="67" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:1023">
+    <row r="52" spans="1:5">
       <c r="A52" s="43" t="s">
         <v>262</v>
       </c>
@@ -4351,5441 +4300,259 @@
         <v>5</v>
       </c>
       <c r="C52" s="46" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D52" s="67" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="55" t="s">
+        <v>265</v>
+      </c>
+      <c r="B53" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="D53" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="E53" s="11" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="53" spans="1:1023">
-      <c r="A53" s="79" t="s">
-        <v>350</v>
-      </c>
-      <c r="B53" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="46" t="s">
-        <v>351</v>
-      </c>
-      <c r="D53" s="67" t="s">
-        <v>272</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53"/>
-      <c r="M53"/>
-      <c r="N53"/>
-      <c r="O53"/>
-      <c r="P53"/>
-      <c r="Q53"/>
-      <c r="R53"/>
-      <c r="S53"/>
-      <c r="T53"/>
-      <c r="U53"/>
-      <c r="V53"/>
-      <c r="W53"/>
-      <c r="X53"/>
-      <c r="Y53"/>
-      <c r="Z53"/>
-      <c r="AA53"/>
-      <c r="AB53"/>
-      <c r="AC53"/>
-      <c r="AD53"/>
-      <c r="AE53"/>
-      <c r="AF53"/>
-      <c r="AG53"/>
-      <c r="AH53"/>
-      <c r="AI53"/>
-      <c r="AJ53"/>
-      <c r="AK53"/>
-      <c r="AL53"/>
-      <c r="AM53"/>
-      <c r="AN53"/>
-      <c r="AO53"/>
-      <c r="AP53"/>
-      <c r="AQ53"/>
-      <c r="AR53"/>
-      <c r="AS53"/>
-      <c r="AT53"/>
-      <c r="AU53"/>
-      <c r="AV53"/>
-      <c r="AW53"/>
-      <c r="AX53"/>
-      <c r="AY53"/>
-      <c r="AZ53"/>
-      <c r="BA53"/>
-      <c r="BB53"/>
-      <c r="BC53"/>
-      <c r="BD53"/>
-      <c r="BE53"/>
-      <c r="BF53"/>
-      <c r="BG53"/>
-      <c r="BH53"/>
-      <c r="BI53"/>
-      <c r="BJ53"/>
-      <c r="BK53"/>
-      <c r="BL53"/>
-      <c r="BM53"/>
-      <c r="BN53"/>
-      <c r="BO53"/>
-      <c r="BP53"/>
-      <c r="BQ53"/>
-      <c r="BR53"/>
-      <c r="BS53"/>
-      <c r="BT53"/>
-      <c r="BU53"/>
-      <c r="BV53"/>
-      <c r="BW53"/>
-      <c r="BX53"/>
-      <c r="BY53"/>
-      <c r="BZ53"/>
-      <c r="CA53"/>
-      <c r="CB53"/>
-      <c r="CC53"/>
-      <c r="CD53"/>
-      <c r="CE53"/>
-      <c r="CF53"/>
-      <c r="CG53"/>
-      <c r="CH53"/>
-      <c r="CI53"/>
-      <c r="CJ53"/>
-      <c r="CK53"/>
-      <c r="CL53"/>
-      <c r="CM53"/>
-      <c r="CN53"/>
-      <c r="CO53"/>
-      <c r="CP53"/>
-      <c r="CQ53"/>
-      <c r="CR53"/>
-      <c r="CS53"/>
-      <c r="CT53"/>
-      <c r="CU53"/>
-      <c r="CV53"/>
-      <c r="CW53"/>
-      <c r="CX53"/>
-      <c r="CY53"/>
-      <c r="CZ53"/>
-      <c r="DA53"/>
-      <c r="DB53"/>
-      <c r="DC53"/>
-      <c r="DD53"/>
-      <c r="DE53"/>
-      <c r="DF53"/>
-      <c r="DG53"/>
-      <c r="DH53"/>
-      <c r="DI53"/>
-      <c r="DJ53"/>
-      <c r="DK53"/>
-      <c r="DL53"/>
-      <c r="DM53"/>
-      <c r="DN53"/>
-      <c r="DO53"/>
-      <c r="DP53"/>
-      <c r="DQ53"/>
-      <c r="DR53"/>
-      <c r="DS53"/>
-      <c r="DT53"/>
-      <c r="DU53"/>
-      <c r="DV53"/>
-      <c r="DW53"/>
-      <c r="DX53"/>
-      <c r="DY53"/>
-      <c r="DZ53"/>
-      <c r="EA53"/>
-      <c r="EB53"/>
-      <c r="EC53"/>
-      <c r="ED53"/>
-      <c r="EE53"/>
-      <c r="EF53"/>
-      <c r="EG53"/>
-      <c r="EH53"/>
-      <c r="EI53"/>
-      <c r="EJ53"/>
-      <c r="EK53"/>
-      <c r="EL53"/>
-      <c r="EM53"/>
-      <c r="EN53"/>
-      <c r="EO53"/>
-      <c r="EP53"/>
-      <c r="EQ53"/>
-      <c r="ER53"/>
-      <c r="ES53"/>
-      <c r="ET53"/>
-      <c r="EU53"/>
-      <c r="EV53"/>
-      <c r="EW53"/>
-      <c r="EX53"/>
-      <c r="EY53"/>
-      <c r="EZ53"/>
-      <c r="FA53"/>
-      <c r="FB53"/>
-      <c r="FC53"/>
-      <c r="FD53"/>
-      <c r="FE53"/>
-      <c r="FF53"/>
-      <c r="FG53"/>
-      <c r="FH53"/>
-      <c r="FI53"/>
-      <c r="FJ53"/>
-      <c r="FK53"/>
-      <c r="FL53"/>
-      <c r="FM53"/>
-      <c r="FN53"/>
-      <c r="FO53"/>
-      <c r="FP53"/>
-      <c r="FQ53"/>
-      <c r="FR53"/>
-      <c r="FS53"/>
-      <c r="FT53"/>
-      <c r="FU53"/>
-      <c r="FV53"/>
-      <c r="FW53"/>
-      <c r="FX53"/>
-      <c r="FY53"/>
-      <c r="FZ53"/>
-      <c r="GA53"/>
-      <c r="GB53"/>
-      <c r="GC53"/>
-      <c r="GD53"/>
-      <c r="GE53"/>
-      <c r="GF53"/>
-      <c r="GG53"/>
-      <c r="GH53"/>
-      <c r="GI53"/>
-      <c r="GJ53"/>
-      <c r="GK53"/>
-      <c r="GL53"/>
-      <c r="GM53"/>
-      <c r="GN53"/>
-      <c r="GO53"/>
-      <c r="GP53"/>
-      <c r="GQ53"/>
-      <c r="GR53"/>
-      <c r="GS53"/>
-      <c r="GT53"/>
-      <c r="GU53"/>
-      <c r="GV53"/>
-      <c r="GW53"/>
-      <c r="GX53"/>
-      <c r="GY53"/>
-      <c r="GZ53"/>
-      <c r="HA53"/>
-      <c r="HB53"/>
-      <c r="HC53"/>
-      <c r="HD53"/>
-      <c r="HE53"/>
-      <c r="HF53"/>
-      <c r="HG53"/>
-      <c r="HH53"/>
-      <c r="HI53"/>
-      <c r="HJ53"/>
-      <c r="HK53"/>
-      <c r="HL53"/>
-      <c r="HM53"/>
-      <c r="HN53"/>
-      <c r="HO53"/>
-      <c r="HP53"/>
-      <c r="HQ53"/>
-      <c r="HR53"/>
-      <c r="HS53"/>
-      <c r="HT53"/>
-      <c r="HU53"/>
-      <c r="HV53"/>
-      <c r="HW53"/>
-      <c r="HX53"/>
-      <c r="HY53"/>
-      <c r="HZ53"/>
-      <c r="IA53"/>
-      <c r="IB53"/>
-      <c r="IC53"/>
-      <c r="ID53"/>
-      <c r="IE53"/>
-      <c r="IF53"/>
-      <c r="IG53"/>
-      <c r="IH53"/>
-      <c r="II53"/>
-      <c r="IJ53"/>
-      <c r="IK53"/>
-      <c r="IL53"/>
-      <c r="IM53"/>
-      <c r="IN53"/>
-      <c r="IO53"/>
-      <c r="IP53"/>
-      <c r="IQ53"/>
-      <c r="IR53"/>
-      <c r="IS53"/>
-      <c r="IT53"/>
-      <c r="IU53"/>
-      <c r="IV53"/>
-      <c r="IW53"/>
-      <c r="IX53"/>
-      <c r="IY53"/>
-      <c r="IZ53"/>
-      <c r="JA53"/>
-      <c r="JB53"/>
-      <c r="JC53"/>
-      <c r="JD53"/>
-      <c r="JE53"/>
-      <c r="JF53"/>
-      <c r="JG53"/>
-      <c r="JH53"/>
-      <c r="JI53"/>
-      <c r="JJ53"/>
-      <c r="JK53"/>
-      <c r="JL53"/>
-      <c r="JM53"/>
-      <c r="JN53"/>
-      <c r="JO53"/>
-      <c r="JP53"/>
-      <c r="JQ53"/>
-      <c r="JR53"/>
-      <c r="JS53"/>
-      <c r="JT53"/>
-      <c r="JU53"/>
-      <c r="JV53"/>
-      <c r="JW53"/>
-      <c r="JX53"/>
-      <c r="JY53"/>
-      <c r="JZ53"/>
-      <c r="KA53"/>
-      <c r="KB53"/>
-      <c r="KC53"/>
-      <c r="KD53"/>
-      <c r="KE53"/>
-      <c r="KF53"/>
-      <c r="KG53"/>
-      <c r="KH53"/>
-      <c r="KI53"/>
-      <c r="KJ53"/>
-      <c r="KK53"/>
-      <c r="KL53"/>
-      <c r="KM53"/>
-      <c r="KN53"/>
-      <c r="KO53"/>
-      <c r="KP53"/>
-      <c r="KQ53"/>
-      <c r="KR53"/>
-      <c r="KS53"/>
-      <c r="KT53"/>
-      <c r="KU53"/>
-      <c r="KV53"/>
-      <c r="KW53"/>
-      <c r="KX53"/>
-      <c r="KY53"/>
-      <c r="KZ53"/>
-      <c r="LA53"/>
-      <c r="LB53"/>
-      <c r="LC53"/>
-      <c r="LD53"/>
-      <c r="LE53"/>
-      <c r="LF53"/>
-      <c r="LG53"/>
-      <c r="LH53"/>
-      <c r="LI53"/>
-      <c r="LJ53"/>
-      <c r="LK53"/>
-      <c r="LL53"/>
-      <c r="LM53"/>
-      <c r="LN53"/>
-      <c r="LO53"/>
-      <c r="LP53"/>
-      <c r="LQ53"/>
-      <c r="LR53"/>
-      <c r="LS53"/>
-      <c r="LT53"/>
-      <c r="LU53"/>
-      <c r="LV53"/>
-      <c r="LW53"/>
-      <c r="LX53"/>
-      <c r="LY53"/>
-      <c r="LZ53"/>
-      <c r="MA53"/>
-      <c r="MB53"/>
-      <c r="MC53"/>
-      <c r="MD53"/>
-      <c r="ME53"/>
-      <c r="MF53"/>
-      <c r="MG53"/>
-      <c r="MH53"/>
-      <c r="MI53"/>
-      <c r="MJ53"/>
-      <c r="MK53"/>
-      <c r="ML53"/>
-      <c r="MM53"/>
-      <c r="MN53"/>
-      <c r="MO53"/>
-      <c r="MP53"/>
-      <c r="MQ53"/>
-      <c r="MR53"/>
-      <c r="MS53"/>
-      <c r="MT53"/>
-      <c r="MU53"/>
-      <c r="MV53"/>
-      <c r="MW53"/>
-      <c r="MX53"/>
-      <c r="MY53"/>
-      <c r="MZ53"/>
-      <c r="NA53"/>
-      <c r="NB53"/>
-      <c r="NC53"/>
-      <c r="ND53"/>
-      <c r="NE53"/>
-      <c r="NF53"/>
-      <c r="NG53"/>
-      <c r="NH53"/>
-      <c r="NI53"/>
-      <c r="NJ53"/>
-      <c r="NK53"/>
-      <c r="NL53"/>
-      <c r="NM53"/>
-      <c r="NN53"/>
-      <c r="NO53"/>
-      <c r="NP53"/>
-      <c r="NQ53"/>
-      <c r="NR53"/>
-      <c r="NS53"/>
-      <c r="NT53"/>
-      <c r="NU53"/>
-      <c r="NV53"/>
-      <c r="NW53"/>
-      <c r="NX53"/>
-      <c r="NY53"/>
-      <c r="NZ53"/>
-      <c r="OA53"/>
-      <c r="OB53"/>
-      <c r="OC53"/>
-      <c r="OD53"/>
-      <c r="OE53"/>
-      <c r="OF53"/>
-      <c r="OG53"/>
-      <c r="OH53"/>
-      <c r="OI53"/>
-      <c r="OJ53"/>
-      <c r="OK53"/>
-      <c r="OL53"/>
-      <c r="OM53"/>
-      <c r="ON53"/>
-      <c r="OO53"/>
-      <c r="OP53"/>
-      <c r="OQ53"/>
-      <c r="OR53"/>
-      <c r="OS53"/>
-      <c r="OT53"/>
-      <c r="OU53"/>
-      <c r="OV53"/>
-      <c r="OW53"/>
-      <c r="OX53"/>
-      <c r="OY53"/>
-      <c r="OZ53"/>
-      <c r="PA53"/>
-      <c r="PB53"/>
-      <c r="PC53"/>
-      <c r="PD53"/>
-      <c r="PE53"/>
-      <c r="PF53"/>
-      <c r="PG53"/>
-      <c r="PH53"/>
-      <c r="PI53"/>
-      <c r="PJ53"/>
-      <c r="PK53"/>
-      <c r="PL53"/>
-      <c r="PM53"/>
-      <c r="PN53"/>
-      <c r="PO53"/>
-      <c r="PP53"/>
-      <c r="PQ53"/>
-      <c r="PR53"/>
-      <c r="PS53"/>
-      <c r="PT53"/>
-      <c r="PU53"/>
-      <c r="PV53"/>
-      <c r="PW53"/>
-      <c r="PX53"/>
-      <c r="PY53"/>
-      <c r="PZ53"/>
-      <c r="QA53"/>
-      <c r="QB53"/>
-      <c r="QC53"/>
-      <c r="QD53"/>
-      <c r="QE53"/>
-      <c r="QF53"/>
-      <c r="QG53"/>
-      <c r="QH53"/>
-      <c r="QI53"/>
-      <c r="QJ53"/>
-      <c r="QK53"/>
-      <c r="QL53"/>
-      <c r="QM53"/>
-      <c r="QN53"/>
-      <c r="QO53"/>
-      <c r="QP53"/>
-      <c r="QQ53"/>
-      <c r="QR53"/>
-      <c r="QS53"/>
-      <c r="QT53"/>
-      <c r="QU53"/>
-      <c r="QV53"/>
-      <c r="QW53"/>
-      <c r="QX53"/>
-      <c r="QY53"/>
-      <c r="QZ53"/>
-      <c r="RA53"/>
-      <c r="RB53"/>
-      <c r="RC53"/>
-      <c r="RD53"/>
-      <c r="RE53"/>
-      <c r="RF53"/>
-      <c r="RG53"/>
-      <c r="RH53"/>
-      <c r="RI53"/>
-      <c r="RJ53"/>
-      <c r="RK53"/>
-      <c r="RL53"/>
-      <c r="RM53"/>
-      <c r="RN53"/>
-      <c r="RO53"/>
-      <c r="RP53"/>
-      <c r="RQ53"/>
-      <c r="RR53"/>
-      <c r="RS53"/>
-      <c r="RT53"/>
-      <c r="RU53"/>
-      <c r="RV53"/>
-      <c r="RW53"/>
-      <c r="RX53"/>
-      <c r="RY53"/>
-      <c r="RZ53"/>
-      <c r="SA53"/>
-      <c r="SB53"/>
-      <c r="SC53"/>
-      <c r="SD53"/>
-      <c r="SE53"/>
-      <c r="SF53"/>
-      <c r="SG53"/>
-      <c r="SH53"/>
-      <c r="SI53"/>
-      <c r="SJ53"/>
-      <c r="SK53"/>
-      <c r="SL53"/>
-      <c r="SM53"/>
-      <c r="SN53"/>
-      <c r="SO53"/>
-      <c r="SP53"/>
-      <c r="SQ53"/>
-      <c r="SR53"/>
-      <c r="SS53"/>
-      <c r="ST53"/>
-      <c r="SU53"/>
-      <c r="SV53"/>
-      <c r="SW53"/>
-      <c r="SX53"/>
-      <c r="SY53"/>
-      <c r="SZ53"/>
-      <c r="TA53"/>
-      <c r="TB53"/>
-      <c r="TC53"/>
-      <c r="TD53"/>
-      <c r="TE53"/>
-      <c r="TF53"/>
-      <c r="TG53"/>
-      <c r="TH53"/>
-      <c r="TI53"/>
-      <c r="TJ53"/>
-      <c r="TK53"/>
-      <c r="TL53"/>
-      <c r="TM53"/>
-      <c r="TN53"/>
-      <c r="TO53"/>
-      <c r="TP53"/>
-      <c r="TQ53"/>
-      <c r="TR53"/>
-      <c r="TS53"/>
-      <c r="TT53"/>
-      <c r="TU53"/>
-      <c r="TV53"/>
-      <c r="TW53"/>
-      <c r="TX53"/>
-      <c r="TY53"/>
-      <c r="TZ53"/>
-      <c r="UA53"/>
-      <c r="UB53"/>
-      <c r="UC53"/>
-      <c r="UD53"/>
-      <c r="UE53"/>
-      <c r="UF53"/>
-      <c r="UG53"/>
-      <c r="UH53"/>
-      <c r="UI53"/>
-      <c r="UJ53"/>
-      <c r="UK53"/>
-      <c r="UL53"/>
-      <c r="UM53"/>
-      <c r="UN53"/>
-      <c r="UO53"/>
-      <c r="UP53"/>
-      <c r="UQ53"/>
-      <c r="UR53"/>
-      <c r="US53"/>
-      <c r="UT53"/>
-      <c r="UU53"/>
-      <c r="UV53"/>
-      <c r="UW53"/>
-      <c r="UX53"/>
-      <c r="UY53"/>
-      <c r="UZ53"/>
-      <c r="VA53"/>
-      <c r="VB53"/>
-      <c r="VC53"/>
-      <c r="VD53"/>
-      <c r="VE53"/>
-      <c r="VF53"/>
-      <c r="VG53"/>
-      <c r="VH53"/>
-      <c r="VI53"/>
-      <c r="VJ53"/>
-      <c r="VK53"/>
-      <c r="VL53"/>
-      <c r="VM53"/>
-      <c r="VN53"/>
-      <c r="VO53"/>
-      <c r="VP53"/>
-      <c r="VQ53"/>
-      <c r="VR53"/>
-      <c r="VS53"/>
-      <c r="VT53"/>
-      <c r="VU53"/>
-      <c r="VV53"/>
-      <c r="VW53"/>
-      <c r="VX53"/>
-      <c r="VY53"/>
-      <c r="VZ53"/>
-      <c r="WA53"/>
-      <c r="WB53"/>
-      <c r="WC53"/>
-      <c r="WD53"/>
-      <c r="WE53"/>
-      <c r="WF53"/>
-      <c r="WG53"/>
-      <c r="WH53"/>
-      <c r="WI53"/>
-      <c r="WJ53"/>
-      <c r="WK53"/>
-      <c r="WL53"/>
-      <c r="WM53"/>
-      <c r="WN53"/>
-      <c r="WO53"/>
-      <c r="WP53"/>
-      <c r="WQ53"/>
-      <c r="WR53"/>
-      <c r="WS53"/>
-      <c r="WT53"/>
-      <c r="WU53"/>
-      <c r="WV53"/>
-      <c r="WW53"/>
-      <c r="WX53"/>
-      <c r="WY53"/>
-      <c r="WZ53"/>
-      <c r="XA53"/>
-      <c r="XB53"/>
-      <c r="XC53"/>
-      <c r="XD53"/>
-      <c r="XE53"/>
-      <c r="XF53"/>
-      <c r="XG53"/>
-      <c r="XH53"/>
-      <c r="XI53"/>
-      <c r="XJ53"/>
-      <c r="XK53"/>
-      <c r="XL53"/>
-      <c r="XM53"/>
-      <c r="XN53"/>
-      <c r="XO53"/>
-      <c r="XP53"/>
-      <c r="XQ53"/>
-      <c r="XR53"/>
-      <c r="XS53"/>
-      <c r="XT53"/>
-      <c r="XU53"/>
-      <c r="XV53"/>
-      <c r="XW53"/>
-      <c r="XX53"/>
-      <c r="XY53"/>
-      <c r="XZ53"/>
-      <c r="YA53"/>
-      <c r="YB53"/>
-      <c r="YC53"/>
-      <c r="YD53"/>
-      <c r="YE53"/>
-      <c r="YF53"/>
-      <c r="YG53"/>
-      <c r="YH53"/>
-      <c r="YI53"/>
-      <c r="YJ53"/>
-      <c r="YK53"/>
-      <c r="YL53"/>
-      <c r="YM53"/>
-      <c r="YN53"/>
-      <c r="YO53"/>
-      <c r="YP53"/>
-      <c r="YQ53"/>
-      <c r="YR53"/>
-      <c r="YS53"/>
-      <c r="YT53"/>
-      <c r="YU53"/>
-      <c r="YV53"/>
-      <c r="YW53"/>
-      <c r="YX53"/>
-      <c r="YY53"/>
-      <c r="YZ53"/>
-      <c r="ZA53"/>
-      <c r="ZB53"/>
-      <c r="ZC53"/>
-      <c r="ZD53"/>
-      <c r="ZE53"/>
-      <c r="ZF53"/>
-      <c r="ZG53"/>
-      <c r="ZH53"/>
-      <c r="ZI53"/>
-      <c r="ZJ53"/>
-      <c r="ZK53"/>
-      <c r="ZL53"/>
-      <c r="ZM53"/>
-      <c r="ZN53"/>
-      <c r="ZO53"/>
-      <c r="ZP53"/>
-      <c r="ZQ53"/>
-      <c r="ZR53"/>
-      <c r="ZS53"/>
-      <c r="ZT53"/>
-      <c r="ZU53"/>
-      <c r="ZV53"/>
-      <c r="ZW53"/>
-      <c r="ZX53"/>
-      <c r="ZY53"/>
-      <c r="ZZ53"/>
-      <c r="AAA53"/>
-      <c r="AAB53"/>
-      <c r="AAC53"/>
-      <c r="AAD53"/>
-      <c r="AAE53"/>
-      <c r="AAF53"/>
-      <c r="AAG53"/>
-      <c r="AAH53"/>
-      <c r="AAI53"/>
-      <c r="AAJ53"/>
-      <c r="AAK53"/>
-      <c r="AAL53"/>
-      <c r="AAM53"/>
-      <c r="AAN53"/>
-      <c r="AAO53"/>
-      <c r="AAP53"/>
-      <c r="AAQ53"/>
-      <c r="AAR53"/>
-      <c r="AAS53"/>
-      <c r="AAT53"/>
-      <c r="AAU53"/>
-      <c r="AAV53"/>
-      <c r="AAW53"/>
-      <c r="AAX53"/>
-      <c r="AAY53"/>
-      <c r="AAZ53"/>
-      <c r="ABA53"/>
-      <c r="ABB53"/>
-      <c r="ABC53"/>
-      <c r="ABD53"/>
-      <c r="ABE53"/>
-      <c r="ABF53"/>
-      <c r="ABG53"/>
-      <c r="ABH53"/>
-      <c r="ABI53"/>
-      <c r="ABJ53"/>
-      <c r="ABK53"/>
-      <c r="ABL53"/>
-      <c r="ABM53"/>
-      <c r="ABN53"/>
-      <c r="ABO53"/>
-      <c r="ABP53"/>
-      <c r="ABQ53"/>
-      <c r="ABR53"/>
-      <c r="ABS53"/>
-      <c r="ABT53"/>
-      <c r="ABU53"/>
-      <c r="ABV53"/>
-      <c r="ABW53"/>
-      <c r="ABX53"/>
-      <c r="ABY53"/>
-      <c r="ABZ53"/>
-      <c r="ACA53"/>
-      <c r="ACB53"/>
-      <c r="ACC53"/>
-      <c r="ACD53"/>
-      <c r="ACE53"/>
-      <c r="ACF53"/>
-      <c r="ACG53"/>
-      <c r="ACH53"/>
-      <c r="ACI53"/>
-      <c r="ACJ53"/>
-      <c r="ACK53"/>
-      <c r="ACL53"/>
-      <c r="ACM53"/>
-      <c r="ACN53"/>
-      <c r="ACO53"/>
-      <c r="ACP53"/>
-      <c r="ACQ53"/>
-      <c r="ACR53"/>
-      <c r="ACS53"/>
-      <c r="ACT53"/>
-      <c r="ACU53"/>
-      <c r="ACV53"/>
-      <c r="ACW53"/>
-      <c r="ACX53"/>
-      <c r="ACY53"/>
-      <c r="ACZ53"/>
-      <c r="ADA53"/>
-      <c r="ADB53"/>
-      <c r="ADC53"/>
-      <c r="ADD53"/>
-      <c r="ADE53"/>
-      <c r="ADF53"/>
-      <c r="ADG53"/>
-      <c r="ADH53"/>
-      <c r="ADI53"/>
-      <c r="ADJ53"/>
-      <c r="ADK53"/>
-      <c r="ADL53"/>
-      <c r="ADM53"/>
-      <c r="ADN53"/>
-      <c r="ADO53"/>
-      <c r="ADP53"/>
-      <c r="ADQ53"/>
-      <c r="ADR53"/>
-      <c r="ADS53"/>
-      <c r="ADT53"/>
-      <c r="ADU53"/>
-      <c r="ADV53"/>
-      <c r="ADW53"/>
-      <c r="ADX53"/>
-      <c r="ADY53"/>
-      <c r="ADZ53"/>
-      <c r="AEA53"/>
-      <c r="AEB53"/>
-      <c r="AEC53"/>
-      <c r="AED53"/>
-      <c r="AEE53"/>
-      <c r="AEF53"/>
-      <c r="AEG53"/>
-      <c r="AEH53"/>
-      <c r="AEI53"/>
-      <c r="AEJ53"/>
-      <c r="AEK53"/>
-      <c r="AEL53"/>
-      <c r="AEM53"/>
-      <c r="AEN53"/>
-      <c r="AEO53"/>
-      <c r="AEP53"/>
-      <c r="AEQ53"/>
-      <c r="AER53"/>
-      <c r="AES53"/>
-      <c r="AET53"/>
-      <c r="AEU53"/>
-      <c r="AEV53"/>
-      <c r="AEW53"/>
-      <c r="AEX53"/>
-      <c r="AEY53"/>
-      <c r="AEZ53"/>
-      <c r="AFA53"/>
-      <c r="AFB53"/>
-      <c r="AFC53"/>
-      <c r="AFD53"/>
-      <c r="AFE53"/>
-      <c r="AFF53"/>
-      <c r="AFG53"/>
-      <c r="AFH53"/>
-      <c r="AFI53"/>
-      <c r="AFJ53"/>
-      <c r="AFK53"/>
-      <c r="AFL53"/>
-      <c r="AFM53"/>
-      <c r="AFN53"/>
-      <c r="AFO53"/>
-      <c r="AFP53"/>
-      <c r="AFQ53"/>
-      <c r="AFR53"/>
-      <c r="AFS53"/>
-      <c r="AFT53"/>
-      <c r="AFU53"/>
-      <c r="AFV53"/>
-      <c r="AFW53"/>
-      <c r="AFX53"/>
-      <c r="AFY53"/>
-      <c r="AFZ53"/>
-      <c r="AGA53"/>
-      <c r="AGB53"/>
-      <c r="AGC53"/>
-      <c r="AGD53"/>
-      <c r="AGE53"/>
-      <c r="AGF53"/>
-      <c r="AGG53"/>
-      <c r="AGH53"/>
-      <c r="AGI53"/>
-      <c r="AGJ53"/>
-      <c r="AGK53"/>
-      <c r="AGL53"/>
-      <c r="AGM53"/>
-      <c r="AGN53"/>
-      <c r="AGO53"/>
-      <c r="AGP53"/>
-      <c r="AGQ53"/>
-      <c r="AGR53"/>
-      <c r="AGS53"/>
-      <c r="AGT53"/>
-      <c r="AGU53"/>
-      <c r="AGV53"/>
-      <c r="AGW53"/>
-      <c r="AGX53"/>
-      <c r="AGY53"/>
-      <c r="AGZ53"/>
-      <c r="AHA53"/>
-      <c r="AHB53"/>
-      <c r="AHC53"/>
-      <c r="AHD53"/>
-      <c r="AHE53"/>
-      <c r="AHF53"/>
-      <c r="AHG53"/>
-      <c r="AHH53"/>
-      <c r="AHI53"/>
-      <c r="AHJ53"/>
-      <c r="AHK53"/>
-      <c r="AHL53"/>
-      <c r="AHM53"/>
-      <c r="AHN53"/>
-      <c r="AHO53"/>
-      <c r="AHP53"/>
-      <c r="AHQ53"/>
-      <c r="AHR53"/>
-      <c r="AHS53"/>
-      <c r="AHT53"/>
-      <c r="AHU53"/>
-      <c r="AHV53"/>
-      <c r="AHW53"/>
-      <c r="AHX53"/>
-      <c r="AHY53"/>
-      <c r="AHZ53"/>
-      <c r="AIA53"/>
-      <c r="AIB53"/>
-      <c r="AIC53"/>
-      <c r="AID53"/>
-      <c r="AIE53"/>
-      <c r="AIF53"/>
-      <c r="AIG53"/>
-      <c r="AIH53"/>
-      <c r="AII53"/>
-      <c r="AIJ53"/>
-      <c r="AIK53"/>
-      <c r="AIL53"/>
-      <c r="AIM53"/>
-      <c r="AIN53"/>
-      <c r="AIO53"/>
-      <c r="AIP53"/>
-      <c r="AIQ53"/>
-      <c r="AIR53"/>
-      <c r="AIS53"/>
-      <c r="AIT53"/>
-      <c r="AIU53"/>
-      <c r="AIV53"/>
-      <c r="AIW53"/>
-      <c r="AIX53"/>
-      <c r="AIY53"/>
-      <c r="AIZ53"/>
-      <c r="AJA53"/>
-      <c r="AJB53"/>
-      <c r="AJC53"/>
-      <c r="AJD53"/>
-      <c r="AJE53"/>
-      <c r="AJF53"/>
-      <c r="AJG53"/>
-      <c r="AJH53"/>
-      <c r="AJI53"/>
-      <c r="AJJ53"/>
-      <c r="AJK53"/>
-      <c r="AJL53"/>
-      <c r="AJM53"/>
-      <c r="AJN53"/>
-      <c r="AJO53"/>
-      <c r="AJP53"/>
-      <c r="AJQ53"/>
-      <c r="AJR53"/>
-      <c r="AJS53"/>
-      <c r="AJT53"/>
-      <c r="AJU53"/>
-      <c r="AJV53"/>
-      <c r="AJW53"/>
-      <c r="AJX53"/>
-      <c r="AJY53"/>
-      <c r="AJZ53"/>
-      <c r="AKA53"/>
-      <c r="AKB53"/>
-      <c r="AKC53"/>
-      <c r="AKD53"/>
-      <c r="AKE53"/>
-      <c r="AKF53"/>
-      <c r="AKG53"/>
-      <c r="AKH53"/>
-      <c r="AKI53"/>
-      <c r="AKJ53"/>
-      <c r="AKK53"/>
-      <c r="AKL53"/>
-      <c r="AKM53"/>
-      <c r="AKN53"/>
-      <c r="AKO53"/>
-      <c r="AKP53"/>
-      <c r="AKQ53"/>
-      <c r="AKR53"/>
-      <c r="AKS53"/>
-      <c r="AKT53"/>
-      <c r="AKU53"/>
-      <c r="AKV53"/>
-      <c r="AKW53"/>
-      <c r="AKX53"/>
-      <c r="AKY53"/>
-      <c r="AKZ53"/>
-      <c r="ALA53"/>
-      <c r="ALB53"/>
-      <c r="ALC53"/>
-      <c r="ALD53"/>
-      <c r="ALE53"/>
-      <c r="ALF53"/>
-      <c r="ALG53"/>
-      <c r="ALH53"/>
-      <c r="ALI53"/>
-      <c r="ALJ53"/>
-      <c r="ALK53"/>
-      <c r="ALL53"/>
-      <c r="ALM53"/>
-      <c r="ALN53"/>
-      <c r="ALO53"/>
-      <c r="ALP53"/>
-      <c r="ALQ53"/>
-      <c r="ALR53"/>
-      <c r="ALS53"/>
-      <c r="ALT53"/>
-      <c r="ALU53"/>
-      <c r="ALV53"/>
-      <c r="ALW53"/>
-      <c r="ALX53"/>
-      <c r="ALY53"/>
-      <c r="ALZ53"/>
-      <c r="AMA53"/>
-      <c r="AMB53"/>
-      <c r="AMC53"/>
-      <c r="AMD53"/>
-      <c r="AME53"/>
-      <c r="AMF53"/>
-      <c r="AMG53"/>
-      <c r="AMH53"/>
-      <c r="AMI53"/>
-    </row>
-    <row r="54" spans="1:1023">
-      <c r="A54" s="79" t="s">
-        <v>350</v>
-      </c>
-      <c r="B54" s="31" t="s">
+    <row r="54" spans="1:5">
+      <c r="A54" s="55" t="s">
+        <v>265</v>
+      </c>
+      <c r="B54" s="76" t="s">
         <v>25</v>
       </c>
       <c r="C54" s="46" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
       <c r="D54" s="67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E54" s="5"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54"/>
-      <c r="N54"/>
-      <c r="O54"/>
-      <c r="P54"/>
-      <c r="Q54"/>
-      <c r="R54"/>
-      <c r="S54"/>
-      <c r="T54"/>
-      <c r="U54"/>
-      <c r="V54"/>
-      <c r="W54"/>
-      <c r="X54"/>
-      <c r="Y54"/>
-      <c r="Z54"/>
-      <c r="AA54"/>
-      <c r="AB54"/>
-      <c r="AC54"/>
-      <c r="AD54"/>
-      <c r="AE54"/>
-      <c r="AF54"/>
-      <c r="AG54"/>
-      <c r="AH54"/>
-      <c r="AI54"/>
-      <c r="AJ54"/>
-      <c r="AK54"/>
-      <c r="AL54"/>
-      <c r="AM54"/>
-      <c r="AN54"/>
-      <c r="AO54"/>
-      <c r="AP54"/>
-      <c r="AQ54"/>
-      <c r="AR54"/>
-      <c r="AS54"/>
-      <c r="AT54"/>
-      <c r="AU54"/>
-      <c r="AV54"/>
-      <c r="AW54"/>
-      <c r="AX54"/>
-      <c r="AY54"/>
-      <c r="AZ54"/>
-      <c r="BA54"/>
-      <c r="BB54"/>
-      <c r="BC54"/>
-      <c r="BD54"/>
-      <c r="BE54"/>
-      <c r="BF54"/>
-      <c r="BG54"/>
-      <c r="BH54"/>
-      <c r="BI54"/>
-      <c r="BJ54"/>
-      <c r="BK54"/>
-      <c r="BL54"/>
-      <c r="BM54"/>
-      <c r="BN54"/>
-      <c r="BO54"/>
-      <c r="BP54"/>
-      <c r="BQ54"/>
-      <c r="BR54"/>
-      <c r="BS54"/>
-      <c r="BT54"/>
-      <c r="BU54"/>
-      <c r="BV54"/>
-      <c r="BW54"/>
-      <c r="BX54"/>
-      <c r="BY54"/>
-      <c r="BZ54"/>
-      <c r="CA54"/>
-      <c r="CB54"/>
-      <c r="CC54"/>
-      <c r="CD54"/>
-      <c r="CE54"/>
-      <c r="CF54"/>
-      <c r="CG54"/>
-      <c r="CH54"/>
-      <c r="CI54"/>
-      <c r="CJ54"/>
-      <c r="CK54"/>
-      <c r="CL54"/>
-      <c r="CM54"/>
-      <c r="CN54"/>
-      <c r="CO54"/>
-      <c r="CP54"/>
-      <c r="CQ54"/>
-      <c r="CR54"/>
-      <c r="CS54"/>
-      <c r="CT54"/>
-      <c r="CU54"/>
-      <c r="CV54"/>
-      <c r="CW54"/>
-      <c r="CX54"/>
-      <c r="CY54"/>
-      <c r="CZ54"/>
-      <c r="DA54"/>
-      <c r="DB54"/>
-      <c r="DC54"/>
-      <c r="DD54"/>
-      <c r="DE54"/>
-      <c r="DF54"/>
-      <c r="DG54"/>
-      <c r="DH54"/>
-      <c r="DI54"/>
-      <c r="DJ54"/>
-      <c r="DK54"/>
-      <c r="DL54"/>
-      <c r="DM54"/>
-      <c r="DN54"/>
-      <c r="DO54"/>
-      <c r="DP54"/>
-      <c r="DQ54"/>
-      <c r="DR54"/>
-      <c r="DS54"/>
-      <c r="DT54"/>
-      <c r="DU54"/>
-      <c r="DV54"/>
-      <c r="DW54"/>
-      <c r="DX54"/>
-      <c r="DY54"/>
-      <c r="DZ54"/>
-      <c r="EA54"/>
-      <c r="EB54"/>
-      <c r="EC54"/>
-      <c r="ED54"/>
-      <c r="EE54"/>
-      <c r="EF54"/>
-      <c r="EG54"/>
-      <c r="EH54"/>
-      <c r="EI54"/>
-      <c r="EJ54"/>
-      <c r="EK54"/>
-      <c r="EL54"/>
-      <c r="EM54"/>
-      <c r="EN54"/>
-      <c r="EO54"/>
-      <c r="EP54"/>
-      <c r="EQ54"/>
-      <c r="ER54"/>
-      <c r="ES54"/>
-      <c r="ET54"/>
-      <c r="EU54"/>
-      <c r="EV54"/>
-      <c r="EW54"/>
-      <c r="EX54"/>
-      <c r="EY54"/>
-      <c r="EZ54"/>
-      <c r="FA54"/>
-      <c r="FB54"/>
-      <c r="FC54"/>
-      <c r="FD54"/>
-      <c r="FE54"/>
-      <c r="FF54"/>
-      <c r="FG54"/>
-      <c r="FH54"/>
-      <c r="FI54"/>
-      <c r="FJ54"/>
-      <c r="FK54"/>
-      <c r="FL54"/>
-      <c r="FM54"/>
-      <c r="FN54"/>
-      <c r="FO54"/>
-      <c r="FP54"/>
-      <c r="FQ54"/>
-      <c r="FR54"/>
-      <c r="FS54"/>
-      <c r="FT54"/>
-      <c r="FU54"/>
-      <c r="FV54"/>
-      <c r="FW54"/>
-      <c r="FX54"/>
-      <c r="FY54"/>
-      <c r="FZ54"/>
-      <c r="GA54"/>
-      <c r="GB54"/>
-      <c r="GC54"/>
-      <c r="GD54"/>
-      <c r="GE54"/>
-      <c r="GF54"/>
-      <c r="GG54"/>
-      <c r="GH54"/>
-      <c r="GI54"/>
-      <c r="GJ54"/>
-      <c r="GK54"/>
-      <c r="GL54"/>
-      <c r="GM54"/>
-      <c r="GN54"/>
-      <c r="GO54"/>
-      <c r="GP54"/>
-      <c r="GQ54"/>
-      <c r="GR54"/>
-      <c r="GS54"/>
-      <c r="GT54"/>
-      <c r="GU54"/>
-      <c r="GV54"/>
-      <c r="GW54"/>
-      <c r="GX54"/>
-      <c r="GY54"/>
-      <c r="GZ54"/>
-      <c r="HA54"/>
-      <c r="HB54"/>
-      <c r="HC54"/>
-      <c r="HD54"/>
-      <c r="HE54"/>
-      <c r="HF54"/>
-      <c r="HG54"/>
-      <c r="HH54"/>
-      <c r="HI54"/>
-      <c r="HJ54"/>
-      <c r="HK54"/>
-      <c r="HL54"/>
-      <c r="HM54"/>
-      <c r="HN54"/>
-      <c r="HO54"/>
-      <c r="HP54"/>
-      <c r="HQ54"/>
-      <c r="HR54"/>
-      <c r="HS54"/>
-      <c r="HT54"/>
-      <c r="HU54"/>
-      <c r="HV54"/>
-      <c r="HW54"/>
-      <c r="HX54"/>
-      <c r="HY54"/>
-      <c r="HZ54"/>
-      <c r="IA54"/>
-      <c r="IB54"/>
-      <c r="IC54"/>
-      <c r="ID54"/>
-      <c r="IE54"/>
-      <c r="IF54"/>
-      <c r="IG54"/>
-      <c r="IH54"/>
-      <c r="II54"/>
-      <c r="IJ54"/>
-      <c r="IK54"/>
-      <c r="IL54"/>
-      <c r="IM54"/>
-      <c r="IN54"/>
-      <c r="IO54"/>
-      <c r="IP54"/>
-      <c r="IQ54"/>
-      <c r="IR54"/>
-      <c r="IS54"/>
-      <c r="IT54"/>
-      <c r="IU54"/>
-      <c r="IV54"/>
-      <c r="IW54"/>
-      <c r="IX54"/>
-      <c r="IY54"/>
-      <c r="IZ54"/>
-      <c r="JA54"/>
-      <c r="JB54"/>
-      <c r="JC54"/>
-      <c r="JD54"/>
-      <c r="JE54"/>
-      <c r="JF54"/>
-      <c r="JG54"/>
-      <c r="JH54"/>
-      <c r="JI54"/>
-      <c r="JJ54"/>
-      <c r="JK54"/>
-      <c r="JL54"/>
-      <c r="JM54"/>
-      <c r="JN54"/>
-      <c r="JO54"/>
-      <c r="JP54"/>
-      <c r="JQ54"/>
-      <c r="JR54"/>
-      <c r="JS54"/>
-      <c r="JT54"/>
-      <c r="JU54"/>
-      <c r="JV54"/>
-      <c r="JW54"/>
-      <c r="JX54"/>
-      <c r="JY54"/>
-      <c r="JZ54"/>
-      <c r="KA54"/>
-      <c r="KB54"/>
-      <c r="KC54"/>
-      <c r="KD54"/>
-      <c r="KE54"/>
-      <c r="KF54"/>
-      <c r="KG54"/>
-      <c r="KH54"/>
-      <c r="KI54"/>
-      <c r="KJ54"/>
-      <c r="KK54"/>
-      <c r="KL54"/>
-      <c r="KM54"/>
-      <c r="KN54"/>
-      <c r="KO54"/>
-      <c r="KP54"/>
-      <c r="KQ54"/>
-      <c r="KR54"/>
-      <c r="KS54"/>
-      <c r="KT54"/>
-      <c r="KU54"/>
-      <c r="KV54"/>
-      <c r="KW54"/>
-      <c r="KX54"/>
-      <c r="KY54"/>
-      <c r="KZ54"/>
-      <c r="LA54"/>
-      <c r="LB54"/>
-      <c r="LC54"/>
-      <c r="LD54"/>
-      <c r="LE54"/>
-      <c r="LF54"/>
-      <c r="LG54"/>
-      <c r="LH54"/>
-      <c r="LI54"/>
-      <c r="LJ54"/>
-      <c r="LK54"/>
-      <c r="LL54"/>
-      <c r="LM54"/>
-      <c r="LN54"/>
-      <c r="LO54"/>
-      <c r="LP54"/>
-      <c r="LQ54"/>
-      <c r="LR54"/>
-      <c r="LS54"/>
-      <c r="LT54"/>
-      <c r="LU54"/>
-      <c r="LV54"/>
-      <c r="LW54"/>
-      <c r="LX54"/>
-      <c r="LY54"/>
-      <c r="LZ54"/>
-      <c r="MA54"/>
-      <c r="MB54"/>
-      <c r="MC54"/>
-      <c r="MD54"/>
-      <c r="ME54"/>
-      <c r="MF54"/>
-      <c r="MG54"/>
-      <c r="MH54"/>
-      <c r="MI54"/>
-      <c r="MJ54"/>
-      <c r="MK54"/>
-      <c r="ML54"/>
-      <c r="MM54"/>
-      <c r="MN54"/>
-      <c r="MO54"/>
-      <c r="MP54"/>
-      <c r="MQ54"/>
-      <c r="MR54"/>
-      <c r="MS54"/>
-      <c r="MT54"/>
-      <c r="MU54"/>
-      <c r="MV54"/>
-      <c r="MW54"/>
-      <c r="MX54"/>
-      <c r="MY54"/>
-      <c r="MZ54"/>
-      <c r="NA54"/>
-      <c r="NB54"/>
-      <c r="NC54"/>
-      <c r="ND54"/>
-      <c r="NE54"/>
-      <c r="NF54"/>
-      <c r="NG54"/>
-      <c r="NH54"/>
-      <c r="NI54"/>
-      <c r="NJ54"/>
-      <c r="NK54"/>
-      <c r="NL54"/>
-      <c r="NM54"/>
-      <c r="NN54"/>
-      <c r="NO54"/>
-      <c r="NP54"/>
-      <c r="NQ54"/>
-      <c r="NR54"/>
-      <c r="NS54"/>
-      <c r="NT54"/>
-      <c r="NU54"/>
-      <c r="NV54"/>
-      <c r="NW54"/>
-      <c r="NX54"/>
-      <c r="NY54"/>
-      <c r="NZ54"/>
-      <c r="OA54"/>
-      <c r="OB54"/>
-      <c r="OC54"/>
-      <c r="OD54"/>
-      <c r="OE54"/>
-      <c r="OF54"/>
-      <c r="OG54"/>
-      <c r="OH54"/>
-      <c r="OI54"/>
-      <c r="OJ54"/>
-      <c r="OK54"/>
-      <c r="OL54"/>
-      <c r="OM54"/>
-      <c r="ON54"/>
-      <c r="OO54"/>
-      <c r="OP54"/>
-      <c r="OQ54"/>
-      <c r="OR54"/>
-      <c r="OS54"/>
-      <c r="OT54"/>
-      <c r="OU54"/>
-      <c r="OV54"/>
-      <c r="OW54"/>
-      <c r="OX54"/>
-      <c r="OY54"/>
-      <c r="OZ54"/>
-      <c r="PA54"/>
-      <c r="PB54"/>
-      <c r="PC54"/>
-      <c r="PD54"/>
-      <c r="PE54"/>
-      <c r="PF54"/>
-      <c r="PG54"/>
-      <c r="PH54"/>
-      <c r="PI54"/>
-      <c r="PJ54"/>
-      <c r="PK54"/>
-      <c r="PL54"/>
-      <c r="PM54"/>
-      <c r="PN54"/>
-      <c r="PO54"/>
-      <c r="PP54"/>
-      <c r="PQ54"/>
-      <c r="PR54"/>
-      <c r="PS54"/>
-      <c r="PT54"/>
-      <c r="PU54"/>
-      <c r="PV54"/>
-      <c r="PW54"/>
-      <c r="PX54"/>
-      <c r="PY54"/>
-      <c r="PZ54"/>
-      <c r="QA54"/>
-      <c r="QB54"/>
-      <c r="QC54"/>
-      <c r="QD54"/>
-      <c r="QE54"/>
-      <c r="QF54"/>
-      <c r="QG54"/>
-      <c r="QH54"/>
-      <c r="QI54"/>
-      <c r="QJ54"/>
-      <c r="QK54"/>
-      <c r="QL54"/>
-      <c r="QM54"/>
-      <c r="QN54"/>
-      <c r="QO54"/>
-      <c r="QP54"/>
-      <c r="QQ54"/>
-      <c r="QR54"/>
-      <c r="QS54"/>
-      <c r="QT54"/>
-      <c r="QU54"/>
-      <c r="QV54"/>
-      <c r="QW54"/>
-      <c r="QX54"/>
-      <c r="QY54"/>
-      <c r="QZ54"/>
-      <c r="RA54"/>
-      <c r="RB54"/>
-      <c r="RC54"/>
-      <c r="RD54"/>
-      <c r="RE54"/>
-      <c r="RF54"/>
-      <c r="RG54"/>
-      <c r="RH54"/>
-      <c r="RI54"/>
-      <c r="RJ54"/>
-      <c r="RK54"/>
-      <c r="RL54"/>
-      <c r="RM54"/>
-      <c r="RN54"/>
-      <c r="RO54"/>
-      <c r="RP54"/>
-      <c r="RQ54"/>
-      <c r="RR54"/>
-      <c r="RS54"/>
-      <c r="RT54"/>
-      <c r="RU54"/>
-      <c r="RV54"/>
-      <c r="RW54"/>
-      <c r="RX54"/>
-      <c r="RY54"/>
-      <c r="RZ54"/>
-      <c r="SA54"/>
-      <c r="SB54"/>
-      <c r="SC54"/>
-      <c r="SD54"/>
-      <c r="SE54"/>
-      <c r="SF54"/>
-      <c r="SG54"/>
-      <c r="SH54"/>
-      <c r="SI54"/>
-      <c r="SJ54"/>
-      <c r="SK54"/>
-      <c r="SL54"/>
-      <c r="SM54"/>
-      <c r="SN54"/>
-      <c r="SO54"/>
-      <c r="SP54"/>
-      <c r="SQ54"/>
-      <c r="SR54"/>
-      <c r="SS54"/>
-      <c r="ST54"/>
-      <c r="SU54"/>
-      <c r="SV54"/>
-      <c r="SW54"/>
-      <c r="SX54"/>
-      <c r="SY54"/>
-      <c r="SZ54"/>
-      <c r="TA54"/>
-      <c r="TB54"/>
-      <c r="TC54"/>
-      <c r="TD54"/>
-      <c r="TE54"/>
-      <c r="TF54"/>
-      <c r="TG54"/>
-      <c r="TH54"/>
-      <c r="TI54"/>
-      <c r="TJ54"/>
-      <c r="TK54"/>
-      <c r="TL54"/>
-      <c r="TM54"/>
-      <c r="TN54"/>
-      <c r="TO54"/>
-      <c r="TP54"/>
-      <c r="TQ54"/>
-      <c r="TR54"/>
-      <c r="TS54"/>
-      <c r="TT54"/>
-      <c r="TU54"/>
-      <c r="TV54"/>
-      <c r="TW54"/>
-      <c r="TX54"/>
-      <c r="TY54"/>
-      <c r="TZ54"/>
-      <c r="UA54"/>
-      <c r="UB54"/>
-      <c r="UC54"/>
-      <c r="UD54"/>
-      <c r="UE54"/>
-      <c r="UF54"/>
-      <c r="UG54"/>
-      <c r="UH54"/>
-      <c r="UI54"/>
-      <c r="UJ54"/>
-      <c r="UK54"/>
-      <c r="UL54"/>
-      <c r="UM54"/>
-      <c r="UN54"/>
-      <c r="UO54"/>
-      <c r="UP54"/>
-      <c r="UQ54"/>
-      <c r="UR54"/>
-      <c r="US54"/>
-      <c r="UT54"/>
-      <c r="UU54"/>
-      <c r="UV54"/>
-      <c r="UW54"/>
-      <c r="UX54"/>
-      <c r="UY54"/>
-      <c r="UZ54"/>
-      <c r="VA54"/>
-      <c r="VB54"/>
-      <c r="VC54"/>
-      <c r="VD54"/>
-      <c r="VE54"/>
-      <c r="VF54"/>
-      <c r="VG54"/>
-      <c r="VH54"/>
-      <c r="VI54"/>
-      <c r="VJ54"/>
-      <c r="VK54"/>
-      <c r="VL54"/>
-      <c r="VM54"/>
-      <c r="VN54"/>
-      <c r="VO54"/>
-      <c r="VP54"/>
-      <c r="VQ54"/>
-      <c r="VR54"/>
-      <c r="VS54"/>
-      <c r="VT54"/>
-      <c r="VU54"/>
-      <c r="VV54"/>
-      <c r="VW54"/>
-      <c r="VX54"/>
-      <c r="VY54"/>
-      <c r="VZ54"/>
-      <c r="WA54"/>
-      <c r="WB54"/>
-      <c r="WC54"/>
-      <c r="WD54"/>
-      <c r="WE54"/>
-      <c r="WF54"/>
-      <c r="WG54"/>
-      <c r="WH54"/>
-      <c r="WI54"/>
-      <c r="WJ54"/>
-      <c r="WK54"/>
-      <c r="WL54"/>
-      <c r="WM54"/>
-      <c r="WN54"/>
-      <c r="WO54"/>
-      <c r="WP54"/>
-      <c r="WQ54"/>
-      <c r="WR54"/>
-      <c r="WS54"/>
-      <c r="WT54"/>
-      <c r="WU54"/>
-      <c r="WV54"/>
-      <c r="WW54"/>
-      <c r="WX54"/>
-      <c r="WY54"/>
-      <c r="WZ54"/>
-      <c r="XA54"/>
-      <c r="XB54"/>
-      <c r="XC54"/>
-      <c r="XD54"/>
-      <c r="XE54"/>
-      <c r="XF54"/>
-      <c r="XG54"/>
-      <c r="XH54"/>
-      <c r="XI54"/>
-      <c r="XJ54"/>
-      <c r="XK54"/>
-      <c r="XL54"/>
-      <c r="XM54"/>
-      <c r="XN54"/>
-      <c r="XO54"/>
-      <c r="XP54"/>
-      <c r="XQ54"/>
-      <c r="XR54"/>
-      <c r="XS54"/>
-      <c r="XT54"/>
-      <c r="XU54"/>
-      <c r="XV54"/>
-      <c r="XW54"/>
-      <c r="XX54"/>
-      <c r="XY54"/>
-      <c r="XZ54"/>
-      <c r="YA54"/>
-      <c r="YB54"/>
-      <c r="YC54"/>
-      <c r="YD54"/>
-      <c r="YE54"/>
-      <c r="YF54"/>
-      <c r="YG54"/>
-      <c r="YH54"/>
-      <c r="YI54"/>
-      <c r="YJ54"/>
-      <c r="YK54"/>
-      <c r="YL54"/>
-      <c r="YM54"/>
-      <c r="YN54"/>
-      <c r="YO54"/>
-      <c r="YP54"/>
-      <c r="YQ54"/>
-      <c r="YR54"/>
-      <c r="YS54"/>
-      <c r="YT54"/>
-      <c r="YU54"/>
-      <c r="YV54"/>
-      <c r="YW54"/>
-      <c r="YX54"/>
-      <c r="YY54"/>
-      <c r="YZ54"/>
-      <c r="ZA54"/>
-      <c r="ZB54"/>
-      <c r="ZC54"/>
-      <c r="ZD54"/>
-      <c r="ZE54"/>
-      <c r="ZF54"/>
-      <c r="ZG54"/>
-      <c r="ZH54"/>
-      <c r="ZI54"/>
-      <c r="ZJ54"/>
-      <c r="ZK54"/>
-      <c r="ZL54"/>
-      <c r="ZM54"/>
-      <c r="ZN54"/>
-      <c r="ZO54"/>
-      <c r="ZP54"/>
-      <c r="ZQ54"/>
-      <c r="ZR54"/>
-      <c r="ZS54"/>
-      <c r="ZT54"/>
-      <c r="ZU54"/>
-      <c r="ZV54"/>
-      <c r="ZW54"/>
-      <c r="ZX54"/>
-      <c r="ZY54"/>
-      <c r="ZZ54"/>
-      <c r="AAA54"/>
-      <c r="AAB54"/>
-      <c r="AAC54"/>
-      <c r="AAD54"/>
-      <c r="AAE54"/>
-      <c r="AAF54"/>
-      <c r="AAG54"/>
-      <c r="AAH54"/>
-      <c r="AAI54"/>
-      <c r="AAJ54"/>
-      <c r="AAK54"/>
-      <c r="AAL54"/>
-      <c r="AAM54"/>
-      <c r="AAN54"/>
-      <c r="AAO54"/>
-      <c r="AAP54"/>
-      <c r="AAQ54"/>
-      <c r="AAR54"/>
-      <c r="AAS54"/>
-      <c r="AAT54"/>
-      <c r="AAU54"/>
-      <c r="AAV54"/>
-      <c r="AAW54"/>
-      <c r="AAX54"/>
-      <c r="AAY54"/>
-      <c r="AAZ54"/>
-      <c r="ABA54"/>
-      <c r="ABB54"/>
-      <c r="ABC54"/>
-      <c r="ABD54"/>
-      <c r="ABE54"/>
-      <c r="ABF54"/>
-      <c r="ABG54"/>
-      <c r="ABH54"/>
-      <c r="ABI54"/>
-      <c r="ABJ54"/>
-      <c r="ABK54"/>
-      <c r="ABL54"/>
-      <c r="ABM54"/>
-      <c r="ABN54"/>
-      <c r="ABO54"/>
-      <c r="ABP54"/>
-      <c r="ABQ54"/>
-      <c r="ABR54"/>
-      <c r="ABS54"/>
-      <c r="ABT54"/>
-      <c r="ABU54"/>
-      <c r="ABV54"/>
-      <c r="ABW54"/>
-      <c r="ABX54"/>
-      <c r="ABY54"/>
-      <c r="ABZ54"/>
-      <c r="ACA54"/>
-      <c r="ACB54"/>
-      <c r="ACC54"/>
-      <c r="ACD54"/>
-      <c r="ACE54"/>
-      <c r="ACF54"/>
-      <c r="ACG54"/>
-      <c r="ACH54"/>
-      <c r="ACI54"/>
-      <c r="ACJ54"/>
-      <c r="ACK54"/>
-      <c r="ACL54"/>
-      <c r="ACM54"/>
-      <c r="ACN54"/>
-      <c r="ACO54"/>
-      <c r="ACP54"/>
-      <c r="ACQ54"/>
-      <c r="ACR54"/>
-      <c r="ACS54"/>
-      <c r="ACT54"/>
-      <c r="ACU54"/>
-      <c r="ACV54"/>
-      <c r="ACW54"/>
-      <c r="ACX54"/>
-      <c r="ACY54"/>
-      <c r="ACZ54"/>
-      <c r="ADA54"/>
-      <c r="ADB54"/>
-      <c r="ADC54"/>
-      <c r="ADD54"/>
-      <c r="ADE54"/>
-      <c r="ADF54"/>
-      <c r="ADG54"/>
-      <c r="ADH54"/>
-      <c r="ADI54"/>
-      <c r="ADJ54"/>
-      <c r="ADK54"/>
-      <c r="ADL54"/>
-      <c r="ADM54"/>
-      <c r="ADN54"/>
-      <c r="ADO54"/>
-      <c r="ADP54"/>
-      <c r="ADQ54"/>
-      <c r="ADR54"/>
-      <c r="ADS54"/>
-      <c r="ADT54"/>
-      <c r="ADU54"/>
-      <c r="ADV54"/>
-      <c r="ADW54"/>
-      <c r="ADX54"/>
-      <c r="ADY54"/>
-      <c r="ADZ54"/>
-      <c r="AEA54"/>
-      <c r="AEB54"/>
-      <c r="AEC54"/>
-      <c r="AED54"/>
-      <c r="AEE54"/>
-      <c r="AEF54"/>
-      <c r="AEG54"/>
-      <c r="AEH54"/>
-      <c r="AEI54"/>
-      <c r="AEJ54"/>
-      <c r="AEK54"/>
-      <c r="AEL54"/>
-      <c r="AEM54"/>
-      <c r="AEN54"/>
-      <c r="AEO54"/>
-      <c r="AEP54"/>
-      <c r="AEQ54"/>
-      <c r="AER54"/>
-      <c r="AES54"/>
-      <c r="AET54"/>
-      <c r="AEU54"/>
-      <c r="AEV54"/>
-      <c r="AEW54"/>
-      <c r="AEX54"/>
-      <c r="AEY54"/>
-      <c r="AEZ54"/>
-      <c r="AFA54"/>
-      <c r="AFB54"/>
-      <c r="AFC54"/>
-      <c r="AFD54"/>
-      <c r="AFE54"/>
-      <c r="AFF54"/>
-      <c r="AFG54"/>
-      <c r="AFH54"/>
-      <c r="AFI54"/>
-      <c r="AFJ54"/>
-      <c r="AFK54"/>
-      <c r="AFL54"/>
-      <c r="AFM54"/>
-      <c r="AFN54"/>
-      <c r="AFO54"/>
-      <c r="AFP54"/>
-      <c r="AFQ54"/>
-      <c r="AFR54"/>
-      <c r="AFS54"/>
-      <c r="AFT54"/>
-      <c r="AFU54"/>
-      <c r="AFV54"/>
-      <c r="AFW54"/>
-      <c r="AFX54"/>
-      <c r="AFY54"/>
-      <c r="AFZ54"/>
-      <c r="AGA54"/>
-      <c r="AGB54"/>
-      <c r="AGC54"/>
-      <c r="AGD54"/>
-      <c r="AGE54"/>
-      <c r="AGF54"/>
-      <c r="AGG54"/>
-      <c r="AGH54"/>
-      <c r="AGI54"/>
-      <c r="AGJ54"/>
-      <c r="AGK54"/>
-      <c r="AGL54"/>
-      <c r="AGM54"/>
-      <c r="AGN54"/>
-      <c r="AGO54"/>
-      <c r="AGP54"/>
-      <c r="AGQ54"/>
-      <c r="AGR54"/>
-      <c r="AGS54"/>
-      <c r="AGT54"/>
-      <c r="AGU54"/>
-      <c r="AGV54"/>
-      <c r="AGW54"/>
-      <c r="AGX54"/>
-      <c r="AGY54"/>
-      <c r="AGZ54"/>
-      <c r="AHA54"/>
-      <c r="AHB54"/>
-      <c r="AHC54"/>
-      <c r="AHD54"/>
-      <c r="AHE54"/>
-      <c r="AHF54"/>
-      <c r="AHG54"/>
-      <c r="AHH54"/>
-      <c r="AHI54"/>
-      <c r="AHJ54"/>
-      <c r="AHK54"/>
-      <c r="AHL54"/>
-      <c r="AHM54"/>
-      <c r="AHN54"/>
-      <c r="AHO54"/>
-      <c r="AHP54"/>
-      <c r="AHQ54"/>
-      <c r="AHR54"/>
-      <c r="AHS54"/>
-      <c r="AHT54"/>
-      <c r="AHU54"/>
-      <c r="AHV54"/>
-      <c r="AHW54"/>
-      <c r="AHX54"/>
-      <c r="AHY54"/>
-      <c r="AHZ54"/>
-      <c r="AIA54"/>
-      <c r="AIB54"/>
-      <c r="AIC54"/>
-      <c r="AID54"/>
-      <c r="AIE54"/>
-      <c r="AIF54"/>
-      <c r="AIG54"/>
-      <c r="AIH54"/>
-      <c r="AII54"/>
-      <c r="AIJ54"/>
-      <c r="AIK54"/>
-      <c r="AIL54"/>
-      <c r="AIM54"/>
-      <c r="AIN54"/>
-      <c r="AIO54"/>
-      <c r="AIP54"/>
-      <c r="AIQ54"/>
-      <c r="AIR54"/>
-      <c r="AIS54"/>
-      <c r="AIT54"/>
-      <c r="AIU54"/>
-      <c r="AIV54"/>
-      <c r="AIW54"/>
-      <c r="AIX54"/>
-      <c r="AIY54"/>
-      <c r="AIZ54"/>
-      <c r="AJA54"/>
-      <c r="AJB54"/>
-      <c r="AJC54"/>
-      <c r="AJD54"/>
-      <c r="AJE54"/>
-      <c r="AJF54"/>
-      <c r="AJG54"/>
-      <c r="AJH54"/>
-      <c r="AJI54"/>
-      <c r="AJJ54"/>
-      <c r="AJK54"/>
-      <c r="AJL54"/>
-      <c r="AJM54"/>
-      <c r="AJN54"/>
-      <c r="AJO54"/>
-      <c r="AJP54"/>
-      <c r="AJQ54"/>
-      <c r="AJR54"/>
-      <c r="AJS54"/>
-      <c r="AJT54"/>
-      <c r="AJU54"/>
-      <c r="AJV54"/>
-      <c r="AJW54"/>
-      <c r="AJX54"/>
-      <c r="AJY54"/>
-      <c r="AJZ54"/>
-      <c r="AKA54"/>
-      <c r="AKB54"/>
-      <c r="AKC54"/>
-      <c r="AKD54"/>
-      <c r="AKE54"/>
-      <c r="AKF54"/>
-      <c r="AKG54"/>
-      <c r="AKH54"/>
-      <c r="AKI54"/>
-      <c r="AKJ54"/>
-      <c r="AKK54"/>
-      <c r="AKL54"/>
-      <c r="AKM54"/>
-      <c r="AKN54"/>
-      <c r="AKO54"/>
-      <c r="AKP54"/>
-      <c r="AKQ54"/>
-      <c r="AKR54"/>
-      <c r="AKS54"/>
-      <c r="AKT54"/>
-      <c r="AKU54"/>
-      <c r="AKV54"/>
-      <c r="AKW54"/>
-      <c r="AKX54"/>
-      <c r="AKY54"/>
-      <c r="AKZ54"/>
-      <c r="ALA54"/>
-      <c r="ALB54"/>
-      <c r="ALC54"/>
-      <c r="ALD54"/>
-      <c r="ALE54"/>
-      <c r="ALF54"/>
-      <c r="ALG54"/>
-      <c r="ALH54"/>
-      <c r="ALI54"/>
-      <c r="ALJ54"/>
-      <c r="ALK54"/>
-      <c r="ALL54"/>
-      <c r="ALM54"/>
-      <c r="ALN54"/>
-      <c r="ALO54"/>
-      <c r="ALP54"/>
-      <c r="ALQ54"/>
-      <c r="ALR54"/>
-      <c r="ALS54"/>
-      <c r="ALT54"/>
-      <c r="ALU54"/>
-      <c r="ALV54"/>
-      <c r="ALW54"/>
-      <c r="ALX54"/>
-      <c r="ALY54"/>
-      <c r="ALZ54"/>
-      <c r="AMA54"/>
-      <c r="AMB54"/>
-      <c r="AMC54"/>
-      <c r="AMD54"/>
-      <c r="AME54"/>
-      <c r="AMF54"/>
-      <c r="AMG54"/>
-      <c r="AMH54"/>
-      <c r="AMI54"/>
-    </row>
-    <row r="55" spans="1:1023">
-      <c r="A55" s="79" t="s">
-        <v>350</v>
-      </c>
-      <c r="B55" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" s="46" t="s">
-        <v>353</v>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="55" t="s">
+        <v>265</v>
+      </c>
+      <c r="B55" s="76" t="s">
+        <v>338</v>
+      </c>
+      <c r="C55" s="81" t="s">
+        <v>339</v>
       </c>
       <c r="D55" s="67" t="s">
         <v>271</v>
       </c>
-      <c r="E55" s="5"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55"/>
-      <c r="N55"/>
-      <c r="O55"/>
-      <c r="P55"/>
-      <c r="Q55"/>
-      <c r="R55"/>
-      <c r="S55"/>
-      <c r="T55"/>
-      <c r="U55"/>
-      <c r="V55"/>
-      <c r="W55"/>
-      <c r="X55"/>
-      <c r="Y55"/>
-      <c r="Z55"/>
-      <c r="AA55"/>
-      <c r="AB55"/>
-      <c r="AC55"/>
-      <c r="AD55"/>
-      <c r="AE55"/>
-      <c r="AF55"/>
-      <c r="AG55"/>
-      <c r="AH55"/>
-      <c r="AI55"/>
-      <c r="AJ55"/>
-      <c r="AK55"/>
-      <c r="AL55"/>
-      <c r="AM55"/>
-      <c r="AN55"/>
-      <c r="AO55"/>
-      <c r="AP55"/>
-      <c r="AQ55"/>
-      <c r="AR55"/>
-      <c r="AS55"/>
-      <c r="AT55"/>
-      <c r="AU55"/>
-      <c r="AV55"/>
-      <c r="AW55"/>
-      <c r="AX55"/>
-      <c r="AY55"/>
-      <c r="AZ55"/>
-      <c r="BA55"/>
-      <c r="BB55"/>
-      <c r="BC55"/>
-      <c r="BD55"/>
-      <c r="BE55"/>
-      <c r="BF55"/>
-      <c r="BG55"/>
-      <c r="BH55"/>
-      <c r="BI55"/>
-      <c r="BJ55"/>
-      <c r="BK55"/>
-      <c r="BL55"/>
-      <c r="BM55"/>
-      <c r="BN55"/>
-      <c r="BO55"/>
-      <c r="BP55"/>
-      <c r="BQ55"/>
-      <c r="BR55"/>
-      <c r="BS55"/>
-      <c r="BT55"/>
-      <c r="BU55"/>
-      <c r="BV55"/>
-      <c r="BW55"/>
-      <c r="BX55"/>
-      <c r="BY55"/>
-      <c r="BZ55"/>
-      <c r="CA55"/>
-      <c r="CB55"/>
-      <c r="CC55"/>
-      <c r="CD55"/>
-      <c r="CE55"/>
-      <c r="CF55"/>
-      <c r="CG55"/>
-      <c r="CH55"/>
-      <c r="CI55"/>
-      <c r="CJ55"/>
-      <c r="CK55"/>
-      <c r="CL55"/>
-      <c r="CM55"/>
-      <c r="CN55"/>
-      <c r="CO55"/>
-      <c r="CP55"/>
-      <c r="CQ55"/>
-      <c r="CR55"/>
-      <c r="CS55"/>
-      <c r="CT55"/>
-      <c r="CU55"/>
-      <c r="CV55"/>
-      <c r="CW55"/>
-      <c r="CX55"/>
-      <c r="CY55"/>
-      <c r="CZ55"/>
-      <c r="DA55"/>
-      <c r="DB55"/>
-      <c r="DC55"/>
-      <c r="DD55"/>
-      <c r="DE55"/>
-      <c r="DF55"/>
-      <c r="DG55"/>
-      <c r="DH55"/>
-      <c r="DI55"/>
-      <c r="DJ55"/>
-      <c r="DK55"/>
-      <c r="DL55"/>
-      <c r="DM55"/>
-      <c r="DN55"/>
-      <c r="DO55"/>
-      <c r="DP55"/>
-      <c r="DQ55"/>
-      <c r="DR55"/>
-      <c r="DS55"/>
-      <c r="DT55"/>
-      <c r="DU55"/>
-      <c r="DV55"/>
-      <c r="DW55"/>
-      <c r="DX55"/>
-      <c r="DY55"/>
-      <c r="DZ55"/>
-      <c r="EA55"/>
-      <c r="EB55"/>
-      <c r="EC55"/>
-      <c r="ED55"/>
-      <c r="EE55"/>
-      <c r="EF55"/>
-      <c r="EG55"/>
-      <c r="EH55"/>
-      <c r="EI55"/>
-      <c r="EJ55"/>
-      <c r="EK55"/>
-      <c r="EL55"/>
-      <c r="EM55"/>
-      <c r="EN55"/>
-      <c r="EO55"/>
-      <c r="EP55"/>
-      <c r="EQ55"/>
-      <c r="ER55"/>
-      <c r="ES55"/>
-      <c r="ET55"/>
-      <c r="EU55"/>
-      <c r="EV55"/>
-      <c r="EW55"/>
-      <c r="EX55"/>
-      <c r="EY55"/>
-      <c r="EZ55"/>
-      <c r="FA55"/>
-      <c r="FB55"/>
-      <c r="FC55"/>
-      <c r="FD55"/>
-      <c r="FE55"/>
-      <c r="FF55"/>
-      <c r="FG55"/>
-      <c r="FH55"/>
-      <c r="FI55"/>
-      <c r="FJ55"/>
-      <c r="FK55"/>
-      <c r="FL55"/>
-      <c r="FM55"/>
-      <c r="FN55"/>
-      <c r="FO55"/>
-      <c r="FP55"/>
-      <c r="FQ55"/>
-      <c r="FR55"/>
-      <c r="FS55"/>
-      <c r="FT55"/>
-      <c r="FU55"/>
-      <c r="FV55"/>
-      <c r="FW55"/>
-      <c r="FX55"/>
-      <c r="FY55"/>
-      <c r="FZ55"/>
-      <c r="GA55"/>
-      <c r="GB55"/>
-      <c r="GC55"/>
-      <c r="GD55"/>
-      <c r="GE55"/>
-      <c r="GF55"/>
-      <c r="GG55"/>
-      <c r="GH55"/>
-      <c r="GI55"/>
-      <c r="GJ55"/>
-      <c r="GK55"/>
-      <c r="GL55"/>
-      <c r="GM55"/>
-      <c r="GN55"/>
-      <c r="GO55"/>
-      <c r="GP55"/>
-      <c r="GQ55"/>
-      <c r="GR55"/>
-      <c r="GS55"/>
-      <c r="GT55"/>
-      <c r="GU55"/>
-      <c r="GV55"/>
-      <c r="GW55"/>
-      <c r="GX55"/>
-      <c r="GY55"/>
-      <c r="GZ55"/>
-      <c r="HA55"/>
-      <c r="HB55"/>
-      <c r="HC55"/>
-      <c r="HD55"/>
-      <c r="HE55"/>
-      <c r="HF55"/>
-      <c r="HG55"/>
-      <c r="HH55"/>
-      <c r="HI55"/>
-      <c r="HJ55"/>
-      <c r="HK55"/>
-      <c r="HL55"/>
-      <c r="HM55"/>
-      <c r="HN55"/>
-      <c r="HO55"/>
-      <c r="HP55"/>
-      <c r="HQ55"/>
-      <c r="HR55"/>
-      <c r="HS55"/>
-      <c r="HT55"/>
-      <c r="HU55"/>
-      <c r="HV55"/>
-      <c r="HW55"/>
-      <c r="HX55"/>
-      <c r="HY55"/>
-      <c r="HZ55"/>
-      <c r="IA55"/>
-      <c r="IB55"/>
-      <c r="IC55"/>
-      <c r="ID55"/>
-      <c r="IE55"/>
-      <c r="IF55"/>
-      <c r="IG55"/>
-      <c r="IH55"/>
-      <c r="II55"/>
-      <c r="IJ55"/>
-      <c r="IK55"/>
-      <c r="IL55"/>
-      <c r="IM55"/>
-      <c r="IN55"/>
-      <c r="IO55"/>
-      <c r="IP55"/>
-      <c r="IQ55"/>
-      <c r="IR55"/>
-      <c r="IS55"/>
-      <c r="IT55"/>
-      <c r="IU55"/>
-      <c r="IV55"/>
-      <c r="IW55"/>
-      <c r="IX55"/>
-      <c r="IY55"/>
-      <c r="IZ55"/>
-      <c r="JA55"/>
-      <c r="JB55"/>
-      <c r="JC55"/>
-      <c r="JD55"/>
-      <c r="JE55"/>
-      <c r="JF55"/>
-      <c r="JG55"/>
-      <c r="JH55"/>
-      <c r="JI55"/>
-      <c r="JJ55"/>
-      <c r="JK55"/>
-      <c r="JL55"/>
-      <c r="JM55"/>
-      <c r="JN55"/>
-      <c r="JO55"/>
-      <c r="JP55"/>
-      <c r="JQ55"/>
-      <c r="JR55"/>
-      <c r="JS55"/>
-      <c r="JT55"/>
-      <c r="JU55"/>
-      <c r="JV55"/>
-      <c r="JW55"/>
-      <c r="JX55"/>
-      <c r="JY55"/>
-      <c r="JZ55"/>
-      <c r="KA55"/>
-      <c r="KB55"/>
-      <c r="KC55"/>
-      <c r="KD55"/>
-      <c r="KE55"/>
-      <c r="KF55"/>
-      <c r="KG55"/>
-      <c r="KH55"/>
-      <c r="KI55"/>
-      <c r="KJ55"/>
-      <c r="KK55"/>
-      <c r="KL55"/>
-      <c r="KM55"/>
-      <c r="KN55"/>
-      <c r="KO55"/>
-      <c r="KP55"/>
-      <c r="KQ55"/>
-      <c r="KR55"/>
-      <c r="KS55"/>
-      <c r="KT55"/>
-      <c r="KU55"/>
-      <c r="KV55"/>
-      <c r="KW55"/>
-      <c r="KX55"/>
-      <c r="KY55"/>
-      <c r="KZ55"/>
-      <c r="LA55"/>
-      <c r="LB55"/>
-      <c r="LC55"/>
-      <c r="LD55"/>
-      <c r="LE55"/>
-      <c r="LF55"/>
-      <c r="LG55"/>
-      <c r="LH55"/>
-      <c r="LI55"/>
-      <c r="LJ55"/>
-      <c r="LK55"/>
-      <c r="LL55"/>
-      <c r="LM55"/>
-      <c r="LN55"/>
-      <c r="LO55"/>
-      <c r="LP55"/>
-      <c r="LQ55"/>
-      <c r="LR55"/>
-      <c r="LS55"/>
-      <c r="LT55"/>
-      <c r="LU55"/>
-      <c r="LV55"/>
-      <c r="LW55"/>
-      <c r="LX55"/>
-      <c r="LY55"/>
-      <c r="LZ55"/>
-      <c r="MA55"/>
-      <c r="MB55"/>
-      <c r="MC55"/>
-      <c r="MD55"/>
-      <c r="ME55"/>
-      <c r="MF55"/>
-      <c r="MG55"/>
-      <c r="MH55"/>
-      <c r="MI55"/>
-      <c r="MJ55"/>
-      <c r="MK55"/>
-      <c r="ML55"/>
-      <c r="MM55"/>
-      <c r="MN55"/>
-      <c r="MO55"/>
-      <c r="MP55"/>
-      <c r="MQ55"/>
-      <c r="MR55"/>
-      <c r="MS55"/>
-      <c r="MT55"/>
-      <c r="MU55"/>
-      <c r="MV55"/>
-      <c r="MW55"/>
-      <c r="MX55"/>
-      <c r="MY55"/>
-      <c r="MZ55"/>
-      <c r="NA55"/>
-      <c r="NB55"/>
-      <c r="NC55"/>
-      <c r="ND55"/>
-      <c r="NE55"/>
-      <c r="NF55"/>
-      <c r="NG55"/>
-      <c r="NH55"/>
-      <c r="NI55"/>
-      <c r="NJ55"/>
-      <c r="NK55"/>
-      <c r="NL55"/>
-      <c r="NM55"/>
-      <c r="NN55"/>
-      <c r="NO55"/>
-      <c r="NP55"/>
-      <c r="NQ55"/>
-      <c r="NR55"/>
-      <c r="NS55"/>
-      <c r="NT55"/>
-      <c r="NU55"/>
-      <c r="NV55"/>
-      <c r="NW55"/>
-      <c r="NX55"/>
-      <c r="NY55"/>
-      <c r="NZ55"/>
-      <c r="OA55"/>
-      <c r="OB55"/>
-      <c r="OC55"/>
-      <c r="OD55"/>
-      <c r="OE55"/>
-      <c r="OF55"/>
-      <c r="OG55"/>
-      <c r="OH55"/>
-      <c r="OI55"/>
-      <c r="OJ55"/>
-      <c r="OK55"/>
-      <c r="OL55"/>
-      <c r="OM55"/>
-      <c r="ON55"/>
-      <c r="OO55"/>
-      <c r="OP55"/>
-      <c r="OQ55"/>
-      <c r="OR55"/>
-      <c r="OS55"/>
-      <c r="OT55"/>
-      <c r="OU55"/>
-      <c r="OV55"/>
-      <c r="OW55"/>
-      <c r="OX55"/>
-      <c r="OY55"/>
-      <c r="OZ55"/>
-      <c r="PA55"/>
-      <c r="PB55"/>
-      <c r="PC55"/>
-      <c r="PD55"/>
-      <c r="PE55"/>
-      <c r="PF55"/>
-      <c r="PG55"/>
-      <c r="PH55"/>
-      <c r="PI55"/>
-      <c r="PJ55"/>
-      <c r="PK55"/>
-      <c r="PL55"/>
-      <c r="PM55"/>
-      <c r="PN55"/>
-      <c r="PO55"/>
-      <c r="PP55"/>
-      <c r="PQ55"/>
-      <c r="PR55"/>
-      <c r="PS55"/>
-      <c r="PT55"/>
-      <c r="PU55"/>
-      <c r="PV55"/>
-      <c r="PW55"/>
-      <c r="PX55"/>
-      <c r="PY55"/>
-      <c r="PZ55"/>
-      <c r="QA55"/>
-      <c r="QB55"/>
-      <c r="QC55"/>
-      <c r="QD55"/>
-      <c r="QE55"/>
-      <c r="QF55"/>
-      <c r="QG55"/>
-      <c r="QH55"/>
-      <c r="QI55"/>
-      <c r="QJ55"/>
-      <c r="QK55"/>
-      <c r="QL55"/>
-      <c r="QM55"/>
-      <c r="QN55"/>
-      <c r="QO55"/>
-      <c r="QP55"/>
-      <c r="QQ55"/>
-      <c r="QR55"/>
-      <c r="QS55"/>
-      <c r="QT55"/>
-      <c r="QU55"/>
-      <c r="QV55"/>
-      <c r="QW55"/>
-      <c r="QX55"/>
-      <c r="QY55"/>
-      <c r="QZ55"/>
-      <c r="RA55"/>
-      <c r="RB55"/>
-      <c r="RC55"/>
-      <c r="RD55"/>
-      <c r="RE55"/>
-      <c r="RF55"/>
-      <c r="RG55"/>
-      <c r="RH55"/>
-      <c r="RI55"/>
-      <c r="RJ55"/>
-      <c r="RK55"/>
-      <c r="RL55"/>
-      <c r="RM55"/>
-      <c r="RN55"/>
-      <c r="RO55"/>
-      <c r="RP55"/>
-      <c r="RQ55"/>
-      <c r="RR55"/>
-      <c r="RS55"/>
-      <c r="RT55"/>
-      <c r="RU55"/>
-      <c r="RV55"/>
-      <c r="RW55"/>
-      <c r="RX55"/>
-      <c r="RY55"/>
-      <c r="RZ55"/>
-      <c r="SA55"/>
-      <c r="SB55"/>
-      <c r="SC55"/>
-      <c r="SD55"/>
-      <c r="SE55"/>
-      <c r="SF55"/>
-      <c r="SG55"/>
-      <c r="SH55"/>
-      <c r="SI55"/>
-      <c r="SJ55"/>
-      <c r="SK55"/>
-      <c r="SL55"/>
-      <c r="SM55"/>
-      <c r="SN55"/>
-      <c r="SO55"/>
-      <c r="SP55"/>
-      <c r="SQ55"/>
-      <c r="SR55"/>
-      <c r="SS55"/>
-      <c r="ST55"/>
-      <c r="SU55"/>
-      <c r="SV55"/>
-      <c r="SW55"/>
-      <c r="SX55"/>
-      <c r="SY55"/>
-      <c r="SZ55"/>
-      <c r="TA55"/>
-      <c r="TB55"/>
-      <c r="TC55"/>
-      <c r="TD55"/>
-      <c r="TE55"/>
-      <c r="TF55"/>
-      <c r="TG55"/>
-      <c r="TH55"/>
-      <c r="TI55"/>
-      <c r="TJ55"/>
-      <c r="TK55"/>
-      <c r="TL55"/>
-      <c r="TM55"/>
-      <c r="TN55"/>
-      <c r="TO55"/>
-      <c r="TP55"/>
-      <c r="TQ55"/>
-      <c r="TR55"/>
-      <c r="TS55"/>
-      <c r="TT55"/>
-      <c r="TU55"/>
-      <c r="TV55"/>
-      <c r="TW55"/>
-      <c r="TX55"/>
-      <c r="TY55"/>
-      <c r="TZ55"/>
-      <c r="UA55"/>
-      <c r="UB55"/>
-      <c r="UC55"/>
-      <c r="UD55"/>
-      <c r="UE55"/>
-      <c r="UF55"/>
-      <c r="UG55"/>
-      <c r="UH55"/>
-      <c r="UI55"/>
-      <c r="UJ55"/>
-      <c r="UK55"/>
-      <c r="UL55"/>
-      <c r="UM55"/>
-      <c r="UN55"/>
-      <c r="UO55"/>
-      <c r="UP55"/>
-      <c r="UQ55"/>
-      <c r="UR55"/>
-      <c r="US55"/>
-      <c r="UT55"/>
-      <c r="UU55"/>
-      <c r="UV55"/>
-      <c r="UW55"/>
-      <c r="UX55"/>
-      <c r="UY55"/>
-      <c r="UZ55"/>
-      <c r="VA55"/>
-      <c r="VB55"/>
-      <c r="VC55"/>
-      <c r="VD55"/>
-      <c r="VE55"/>
-      <c r="VF55"/>
-      <c r="VG55"/>
-      <c r="VH55"/>
-      <c r="VI55"/>
-      <c r="VJ55"/>
-      <c r="VK55"/>
-      <c r="VL55"/>
-      <c r="VM55"/>
-      <c r="VN55"/>
-      <c r="VO55"/>
-      <c r="VP55"/>
-      <c r="VQ55"/>
-      <c r="VR55"/>
-      <c r="VS55"/>
-      <c r="VT55"/>
-      <c r="VU55"/>
-      <c r="VV55"/>
-      <c r="VW55"/>
-      <c r="VX55"/>
-      <c r="VY55"/>
-      <c r="VZ55"/>
-      <c r="WA55"/>
-      <c r="WB55"/>
-      <c r="WC55"/>
-      <c r="WD55"/>
-      <c r="WE55"/>
-      <c r="WF55"/>
-      <c r="WG55"/>
-      <c r="WH55"/>
-      <c r="WI55"/>
-      <c r="WJ55"/>
-      <c r="WK55"/>
-      <c r="WL55"/>
-      <c r="WM55"/>
-      <c r="WN55"/>
-      <c r="WO55"/>
-      <c r="WP55"/>
-      <c r="WQ55"/>
-      <c r="WR55"/>
-      <c r="WS55"/>
-      <c r="WT55"/>
-      <c r="WU55"/>
-      <c r="WV55"/>
-      <c r="WW55"/>
-      <c r="WX55"/>
-      <c r="WY55"/>
-      <c r="WZ55"/>
-      <c r="XA55"/>
-      <c r="XB55"/>
-      <c r="XC55"/>
-      <c r="XD55"/>
-      <c r="XE55"/>
-      <c r="XF55"/>
-      <c r="XG55"/>
-      <c r="XH55"/>
-      <c r="XI55"/>
-      <c r="XJ55"/>
-      <c r="XK55"/>
-      <c r="XL55"/>
-      <c r="XM55"/>
-      <c r="XN55"/>
-      <c r="XO55"/>
-      <c r="XP55"/>
-      <c r="XQ55"/>
-      <c r="XR55"/>
-      <c r="XS55"/>
-      <c r="XT55"/>
-      <c r="XU55"/>
-      <c r="XV55"/>
-      <c r="XW55"/>
-      <c r="XX55"/>
-      <c r="XY55"/>
-      <c r="XZ55"/>
-      <c r="YA55"/>
-      <c r="YB55"/>
-      <c r="YC55"/>
-      <c r="YD55"/>
-      <c r="YE55"/>
-      <c r="YF55"/>
-      <c r="YG55"/>
-      <c r="YH55"/>
-      <c r="YI55"/>
-      <c r="YJ55"/>
-      <c r="YK55"/>
-      <c r="YL55"/>
-      <c r="YM55"/>
-      <c r="YN55"/>
-      <c r="YO55"/>
-      <c r="YP55"/>
-      <c r="YQ55"/>
-      <c r="YR55"/>
-      <c r="YS55"/>
-      <c r="YT55"/>
-      <c r="YU55"/>
-      <c r="YV55"/>
-      <c r="YW55"/>
-      <c r="YX55"/>
-      <c r="YY55"/>
-      <c r="YZ55"/>
-      <c r="ZA55"/>
-      <c r="ZB55"/>
-      <c r="ZC55"/>
-      <c r="ZD55"/>
-      <c r="ZE55"/>
-      <c r="ZF55"/>
-      <c r="ZG55"/>
-      <c r="ZH55"/>
-      <c r="ZI55"/>
-      <c r="ZJ55"/>
-      <c r="ZK55"/>
-      <c r="ZL55"/>
-      <c r="ZM55"/>
-      <c r="ZN55"/>
-      <c r="ZO55"/>
-      <c r="ZP55"/>
-      <c r="ZQ55"/>
-      <c r="ZR55"/>
-      <c r="ZS55"/>
-      <c r="ZT55"/>
-      <c r="ZU55"/>
-      <c r="ZV55"/>
-      <c r="ZW55"/>
-      <c r="ZX55"/>
-      <c r="ZY55"/>
-      <c r="ZZ55"/>
-      <c r="AAA55"/>
-      <c r="AAB55"/>
-      <c r="AAC55"/>
-      <c r="AAD55"/>
-      <c r="AAE55"/>
-      <c r="AAF55"/>
-      <c r="AAG55"/>
-      <c r="AAH55"/>
-      <c r="AAI55"/>
-      <c r="AAJ55"/>
-      <c r="AAK55"/>
-      <c r="AAL55"/>
-      <c r="AAM55"/>
-      <c r="AAN55"/>
-      <c r="AAO55"/>
-      <c r="AAP55"/>
-      <c r="AAQ55"/>
-      <c r="AAR55"/>
-      <c r="AAS55"/>
-      <c r="AAT55"/>
-      <c r="AAU55"/>
-      <c r="AAV55"/>
-      <c r="AAW55"/>
-      <c r="AAX55"/>
-      <c r="AAY55"/>
-      <c r="AAZ55"/>
-      <c r="ABA55"/>
-      <c r="ABB55"/>
-      <c r="ABC55"/>
-      <c r="ABD55"/>
-      <c r="ABE55"/>
-      <c r="ABF55"/>
-      <c r="ABG55"/>
-      <c r="ABH55"/>
-      <c r="ABI55"/>
-      <c r="ABJ55"/>
-      <c r="ABK55"/>
-      <c r="ABL55"/>
-      <c r="ABM55"/>
-      <c r="ABN55"/>
-      <c r="ABO55"/>
-      <c r="ABP55"/>
-      <c r="ABQ55"/>
-      <c r="ABR55"/>
-      <c r="ABS55"/>
-      <c r="ABT55"/>
-      <c r="ABU55"/>
-      <c r="ABV55"/>
-      <c r="ABW55"/>
-      <c r="ABX55"/>
-      <c r="ABY55"/>
-      <c r="ABZ55"/>
-      <c r="ACA55"/>
-      <c r="ACB55"/>
-      <c r="ACC55"/>
-      <c r="ACD55"/>
-      <c r="ACE55"/>
-      <c r="ACF55"/>
-      <c r="ACG55"/>
-      <c r="ACH55"/>
-      <c r="ACI55"/>
-      <c r="ACJ55"/>
-      <c r="ACK55"/>
-      <c r="ACL55"/>
-      <c r="ACM55"/>
-      <c r="ACN55"/>
-      <c r="ACO55"/>
-      <c r="ACP55"/>
-      <c r="ACQ55"/>
-      <c r="ACR55"/>
-      <c r="ACS55"/>
-      <c r="ACT55"/>
-      <c r="ACU55"/>
-      <c r="ACV55"/>
-      <c r="ACW55"/>
-      <c r="ACX55"/>
-      <c r="ACY55"/>
-      <c r="ACZ55"/>
-      <c r="ADA55"/>
-      <c r="ADB55"/>
-      <c r="ADC55"/>
-      <c r="ADD55"/>
-      <c r="ADE55"/>
-      <c r="ADF55"/>
-      <c r="ADG55"/>
-      <c r="ADH55"/>
-      <c r="ADI55"/>
-      <c r="ADJ55"/>
-      <c r="ADK55"/>
-      <c r="ADL55"/>
-      <c r="ADM55"/>
-      <c r="ADN55"/>
-      <c r="ADO55"/>
-      <c r="ADP55"/>
-      <c r="ADQ55"/>
-      <c r="ADR55"/>
-      <c r="ADS55"/>
-      <c r="ADT55"/>
-      <c r="ADU55"/>
-      <c r="ADV55"/>
-      <c r="ADW55"/>
-      <c r="ADX55"/>
-      <c r="ADY55"/>
-      <c r="ADZ55"/>
-      <c r="AEA55"/>
-      <c r="AEB55"/>
-      <c r="AEC55"/>
-      <c r="AED55"/>
-      <c r="AEE55"/>
-      <c r="AEF55"/>
-      <c r="AEG55"/>
-      <c r="AEH55"/>
-      <c r="AEI55"/>
-      <c r="AEJ55"/>
-      <c r="AEK55"/>
-      <c r="AEL55"/>
-      <c r="AEM55"/>
-      <c r="AEN55"/>
-      <c r="AEO55"/>
-      <c r="AEP55"/>
-      <c r="AEQ55"/>
-      <c r="AER55"/>
-      <c r="AES55"/>
-      <c r="AET55"/>
-      <c r="AEU55"/>
-      <c r="AEV55"/>
-      <c r="AEW55"/>
-      <c r="AEX55"/>
-      <c r="AEY55"/>
-      <c r="AEZ55"/>
-      <c r="AFA55"/>
-      <c r="AFB55"/>
-      <c r="AFC55"/>
-      <c r="AFD55"/>
-      <c r="AFE55"/>
-      <c r="AFF55"/>
-      <c r="AFG55"/>
-      <c r="AFH55"/>
-      <c r="AFI55"/>
-      <c r="AFJ55"/>
-      <c r="AFK55"/>
-      <c r="AFL55"/>
-      <c r="AFM55"/>
-      <c r="AFN55"/>
-      <c r="AFO55"/>
-      <c r="AFP55"/>
-      <c r="AFQ55"/>
-      <c r="AFR55"/>
-      <c r="AFS55"/>
-      <c r="AFT55"/>
-      <c r="AFU55"/>
-      <c r="AFV55"/>
-      <c r="AFW55"/>
-      <c r="AFX55"/>
-      <c r="AFY55"/>
-      <c r="AFZ55"/>
-      <c r="AGA55"/>
-      <c r="AGB55"/>
-      <c r="AGC55"/>
-      <c r="AGD55"/>
-      <c r="AGE55"/>
-      <c r="AGF55"/>
-      <c r="AGG55"/>
-      <c r="AGH55"/>
-      <c r="AGI55"/>
-      <c r="AGJ55"/>
-      <c r="AGK55"/>
-      <c r="AGL55"/>
-      <c r="AGM55"/>
-      <c r="AGN55"/>
-      <c r="AGO55"/>
-      <c r="AGP55"/>
-      <c r="AGQ55"/>
-      <c r="AGR55"/>
-      <c r="AGS55"/>
-      <c r="AGT55"/>
-      <c r="AGU55"/>
-      <c r="AGV55"/>
-      <c r="AGW55"/>
-      <c r="AGX55"/>
-      <c r="AGY55"/>
-      <c r="AGZ55"/>
-      <c r="AHA55"/>
-      <c r="AHB55"/>
-      <c r="AHC55"/>
-      <c r="AHD55"/>
-      <c r="AHE55"/>
-      <c r="AHF55"/>
-      <c r="AHG55"/>
-      <c r="AHH55"/>
-      <c r="AHI55"/>
-      <c r="AHJ55"/>
-      <c r="AHK55"/>
-      <c r="AHL55"/>
-      <c r="AHM55"/>
-      <c r="AHN55"/>
-      <c r="AHO55"/>
-      <c r="AHP55"/>
-      <c r="AHQ55"/>
-      <c r="AHR55"/>
-      <c r="AHS55"/>
-      <c r="AHT55"/>
-      <c r="AHU55"/>
-      <c r="AHV55"/>
-      <c r="AHW55"/>
-      <c r="AHX55"/>
-      <c r="AHY55"/>
-      <c r="AHZ55"/>
-      <c r="AIA55"/>
-      <c r="AIB55"/>
-      <c r="AIC55"/>
-      <c r="AID55"/>
-      <c r="AIE55"/>
-      <c r="AIF55"/>
-      <c r="AIG55"/>
-      <c r="AIH55"/>
-      <c r="AII55"/>
-      <c r="AIJ55"/>
-      <c r="AIK55"/>
-      <c r="AIL55"/>
-      <c r="AIM55"/>
-      <c r="AIN55"/>
-      <c r="AIO55"/>
-      <c r="AIP55"/>
-      <c r="AIQ55"/>
-      <c r="AIR55"/>
-      <c r="AIS55"/>
-      <c r="AIT55"/>
-      <c r="AIU55"/>
-      <c r="AIV55"/>
-      <c r="AIW55"/>
-      <c r="AIX55"/>
-      <c r="AIY55"/>
-      <c r="AIZ55"/>
-      <c r="AJA55"/>
-      <c r="AJB55"/>
-      <c r="AJC55"/>
-      <c r="AJD55"/>
-      <c r="AJE55"/>
-      <c r="AJF55"/>
-      <c r="AJG55"/>
-      <c r="AJH55"/>
-      <c r="AJI55"/>
-      <c r="AJJ55"/>
-      <c r="AJK55"/>
-      <c r="AJL55"/>
-      <c r="AJM55"/>
-      <c r="AJN55"/>
-      <c r="AJO55"/>
-      <c r="AJP55"/>
-      <c r="AJQ55"/>
-      <c r="AJR55"/>
-      <c r="AJS55"/>
-      <c r="AJT55"/>
-      <c r="AJU55"/>
-      <c r="AJV55"/>
-      <c r="AJW55"/>
-      <c r="AJX55"/>
-      <c r="AJY55"/>
-      <c r="AJZ55"/>
-      <c r="AKA55"/>
-      <c r="AKB55"/>
-      <c r="AKC55"/>
-      <c r="AKD55"/>
-      <c r="AKE55"/>
-      <c r="AKF55"/>
-      <c r="AKG55"/>
-      <c r="AKH55"/>
-      <c r="AKI55"/>
-      <c r="AKJ55"/>
-      <c r="AKK55"/>
-      <c r="AKL55"/>
-      <c r="AKM55"/>
-      <c r="AKN55"/>
-      <c r="AKO55"/>
-      <c r="AKP55"/>
-      <c r="AKQ55"/>
-      <c r="AKR55"/>
-      <c r="AKS55"/>
-      <c r="AKT55"/>
-      <c r="AKU55"/>
-      <c r="AKV55"/>
-      <c r="AKW55"/>
-      <c r="AKX55"/>
-      <c r="AKY55"/>
-      <c r="AKZ55"/>
-      <c r="ALA55"/>
-      <c r="ALB55"/>
-      <c r="ALC55"/>
-      <c r="ALD55"/>
-      <c r="ALE55"/>
-      <c r="ALF55"/>
-      <c r="ALG55"/>
-      <c r="ALH55"/>
-      <c r="ALI55"/>
-      <c r="ALJ55"/>
-      <c r="ALK55"/>
-      <c r="ALL55"/>
-      <c r="ALM55"/>
-      <c r="ALN55"/>
-      <c r="ALO55"/>
-      <c r="ALP55"/>
-      <c r="ALQ55"/>
-      <c r="ALR55"/>
-      <c r="ALS55"/>
-      <c r="ALT55"/>
-      <c r="ALU55"/>
-      <c r="ALV55"/>
-      <c r="ALW55"/>
-      <c r="ALX55"/>
-      <c r="ALY55"/>
-      <c r="ALZ55"/>
-      <c r="AMA55"/>
-      <c r="AMB55"/>
-      <c r="AMC55"/>
-      <c r="AMD55"/>
-      <c r="AME55"/>
-      <c r="AMF55"/>
-      <c r="AMG55"/>
-      <c r="AMH55"/>
-      <c r="AMI55"/>
-    </row>
-    <row r="56" spans="1:1023">
-      <c r="A56" s="79" t="s">
-        <v>350</v>
-      </c>
-      <c r="B56" s="31" t="s">
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="55" t="s">
+        <v>265</v>
+      </c>
+      <c r="B56" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C56" s="46" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D56" s="67" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="B57" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="D57" s="69" t="s">
+        <v>271</v>
+      </c>
+      <c r="E57" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="E56" s="5"/>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-      <c r="I56"/>
-      <c r="J56"/>
-      <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56"/>
-      <c r="N56"/>
-      <c r="O56"/>
-      <c r="P56"/>
-      <c r="Q56"/>
-      <c r="R56"/>
-      <c r="S56"/>
-      <c r="T56"/>
-      <c r="U56"/>
-      <c r="V56"/>
-      <c r="W56"/>
-      <c r="X56"/>
-      <c r="Y56"/>
-      <c r="Z56"/>
-      <c r="AA56"/>
-      <c r="AB56"/>
-      <c r="AC56"/>
-      <c r="AD56"/>
-      <c r="AE56"/>
-      <c r="AF56"/>
-      <c r="AG56"/>
-      <c r="AH56"/>
-      <c r="AI56"/>
-      <c r="AJ56"/>
-      <c r="AK56"/>
-      <c r="AL56"/>
-      <c r="AM56"/>
-      <c r="AN56"/>
-      <c r="AO56"/>
-      <c r="AP56"/>
-      <c r="AQ56"/>
-      <c r="AR56"/>
-      <c r="AS56"/>
-      <c r="AT56"/>
-      <c r="AU56"/>
-      <c r="AV56"/>
-      <c r="AW56"/>
-      <c r="AX56"/>
-      <c r="AY56"/>
-      <c r="AZ56"/>
-      <c r="BA56"/>
-      <c r="BB56"/>
-      <c r="BC56"/>
-      <c r="BD56"/>
-      <c r="BE56"/>
-      <c r="BF56"/>
-      <c r="BG56"/>
-      <c r="BH56"/>
-      <c r="BI56"/>
-      <c r="BJ56"/>
-      <c r="BK56"/>
-      <c r="BL56"/>
-      <c r="BM56"/>
-      <c r="BN56"/>
-      <c r="BO56"/>
-      <c r="BP56"/>
-      <c r="BQ56"/>
-      <c r="BR56"/>
-      <c r="BS56"/>
-      <c r="BT56"/>
-      <c r="BU56"/>
-      <c r="BV56"/>
-      <c r="BW56"/>
-      <c r="BX56"/>
-      <c r="BY56"/>
-      <c r="BZ56"/>
-      <c r="CA56"/>
-      <c r="CB56"/>
-      <c r="CC56"/>
-      <c r="CD56"/>
-      <c r="CE56"/>
-      <c r="CF56"/>
-      <c r="CG56"/>
-      <c r="CH56"/>
-      <c r="CI56"/>
-      <c r="CJ56"/>
-      <c r="CK56"/>
-      <c r="CL56"/>
-      <c r="CM56"/>
-      <c r="CN56"/>
-      <c r="CO56"/>
-      <c r="CP56"/>
-      <c r="CQ56"/>
-      <c r="CR56"/>
-      <c r="CS56"/>
-      <c r="CT56"/>
-      <c r="CU56"/>
-      <c r="CV56"/>
-      <c r="CW56"/>
-      <c r="CX56"/>
-      <c r="CY56"/>
-      <c r="CZ56"/>
-      <c r="DA56"/>
-      <c r="DB56"/>
-      <c r="DC56"/>
-      <c r="DD56"/>
-      <c r="DE56"/>
-      <c r="DF56"/>
-      <c r="DG56"/>
-      <c r="DH56"/>
-      <c r="DI56"/>
-      <c r="DJ56"/>
-      <c r="DK56"/>
-      <c r="DL56"/>
-      <c r="DM56"/>
-      <c r="DN56"/>
-      <c r="DO56"/>
-      <c r="DP56"/>
-      <c r="DQ56"/>
-      <c r="DR56"/>
-      <c r="DS56"/>
-      <c r="DT56"/>
-      <c r="DU56"/>
-      <c r="DV56"/>
-      <c r="DW56"/>
-      <c r="DX56"/>
-      <c r="DY56"/>
-      <c r="DZ56"/>
-      <c r="EA56"/>
-      <c r="EB56"/>
-      <c r="EC56"/>
-      <c r="ED56"/>
-      <c r="EE56"/>
-      <c r="EF56"/>
-      <c r="EG56"/>
-      <c r="EH56"/>
-      <c r="EI56"/>
-      <c r="EJ56"/>
-      <c r="EK56"/>
-      <c r="EL56"/>
-      <c r="EM56"/>
-      <c r="EN56"/>
-      <c r="EO56"/>
-      <c r="EP56"/>
-      <c r="EQ56"/>
-      <c r="ER56"/>
-      <c r="ES56"/>
-      <c r="ET56"/>
-      <c r="EU56"/>
-      <c r="EV56"/>
-      <c r="EW56"/>
-      <c r="EX56"/>
-      <c r="EY56"/>
-      <c r="EZ56"/>
-      <c r="FA56"/>
-      <c r="FB56"/>
-      <c r="FC56"/>
-      <c r="FD56"/>
-      <c r="FE56"/>
-      <c r="FF56"/>
-      <c r="FG56"/>
-      <c r="FH56"/>
-      <c r="FI56"/>
-      <c r="FJ56"/>
-      <c r="FK56"/>
-      <c r="FL56"/>
-      <c r="FM56"/>
-      <c r="FN56"/>
-      <c r="FO56"/>
-      <c r="FP56"/>
-      <c r="FQ56"/>
-      <c r="FR56"/>
-      <c r="FS56"/>
-      <c r="FT56"/>
-      <c r="FU56"/>
-      <c r="FV56"/>
-      <c r="FW56"/>
-      <c r="FX56"/>
-      <c r="FY56"/>
-      <c r="FZ56"/>
-      <c r="GA56"/>
-      <c r="GB56"/>
-      <c r="GC56"/>
-      <c r="GD56"/>
-      <c r="GE56"/>
-      <c r="GF56"/>
-      <c r="GG56"/>
-      <c r="GH56"/>
-      <c r="GI56"/>
-      <c r="GJ56"/>
-      <c r="GK56"/>
-      <c r="GL56"/>
-      <c r="GM56"/>
-      <c r="GN56"/>
-      <c r="GO56"/>
-      <c r="GP56"/>
-      <c r="GQ56"/>
-      <c r="GR56"/>
-      <c r="GS56"/>
-      <c r="GT56"/>
-      <c r="GU56"/>
-      <c r="GV56"/>
-      <c r="GW56"/>
-      <c r="GX56"/>
-      <c r="GY56"/>
-      <c r="GZ56"/>
-      <c r="HA56"/>
-      <c r="HB56"/>
-      <c r="HC56"/>
-      <c r="HD56"/>
-      <c r="HE56"/>
-      <c r="HF56"/>
-      <c r="HG56"/>
-      <c r="HH56"/>
-      <c r="HI56"/>
-      <c r="HJ56"/>
-      <c r="HK56"/>
-      <c r="HL56"/>
-      <c r="HM56"/>
-      <c r="HN56"/>
-      <c r="HO56"/>
-      <c r="HP56"/>
-      <c r="HQ56"/>
-      <c r="HR56"/>
-      <c r="HS56"/>
-      <c r="HT56"/>
-      <c r="HU56"/>
-      <c r="HV56"/>
-      <c r="HW56"/>
-      <c r="HX56"/>
-      <c r="HY56"/>
-      <c r="HZ56"/>
-      <c r="IA56"/>
-      <c r="IB56"/>
-      <c r="IC56"/>
-      <c r="ID56"/>
-      <c r="IE56"/>
-      <c r="IF56"/>
-      <c r="IG56"/>
-      <c r="IH56"/>
-      <c r="II56"/>
-      <c r="IJ56"/>
-      <c r="IK56"/>
-      <c r="IL56"/>
-      <c r="IM56"/>
-      <c r="IN56"/>
-      <c r="IO56"/>
-      <c r="IP56"/>
-      <c r="IQ56"/>
-      <c r="IR56"/>
-      <c r="IS56"/>
-      <c r="IT56"/>
-      <c r="IU56"/>
-      <c r="IV56"/>
-      <c r="IW56"/>
-      <c r="IX56"/>
-      <c r="IY56"/>
-      <c r="IZ56"/>
-      <c r="JA56"/>
-      <c r="JB56"/>
-      <c r="JC56"/>
-      <c r="JD56"/>
-      <c r="JE56"/>
-      <c r="JF56"/>
-      <c r="JG56"/>
-      <c r="JH56"/>
-      <c r="JI56"/>
-      <c r="JJ56"/>
-      <c r="JK56"/>
-      <c r="JL56"/>
-      <c r="JM56"/>
-      <c r="JN56"/>
-      <c r="JO56"/>
-      <c r="JP56"/>
-      <c r="JQ56"/>
-      <c r="JR56"/>
-      <c r="JS56"/>
-      <c r="JT56"/>
-      <c r="JU56"/>
-      <c r="JV56"/>
-      <c r="JW56"/>
-      <c r="JX56"/>
-      <c r="JY56"/>
-      <c r="JZ56"/>
-      <c r="KA56"/>
-      <c r="KB56"/>
-      <c r="KC56"/>
-      <c r="KD56"/>
-      <c r="KE56"/>
-      <c r="KF56"/>
-      <c r="KG56"/>
-      <c r="KH56"/>
-      <c r="KI56"/>
-      <c r="KJ56"/>
-      <c r="KK56"/>
-      <c r="KL56"/>
-      <c r="KM56"/>
-      <c r="KN56"/>
-      <c r="KO56"/>
-      <c r="KP56"/>
-      <c r="KQ56"/>
-      <c r="KR56"/>
-      <c r="KS56"/>
-      <c r="KT56"/>
-      <c r="KU56"/>
-      <c r="KV56"/>
-      <c r="KW56"/>
-      <c r="KX56"/>
-      <c r="KY56"/>
-      <c r="KZ56"/>
-      <c r="LA56"/>
-      <c r="LB56"/>
-      <c r="LC56"/>
-      <c r="LD56"/>
-      <c r="LE56"/>
-      <c r="LF56"/>
-      <c r="LG56"/>
-      <c r="LH56"/>
-      <c r="LI56"/>
-      <c r="LJ56"/>
-      <c r="LK56"/>
-      <c r="LL56"/>
-      <c r="LM56"/>
-      <c r="LN56"/>
-      <c r="LO56"/>
-      <c r="LP56"/>
-      <c r="LQ56"/>
-      <c r="LR56"/>
-      <c r="LS56"/>
-      <c r="LT56"/>
-      <c r="LU56"/>
-      <c r="LV56"/>
-      <c r="LW56"/>
-      <c r="LX56"/>
-      <c r="LY56"/>
-      <c r="LZ56"/>
-      <c r="MA56"/>
-      <c r="MB56"/>
-      <c r="MC56"/>
-      <c r="MD56"/>
-      <c r="ME56"/>
-      <c r="MF56"/>
-      <c r="MG56"/>
-      <c r="MH56"/>
-      <c r="MI56"/>
-      <c r="MJ56"/>
-      <c r="MK56"/>
-      <c r="ML56"/>
-      <c r="MM56"/>
-      <c r="MN56"/>
-      <c r="MO56"/>
-      <c r="MP56"/>
-      <c r="MQ56"/>
-      <c r="MR56"/>
-      <c r="MS56"/>
-      <c r="MT56"/>
-      <c r="MU56"/>
-      <c r="MV56"/>
-      <c r="MW56"/>
-      <c r="MX56"/>
-      <c r="MY56"/>
-      <c r="MZ56"/>
-      <c r="NA56"/>
-      <c r="NB56"/>
-      <c r="NC56"/>
-      <c r="ND56"/>
-      <c r="NE56"/>
-      <c r="NF56"/>
-      <c r="NG56"/>
-      <c r="NH56"/>
-      <c r="NI56"/>
-      <c r="NJ56"/>
-      <c r="NK56"/>
-      <c r="NL56"/>
-      <c r="NM56"/>
-      <c r="NN56"/>
-      <c r="NO56"/>
-      <c r="NP56"/>
-      <c r="NQ56"/>
-      <c r="NR56"/>
-      <c r="NS56"/>
-      <c r="NT56"/>
-      <c r="NU56"/>
-      <c r="NV56"/>
-      <c r="NW56"/>
-      <c r="NX56"/>
-      <c r="NY56"/>
-      <c r="NZ56"/>
-      <c r="OA56"/>
-      <c r="OB56"/>
-      <c r="OC56"/>
-      <c r="OD56"/>
-      <c r="OE56"/>
-      <c r="OF56"/>
-      <c r="OG56"/>
-      <c r="OH56"/>
-      <c r="OI56"/>
-      <c r="OJ56"/>
-      <c r="OK56"/>
-      <c r="OL56"/>
-      <c r="OM56"/>
-      <c r="ON56"/>
-      <c r="OO56"/>
-      <c r="OP56"/>
-      <c r="OQ56"/>
-      <c r="OR56"/>
-      <c r="OS56"/>
-      <c r="OT56"/>
-      <c r="OU56"/>
-      <c r="OV56"/>
-      <c r="OW56"/>
-      <c r="OX56"/>
-      <c r="OY56"/>
-      <c r="OZ56"/>
-      <c r="PA56"/>
-      <c r="PB56"/>
-      <c r="PC56"/>
-      <c r="PD56"/>
-      <c r="PE56"/>
-      <c r="PF56"/>
-      <c r="PG56"/>
-      <c r="PH56"/>
-      <c r="PI56"/>
-      <c r="PJ56"/>
-      <c r="PK56"/>
-      <c r="PL56"/>
-      <c r="PM56"/>
-      <c r="PN56"/>
-      <c r="PO56"/>
-      <c r="PP56"/>
-      <c r="PQ56"/>
-      <c r="PR56"/>
-      <c r="PS56"/>
-      <c r="PT56"/>
-      <c r="PU56"/>
-      <c r="PV56"/>
-      <c r="PW56"/>
-      <c r="PX56"/>
-      <c r="PY56"/>
-      <c r="PZ56"/>
-      <c r="QA56"/>
-      <c r="QB56"/>
-      <c r="QC56"/>
-      <c r="QD56"/>
-      <c r="QE56"/>
-      <c r="QF56"/>
-      <c r="QG56"/>
-      <c r="QH56"/>
-      <c r="QI56"/>
-      <c r="QJ56"/>
-      <c r="QK56"/>
-      <c r="QL56"/>
-      <c r="QM56"/>
-      <c r="QN56"/>
-      <c r="QO56"/>
-      <c r="QP56"/>
-      <c r="QQ56"/>
-      <c r="QR56"/>
-      <c r="QS56"/>
-      <c r="QT56"/>
-      <c r="QU56"/>
-      <c r="QV56"/>
-      <c r="QW56"/>
-      <c r="QX56"/>
-      <c r="QY56"/>
-      <c r="QZ56"/>
-      <c r="RA56"/>
-      <c r="RB56"/>
-      <c r="RC56"/>
-      <c r="RD56"/>
-      <c r="RE56"/>
-      <c r="RF56"/>
-      <c r="RG56"/>
-      <c r="RH56"/>
-      <c r="RI56"/>
-      <c r="RJ56"/>
-      <c r="RK56"/>
-      <c r="RL56"/>
-      <c r="RM56"/>
-      <c r="RN56"/>
-      <c r="RO56"/>
-      <c r="RP56"/>
-      <c r="RQ56"/>
-      <c r="RR56"/>
-      <c r="RS56"/>
-      <c r="RT56"/>
-      <c r="RU56"/>
-      <c r="RV56"/>
-      <c r="RW56"/>
-      <c r="RX56"/>
-      <c r="RY56"/>
-      <c r="RZ56"/>
-      <c r="SA56"/>
-      <c r="SB56"/>
-      <c r="SC56"/>
-      <c r="SD56"/>
-      <c r="SE56"/>
-      <c r="SF56"/>
-      <c r="SG56"/>
-      <c r="SH56"/>
-      <c r="SI56"/>
-      <c r="SJ56"/>
-      <c r="SK56"/>
-      <c r="SL56"/>
-      <c r="SM56"/>
-      <c r="SN56"/>
-      <c r="SO56"/>
-      <c r="SP56"/>
-      <c r="SQ56"/>
-      <c r="SR56"/>
-      <c r="SS56"/>
-      <c r="ST56"/>
-      <c r="SU56"/>
-      <c r="SV56"/>
-      <c r="SW56"/>
-      <c r="SX56"/>
-      <c r="SY56"/>
-      <c r="SZ56"/>
-      <c r="TA56"/>
-      <c r="TB56"/>
-      <c r="TC56"/>
-      <c r="TD56"/>
-      <c r="TE56"/>
-      <c r="TF56"/>
-      <c r="TG56"/>
-      <c r="TH56"/>
-      <c r="TI56"/>
-      <c r="TJ56"/>
-      <c r="TK56"/>
-      <c r="TL56"/>
-      <c r="TM56"/>
-      <c r="TN56"/>
-      <c r="TO56"/>
-      <c r="TP56"/>
-      <c r="TQ56"/>
-      <c r="TR56"/>
-      <c r="TS56"/>
-      <c r="TT56"/>
-      <c r="TU56"/>
-      <c r="TV56"/>
-      <c r="TW56"/>
-      <c r="TX56"/>
-      <c r="TY56"/>
-      <c r="TZ56"/>
-      <c r="UA56"/>
-      <c r="UB56"/>
-      <c r="UC56"/>
-      <c r="UD56"/>
-      <c r="UE56"/>
-      <c r="UF56"/>
-      <c r="UG56"/>
-      <c r="UH56"/>
-      <c r="UI56"/>
-      <c r="UJ56"/>
-      <c r="UK56"/>
-      <c r="UL56"/>
-      <c r="UM56"/>
-      <c r="UN56"/>
-      <c r="UO56"/>
-      <c r="UP56"/>
-      <c r="UQ56"/>
-      <c r="UR56"/>
-      <c r="US56"/>
-      <c r="UT56"/>
-      <c r="UU56"/>
-      <c r="UV56"/>
-      <c r="UW56"/>
-      <c r="UX56"/>
-      <c r="UY56"/>
-      <c r="UZ56"/>
-      <c r="VA56"/>
-      <c r="VB56"/>
-      <c r="VC56"/>
-      <c r="VD56"/>
-      <c r="VE56"/>
-      <c r="VF56"/>
-      <c r="VG56"/>
-      <c r="VH56"/>
-      <c r="VI56"/>
-      <c r="VJ56"/>
-      <c r="VK56"/>
-      <c r="VL56"/>
-      <c r="VM56"/>
-      <c r="VN56"/>
-      <c r="VO56"/>
-      <c r="VP56"/>
-      <c r="VQ56"/>
-      <c r="VR56"/>
-      <c r="VS56"/>
-      <c r="VT56"/>
-      <c r="VU56"/>
-      <c r="VV56"/>
-      <c r="VW56"/>
-      <c r="VX56"/>
-      <c r="VY56"/>
-      <c r="VZ56"/>
-      <c r="WA56"/>
-      <c r="WB56"/>
-      <c r="WC56"/>
-      <c r="WD56"/>
-      <c r="WE56"/>
-      <c r="WF56"/>
-      <c r="WG56"/>
-      <c r="WH56"/>
-      <c r="WI56"/>
-      <c r="WJ56"/>
-      <c r="WK56"/>
-      <c r="WL56"/>
-      <c r="WM56"/>
-      <c r="WN56"/>
-      <c r="WO56"/>
-      <c r="WP56"/>
-      <c r="WQ56"/>
-      <c r="WR56"/>
-      <c r="WS56"/>
-      <c r="WT56"/>
-      <c r="WU56"/>
-      <c r="WV56"/>
-      <c r="WW56"/>
-      <c r="WX56"/>
-      <c r="WY56"/>
-      <c r="WZ56"/>
-      <c r="XA56"/>
-      <c r="XB56"/>
-      <c r="XC56"/>
-      <c r="XD56"/>
-      <c r="XE56"/>
-      <c r="XF56"/>
-      <c r="XG56"/>
-      <c r="XH56"/>
-      <c r="XI56"/>
-      <c r="XJ56"/>
-      <c r="XK56"/>
-      <c r="XL56"/>
-      <c r="XM56"/>
-      <c r="XN56"/>
-      <c r="XO56"/>
-      <c r="XP56"/>
-      <c r="XQ56"/>
-      <c r="XR56"/>
-      <c r="XS56"/>
-      <c r="XT56"/>
-      <c r="XU56"/>
-      <c r="XV56"/>
-      <c r="XW56"/>
-      <c r="XX56"/>
-      <c r="XY56"/>
-      <c r="XZ56"/>
-      <c r="YA56"/>
-      <c r="YB56"/>
-      <c r="YC56"/>
-      <c r="YD56"/>
-      <c r="YE56"/>
-      <c r="YF56"/>
-      <c r="YG56"/>
-      <c r="YH56"/>
-      <c r="YI56"/>
-      <c r="YJ56"/>
-      <c r="YK56"/>
-      <c r="YL56"/>
-      <c r="YM56"/>
-      <c r="YN56"/>
-      <c r="YO56"/>
-      <c r="YP56"/>
-      <c r="YQ56"/>
-      <c r="YR56"/>
-      <c r="YS56"/>
-      <c r="YT56"/>
-      <c r="YU56"/>
-      <c r="YV56"/>
-      <c r="YW56"/>
-      <c r="YX56"/>
-      <c r="YY56"/>
-      <c r="YZ56"/>
-      <c r="ZA56"/>
-      <c r="ZB56"/>
-      <c r="ZC56"/>
-      <c r="ZD56"/>
-      <c r="ZE56"/>
-      <c r="ZF56"/>
-      <c r="ZG56"/>
-      <c r="ZH56"/>
-      <c r="ZI56"/>
-      <c r="ZJ56"/>
-      <c r="ZK56"/>
-      <c r="ZL56"/>
-      <c r="ZM56"/>
-      <c r="ZN56"/>
-      <c r="ZO56"/>
-      <c r="ZP56"/>
-      <c r="ZQ56"/>
-      <c r="ZR56"/>
-      <c r="ZS56"/>
-      <c r="ZT56"/>
-      <c r="ZU56"/>
-      <c r="ZV56"/>
-      <c r="ZW56"/>
-      <c r="ZX56"/>
-      <c r="ZY56"/>
-      <c r="ZZ56"/>
-      <c r="AAA56"/>
-      <c r="AAB56"/>
-      <c r="AAC56"/>
-      <c r="AAD56"/>
-      <c r="AAE56"/>
-      <c r="AAF56"/>
-      <c r="AAG56"/>
-      <c r="AAH56"/>
-      <c r="AAI56"/>
-      <c r="AAJ56"/>
-      <c r="AAK56"/>
-      <c r="AAL56"/>
-      <c r="AAM56"/>
-      <c r="AAN56"/>
-      <c r="AAO56"/>
-      <c r="AAP56"/>
-      <c r="AAQ56"/>
-      <c r="AAR56"/>
-      <c r="AAS56"/>
-      <c r="AAT56"/>
-      <c r="AAU56"/>
-      <c r="AAV56"/>
-      <c r="AAW56"/>
-      <c r="AAX56"/>
-      <c r="AAY56"/>
-      <c r="AAZ56"/>
-      <c r="ABA56"/>
-      <c r="ABB56"/>
-      <c r="ABC56"/>
-      <c r="ABD56"/>
-      <c r="ABE56"/>
-      <c r="ABF56"/>
-      <c r="ABG56"/>
-      <c r="ABH56"/>
-      <c r="ABI56"/>
-      <c r="ABJ56"/>
-      <c r="ABK56"/>
-      <c r="ABL56"/>
-      <c r="ABM56"/>
-      <c r="ABN56"/>
-      <c r="ABO56"/>
-      <c r="ABP56"/>
-      <c r="ABQ56"/>
-      <c r="ABR56"/>
-      <c r="ABS56"/>
-      <c r="ABT56"/>
-      <c r="ABU56"/>
-      <c r="ABV56"/>
-      <c r="ABW56"/>
-      <c r="ABX56"/>
-      <c r="ABY56"/>
-      <c r="ABZ56"/>
-      <c r="ACA56"/>
-      <c r="ACB56"/>
-      <c r="ACC56"/>
-      <c r="ACD56"/>
-      <c r="ACE56"/>
-      <c r="ACF56"/>
-      <c r="ACG56"/>
-      <c r="ACH56"/>
-      <c r="ACI56"/>
-      <c r="ACJ56"/>
-      <c r="ACK56"/>
-      <c r="ACL56"/>
-      <c r="ACM56"/>
-      <c r="ACN56"/>
-      <c r="ACO56"/>
-      <c r="ACP56"/>
-      <c r="ACQ56"/>
-      <c r="ACR56"/>
-      <c r="ACS56"/>
-      <c r="ACT56"/>
-      <c r="ACU56"/>
-      <c r="ACV56"/>
-      <c r="ACW56"/>
-      <c r="ACX56"/>
-      <c r="ACY56"/>
-      <c r="ACZ56"/>
-      <c r="ADA56"/>
-      <c r="ADB56"/>
-      <c r="ADC56"/>
-      <c r="ADD56"/>
-      <c r="ADE56"/>
-      <c r="ADF56"/>
-      <c r="ADG56"/>
-      <c r="ADH56"/>
-      <c r="ADI56"/>
-      <c r="ADJ56"/>
-      <c r="ADK56"/>
-      <c r="ADL56"/>
-      <c r="ADM56"/>
-      <c r="ADN56"/>
-      <c r="ADO56"/>
-      <c r="ADP56"/>
-      <c r="ADQ56"/>
-      <c r="ADR56"/>
-      <c r="ADS56"/>
-      <c r="ADT56"/>
-      <c r="ADU56"/>
-      <c r="ADV56"/>
-      <c r="ADW56"/>
-      <c r="ADX56"/>
-      <c r="ADY56"/>
-      <c r="ADZ56"/>
-      <c r="AEA56"/>
-      <c r="AEB56"/>
-      <c r="AEC56"/>
-      <c r="AED56"/>
-      <c r="AEE56"/>
-      <c r="AEF56"/>
-      <c r="AEG56"/>
-      <c r="AEH56"/>
-      <c r="AEI56"/>
-      <c r="AEJ56"/>
-      <c r="AEK56"/>
-      <c r="AEL56"/>
-      <c r="AEM56"/>
-      <c r="AEN56"/>
-      <c r="AEO56"/>
-      <c r="AEP56"/>
-      <c r="AEQ56"/>
-      <c r="AER56"/>
-      <c r="AES56"/>
-      <c r="AET56"/>
-      <c r="AEU56"/>
-      <c r="AEV56"/>
-      <c r="AEW56"/>
-      <c r="AEX56"/>
-      <c r="AEY56"/>
-      <c r="AEZ56"/>
-      <c r="AFA56"/>
-      <c r="AFB56"/>
-      <c r="AFC56"/>
-      <c r="AFD56"/>
-      <c r="AFE56"/>
-      <c r="AFF56"/>
-      <c r="AFG56"/>
-      <c r="AFH56"/>
-      <c r="AFI56"/>
-      <c r="AFJ56"/>
-      <c r="AFK56"/>
-      <c r="AFL56"/>
-      <c r="AFM56"/>
-      <c r="AFN56"/>
-      <c r="AFO56"/>
-      <c r="AFP56"/>
-      <c r="AFQ56"/>
-      <c r="AFR56"/>
-      <c r="AFS56"/>
-      <c r="AFT56"/>
-      <c r="AFU56"/>
-      <c r="AFV56"/>
-      <c r="AFW56"/>
-      <c r="AFX56"/>
-      <c r="AFY56"/>
-      <c r="AFZ56"/>
-      <c r="AGA56"/>
-      <c r="AGB56"/>
-      <c r="AGC56"/>
-      <c r="AGD56"/>
-      <c r="AGE56"/>
-      <c r="AGF56"/>
-      <c r="AGG56"/>
-      <c r="AGH56"/>
-      <c r="AGI56"/>
-      <c r="AGJ56"/>
-      <c r="AGK56"/>
-      <c r="AGL56"/>
-      <c r="AGM56"/>
-      <c r="AGN56"/>
-      <c r="AGO56"/>
-      <c r="AGP56"/>
-      <c r="AGQ56"/>
-      <c r="AGR56"/>
-      <c r="AGS56"/>
-      <c r="AGT56"/>
-      <c r="AGU56"/>
-      <c r="AGV56"/>
-      <c r="AGW56"/>
-      <c r="AGX56"/>
-      <c r="AGY56"/>
-      <c r="AGZ56"/>
-      <c r="AHA56"/>
-      <c r="AHB56"/>
-      <c r="AHC56"/>
-      <c r="AHD56"/>
-      <c r="AHE56"/>
-      <c r="AHF56"/>
-      <c r="AHG56"/>
-      <c r="AHH56"/>
-      <c r="AHI56"/>
-      <c r="AHJ56"/>
-      <c r="AHK56"/>
-      <c r="AHL56"/>
-      <c r="AHM56"/>
-      <c r="AHN56"/>
-      <c r="AHO56"/>
-      <c r="AHP56"/>
-      <c r="AHQ56"/>
-      <c r="AHR56"/>
-      <c r="AHS56"/>
-      <c r="AHT56"/>
-      <c r="AHU56"/>
-      <c r="AHV56"/>
-      <c r="AHW56"/>
-      <c r="AHX56"/>
-      <c r="AHY56"/>
-      <c r="AHZ56"/>
-      <c r="AIA56"/>
-      <c r="AIB56"/>
-      <c r="AIC56"/>
-      <c r="AID56"/>
-      <c r="AIE56"/>
-      <c r="AIF56"/>
-      <c r="AIG56"/>
-      <c r="AIH56"/>
-      <c r="AII56"/>
-      <c r="AIJ56"/>
-      <c r="AIK56"/>
-      <c r="AIL56"/>
-      <c r="AIM56"/>
-      <c r="AIN56"/>
-      <c r="AIO56"/>
-      <c r="AIP56"/>
-      <c r="AIQ56"/>
-      <c r="AIR56"/>
-      <c r="AIS56"/>
-      <c r="AIT56"/>
-      <c r="AIU56"/>
-      <c r="AIV56"/>
-      <c r="AIW56"/>
-      <c r="AIX56"/>
-      <c r="AIY56"/>
-      <c r="AIZ56"/>
-      <c r="AJA56"/>
-      <c r="AJB56"/>
-      <c r="AJC56"/>
-      <c r="AJD56"/>
-      <c r="AJE56"/>
-      <c r="AJF56"/>
-      <c r="AJG56"/>
-      <c r="AJH56"/>
-      <c r="AJI56"/>
-      <c r="AJJ56"/>
-      <c r="AJK56"/>
-      <c r="AJL56"/>
-      <c r="AJM56"/>
-      <c r="AJN56"/>
-      <c r="AJO56"/>
-      <c r="AJP56"/>
-      <c r="AJQ56"/>
-      <c r="AJR56"/>
-      <c r="AJS56"/>
-      <c r="AJT56"/>
-      <c r="AJU56"/>
-      <c r="AJV56"/>
-      <c r="AJW56"/>
-      <c r="AJX56"/>
-      <c r="AJY56"/>
-      <c r="AJZ56"/>
-      <c r="AKA56"/>
-      <c r="AKB56"/>
-      <c r="AKC56"/>
-      <c r="AKD56"/>
-      <c r="AKE56"/>
-      <c r="AKF56"/>
-      <c r="AKG56"/>
-      <c r="AKH56"/>
-      <c r="AKI56"/>
-      <c r="AKJ56"/>
-      <c r="AKK56"/>
-      <c r="AKL56"/>
-      <c r="AKM56"/>
-      <c r="AKN56"/>
-      <c r="AKO56"/>
-      <c r="AKP56"/>
-      <c r="AKQ56"/>
-      <c r="AKR56"/>
-      <c r="AKS56"/>
-      <c r="AKT56"/>
-      <c r="AKU56"/>
-      <c r="AKV56"/>
-      <c r="AKW56"/>
-      <c r="AKX56"/>
-      <c r="AKY56"/>
-      <c r="AKZ56"/>
-      <c r="ALA56"/>
-      <c r="ALB56"/>
-      <c r="ALC56"/>
-      <c r="ALD56"/>
-      <c r="ALE56"/>
-      <c r="ALF56"/>
-      <c r="ALG56"/>
-      <c r="ALH56"/>
-      <c r="ALI56"/>
-      <c r="ALJ56"/>
-      <c r="ALK56"/>
-      <c r="ALL56"/>
-      <c r="ALM56"/>
-      <c r="ALN56"/>
-      <c r="ALO56"/>
-      <c r="ALP56"/>
-      <c r="ALQ56"/>
-      <c r="ALR56"/>
-      <c r="ALS56"/>
-      <c r="ALT56"/>
-      <c r="ALU56"/>
-      <c r="ALV56"/>
-      <c r="ALW56"/>
-      <c r="ALX56"/>
-      <c r="ALY56"/>
-      <c r="ALZ56"/>
-      <c r="AMA56"/>
-      <c r="AMB56"/>
-      <c r="AMC56"/>
-      <c r="AMD56"/>
-      <c r="AME56"/>
-      <c r="AMF56"/>
-      <c r="AMG56"/>
-      <c r="AMH56"/>
-      <c r="AMI56"/>
-    </row>
-    <row r="57" spans="1:1023">
-      <c r="A57" s="79" t="s">
-        <v>350</v>
-      </c>
-      <c r="B57" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="46" t="s">
-        <v>276</v>
-      </c>
-      <c r="D57" s="67" t="s">
-        <v>272</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57"/>
-      <c r="K57"/>
-      <c r="L57"/>
-      <c r="M57"/>
-      <c r="N57"/>
-      <c r="O57"/>
-      <c r="P57"/>
-      <c r="Q57"/>
-      <c r="R57"/>
-      <c r="S57"/>
-      <c r="T57"/>
-      <c r="U57"/>
-      <c r="V57"/>
-      <c r="W57"/>
-      <c r="X57"/>
-      <c r="Y57"/>
-      <c r="Z57"/>
-      <c r="AA57"/>
-      <c r="AB57"/>
-      <c r="AC57"/>
-      <c r="AD57"/>
-      <c r="AE57"/>
-      <c r="AF57"/>
-      <c r="AG57"/>
-      <c r="AH57"/>
-      <c r="AI57"/>
-      <c r="AJ57"/>
-      <c r="AK57"/>
-      <c r="AL57"/>
-      <c r="AM57"/>
-      <c r="AN57"/>
-      <c r="AO57"/>
-      <c r="AP57"/>
-      <c r="AQ57"/>
-      <c r="AR57"/>
-      <c r="AS57"/>
-      <c r="AT57"/>
-      <c r="AU57"/>
-      <c r="AV57"/>
-      <c r="AW57"/>
-      <c r="AX57"/>
-      <c r="AY57"/>
-      <c r="AZ57"/>
-      <c r="BA57"/>
-      <c r="BB57"/>
-      <c r="BC57"/>
-      <c r="BD57"/>
-      <c r="BE57"/>
-      <c r="BF57"/>
-      <c r="BG57"/>
-      <c r="BH57"/>
-      <c r="BI57"/>
-      <c r="BJ57"/>
-      <c r="BK57"/>
-      <c r="BL57"/>
-      <c r="BM57"/>
-      <c r="BN57"/>
-      <c r="BO57"/>
-      <c r="BP57"/>
-      <c r="BQ57"/>
-      <c r="BR57"/>
-      <c r="BS57"/>
-      <c r="BT57"/>
-      <c r="BU57"/>
-      <c r="BV57"/>
-      <c r="BW57"/>
-      <c r="BX57"/>
-      <c r="BY57"/>
-      <c r="BZ57"/>
-      <c r="CA57"/>
-      <c r="CB57"/>
-      <c r="CC57"/>
-      <c r="CD57"/>
-      <c r="CE57"/>
-      <c r="CF57"/>
-      <c r="CG57"/>
-      <c r="CH57"/>
-      <c r="CI57"/>
-      <c r="CJ57"/>
-      <c r="CK57"/>
-      <c r="CL57"/>
-      <c r="CM57"/>
-      <c r="CN57"/>
-      <c r="CO57"/>
-      <c r="CP57"/>
-      <c r="CQ57"/>
-      <c r="CR57"/>
-      <c r="CS57"/>
-      <c r="CT57"/>
-      <c r="CU57"/>
-      <c r="CV57"/>
-      <c r="CW57"/>
-      <c r="CX57"/>
-      <c r="CY57"/>
-      <c r="CZ57"/>
-      <c r="DA57"/>
-      <c r="DB57"/>
-      <c r="DC57"/>
-      <c r="DD57"/>
-      <c r="DE57"/>
-      <c r="DF57"/>
-      <c r="DG57"/>
-      <c r="DH57"/>
-      <c r="DI57"/>
-      <c r="DJ57"/>
-      <c r="DK57"/>
-      <c r="DL57"/>
-      <c r="DM57"/>
-      <c r="DN57"/>
-      <c r="DO57"/>
-      <c r="DP57"/>
-      <c r="DQ57"/>
-      <c r="DR57"/>
-      <c r="DS57"/>
-      <c r="DT57"/>
-      <c r="DU57"/>
-      <c r="DV57"/>
-      <c r="DW57"/>
-      <c r="DX57"/>
-      <c r="DY57"/>
-      <c r="DZ57"/>
-      <c r="EA57"/>
-      <c r="EB57"/>
-      <c r="EC57"/>
-      <c r="ED57"/>
-      <c r="EE57"/>
-      <c r="EF57"/>
-      <c r="EG57"/>
-      <c r="EH57"/>
-      <c r="EI57"/>
-      <c r="EJ57"/>
-      <c r="EK57"/>
-      <c r="EL57"/>
-      <c r="EM57"/>
-      <c r="EN57"/>
-      <c r="EO57"/>
-      <c r="EP57"/>
-      <c r="EQ57"/>
-      <c r="ER57"/>
-      <c r="ES57"/>
-      <c r="ET57"/>
-      <c r="EU57"/>
-      <c r="EV57"/>
-      <c r="EW57"/>
-      <c r="EX57"/>
-      <c r="EY57"/>
-      <c r="EZ57"/>
-      <c r="FA57"/>
-      <c r="FB57"/>
-      <c r="FC57"/>
-      <c r="FD57"/>
-      <c r="FE57"/>
-      <c r="FF57"/>
-      <c r="FG57"/>
-      <c r="FH57"/>
-      <c r="FI57"/>
-      <c r="FJ57"/>
-      <c r="FK57"/>
-      <c r="FL57"/>
-      <c r="FM57"/>
-      <c r="FN57"/>
-      <c r="FO57"/>
-      <c r="FP57"/>
-      <c r="FQ57"/>
-      <c r="FR57"/>
-      <c r="FS57"/>
-      <c r="FT57"/>
-      <c r="FU57"/>
-      <c r="FV57"/>
-      <c r="FW57"/>
-      <c r="FX57"/>
-      <c r="FY57"/>
-      <c r="FZ57"/>
-      <c r="GA57"/>
-      <c r="GB57"/>
-      <c r="GC57"/>
-      <c r="GD57"/>
-      <c r="GE57"/>
-      <c r="GF57"/>
-      <c r="GG57"/>
-      <c r="GH57"/>
-      <c r="GI57"/>
-      <c r="GJ57"/>
-      <c r="GK57"/>
-      <c r="GL57"/>
-      <c r="GM57"/>
-      <c r="GN57"/>
-      <c r="GO57"/>
-      <c r="GP57"/>
-      <c r="GQ57"/>
-      <c r="GR57"/>
-      <c r="GS57"/>
-      <c r="GT57"/>
-      <c r="GU57"/>
-      <c r="GV57"/>
-      <c r="GW57"/>
-      <c r="GX57"/>
-      <c r="GY57"/>
-      <c r="GZ57"/>
-      <c r="HA57"/>
-      <c r="HB57"/>
-      <c r="HC57"/>
-      <c r="HD57"/>
-      <c r="HE57"/>
-      <c r="HF57"/>
-      <c r="HG57"/>
-      <c r="HH57"/>
-      <c r="HI57"/>
-      <c r="HJ57"/>
-      <c r="HK57"/>
-      <c r="HL57"/>
-      <c r="HM57"/>
-      <c r="HN57"/>
-      <c r="HO57"/>
-      <c r="HP57"/>
-      <c r="HQ57"/>
-      <c r="HR57"/>
-      <c r="HS57"/>
-      <c r="HT57"/>
-      <c r="HU57"/>
-      <c r="HV57"/>
-      <c r="HW57"/>
-      <c r="HX57"/>
-      <c r="HY57"/>
-      <c r="HZ57"/>
-      <c r="IA57"/>
-      <c r="IB57"/>
-      <c r="IC57"/>
-      <c r="ID57"/>
-      <c r="IE57"/>
-      <c r="IF57"/>
-      <c r="IG57"/>
-      <c r="IH57"/>
-      <c r="II57"/>
-      <c r="IJ57"/>
-      <c r="IK57"/>
-      <c r="IL57"/>
-      <c r="IM57"/>
-      <c r="IN57"/>
-      <c r="IO57"/>
-      <c r="IP57"/>
-      <c r="IQ57"/>
-      <c r="IR57"/>
-      <c r="IS57"/>
-      <c r="IT57"/>
-      <c r="IU57"/>
-      <c r="IV57"/>
-      <c r="IW57"/>
-      <c r="IX57"/>
-      <c r="IY57"/>
-      <c r="IZ57"/>
-      <c r="JA57"/>
-      <c r="JB57"/>
-      <c r="JC57"/>
-      <c r="JD57"/>
-      <c r="JE57"/>
-      <c r="JF57"/>
-      <c r="JG57"/>
-      <c r="JH57"/>
-      <c r="JI57"/>
-      <c r="JJ57"/>
-      <c r="JK57"/>
-      <c r="JL57"/>
-      <c r="JM57"/>
-      <c r="JN57"/>
-      <c r="JO57"/>
-      <c r="JP57"/>
-      <c r="JQ57"/>
-      <c r="JR57"/>
-      <c r="JS57"/>
-      <c r="JT57"/>
-      <c r="JU57"/>
-      <c r="JV57"/>
-      <c r="JW57"/>
-      <c r="JX57"/>
-      <c r="JY57"/>
-      <c r="JZ57"/>
-      <c r="KA57"/>
-      <c r="KB57"/>
-      <c r="KC57"/>
-      <c r="KD57"/>
-      <c r="KE57"/>
-      <c r="KF57"/>
-      <c r="KG57"/>
-      <c r="KH57"/>
-      <c r="KI57"/>
-      <c r="KJ57"/>
-      <c r="KK57"/>
-      <c r="KL57"/>
-      <c r="KM57"/>
-      <c r="KN57"/>
-      <c r="KO57"/>
-      <c r="KP57"/>
-      <c r="KQ57"/>
-      <c r="KR57"/>
-      <c r="KS57"/>
-      <c r="KT57"/>
-      <c r="KU57"/>
-      <c r="KV57"/>
-      <c r="KW57"/>
-      <c r="KX57"/>
-      <c r="KY57"/>
-      <c r="KZ57"/>
-      <c r="LA57"/>
-      <c r="LB57"/>
-      <c r="LC57"/>
-      <c r="LD57"/>
-      <c r="LE57"/>
-      <c r="LF57"/>
-      <c r="LG57"/>
-      <c r="LH57"/>
-      <c r="LI57"/>
-      <c r="LJ57"/>
-      <c r="LK57"/>
-      <c r="LL57"/>
-      <c r="LM57"/>
-      <c r="LN57"/>
-      <c r="LO57"/>
-      <c r="LP57"/>
-      <c r="LQ57"/>
-      <c r="LR57"/>
-      <c r="LS57"/>
-      <c r="LT57"/>
-      <c r="LU57"/>
-      <c r="LV57"/>
-      <c r="LW57"/>
-      <c r="LX57"/>
-      <c r="LY57"/>
-      <c r="LZ57"/>
-      <c r="MA57"/>
-      <c r="MB57"/>
-      <c r="MC57"/>
-      <c r="MD57"/>
-      <c r="ME57"/>
-      <c r="MF57"/>
-      <c r="MG57"/>
-      <c r="MH57"/>
-      <c r="MI57"/>
-      <c r="MJ57"/>
-      <c r="MK57"/>
-      <c r="ML57"/>
-      <c r="MM57"/>
-      <c r="MN57"/>
-      <c r="MO57"/>
-      <c r="MP57"/>
-      <c r="MQ57"/>
-      <c r="MR57"/>
-      <c r="MS57"/>
-      <c r="MT57"/>
-      <c r="MU57"/>
-      <c r="MV57"/>
-      <c r="MW57"/>
-      <c r="MX57"/>
-      <c r="MY57"/>
-      <c r="MZ57"/>
-      <c r="NA57"/>
-      <c r="NB57"/>
-      <c r="NC57"/>
-      <c r="ND57"/>
-      <c r="NE57"/>
-      <c r="NF57"/>
-      <c r="NG57"/>
-      <c r="NH57"/>
-      <c r="NI57"/>
-      <c r="NJ57"/>
-      <c r="NK57"/>
-      <c r="NL57"/>
-      <c r="NM57"/>
-      <c r="NN57"/>
-      <c r="NO57"/>
-      <c r="NP57"/>
-      <c r="NQ57"/>
-      <c r="NR57"/>
-      <c r="NS57"/>
-      <c r="NT57"/>
-      <c r="NU57"/>
-      <c r="NV57"/>
-      <c r="NW57"/>
-      <c r="NX57"/>
-      <c r="NY57"/>
-      <c r="NZ57"/>
-      <c r="OA57"/>
-      <c r="OB57"/>
-      <c r="OC57"/>
-      <c r="OD57"/>
-      <c r="OE57"/>
-      <c r="OF57"/>
-      <c r="OG57"/>
-      <c r="OH57"/>
-      <c r="OI57"/>
-      <c r="OJ57"/>
-      <c r="OK57"/>
-      <c r="OL57"/>
-      <c r="OM57"/>
-      <c r="ON57"/>
-      <c r="OO57"/>
-      <c r="OP57"/>
-      <c r="OQ57"/>
-      <c r="OR57"/>
-      <c r="OS57"/>
-      <c r="OT57"/>
-      <c r="OU57"/>
-      <c r="OV57"/>
-      <c r="OW57"/>
-      <c r="OX57"/>
-      <c r="OY57"/>
-      <c r="OZ57"/>
-      <c r="PA57"/>
-      <c r="PB57"/>
-      <c r="PC57"/>
-      <c r="PD57"/>
-      <c r="PE57"/>
-      <c r="PF57"/>
-      <c r="PG57"/>
-      <c r="PH57"/>
-      <c r="PI57"/>
-      <c r="PJ57"/>
-      <c r="PK57"/>
-      <c r="PL57"/>
-      <c r="PM57"/>
-      <c r="PN57"/>
-      <c r="PO57"/>
-      <c r="PP57"/>
-      <c r="PQ57"/>
-      <c r="PR57"/>
-      <c r="PS57"/>
-      <c r="PT57"/>
-      <c r="PU57"/>
-      <c r="PV57"/>
-      <c r="PW57"/>
-      <c r="PX57"/>
-      <c r="PY57"/>
-      <c r="PZ57"/>
-      <c r="QA57"/>
-      <c r="QB57"/>
-      <c r="QC57"/>
-      <c r="QD57"/>
-      <c r="QE57"/>
-      <c r="QF57"/>
-      <c r="QG57"/>
-      <c r="QH57"/>
-      <c r="QI57"/>
-      <c r="QJ57"/>
-      <c r="QK57"/>
-      <c r="QL57"/>
-      <c r="QM57"/>
-      <c r="QN57"/>
-      <c r="QO57"/>
-      <c r="QP57"/>
-      <c r="QQ57"/>
-      <c r="QR57"/>
-      <c r="QS57"/>
-      <c r="QT57"/>
-      <c r="QU57"/>
-      <c r="QV57"/>
-      <c r="QW57"/>
-      <c r="QX57"/>
-      <c r="QY57"/>
-      <c r="QZ57"/>
-      <c r="RA57"/>
-      <c r="RB57"/>
-      <c r="RC57"/>
-      <c r="RD57"/>
-      <c r="RE57"/>
-      <c r="RF57"/>
-      <c r="RG57"/>
-      <c r="RH57"/>
-      <c r="RI57"/>
-      <c r="RJ57"/>
-      <c r="RK57"/>
-      <c r="RL57"/>
-      <c r="RM57"/>
-      <c r="RN57"/>
-      <c r="RO57"/>
-      <c r="RP57"/>
-      <c r="RQ57"/>
-      <c r="RR57"/>
-      <c r="RS57"/>
-      <c r="RT57"/>
-      <c r="RU57"/>
-      <c r="RV57"/>
-      <c r="RW57"/>
-      <c r="RX57"/>
-      <c r="RY57"/>
-      <c r="RZ57"/>
-      <c r="SA57"/>
-      <c r="SB57"/>
-      <c r="SC57"/>
-      <c r="SD57"/>
-      <c r="SE57"/>
-      <c r="SF57"/>
-      <c r="SG57"/>
-      <c r="SH57"/>
-      <c r="SI57"/>
-      <c r="SJ57"/>
-      <c r="SK57"/>
-      <c r="SL57"/>
-      <c r="SM57"/>
-      <c r="SN57"/>
-      <c r="SO57"/>
-      <c r="SP57"/>
-      <c r="SQ57"/>
-      <c r="SR57"/>
-      <c r="SS57"/>
-      <c r="ST57"/>
-      <c r="SU57"/>
-      <c r="SV57"/>
-      <c r="SW57"/>
-      <c r="SX57"/>
-      <c r="SY57"/>
-      <c r="SZ57"/>
-      <c r="TA57"/>
-      <c r="TB57"/>
-      <c r="TC57"/>
-      <c r="TD57"/>
-      <c r="TE57"/>
-      <c r="TF57"/>
-      <c r="TG57"/>
-      <c r="TH57"/>
-      <c r="TI57"/>
-      <c r="TJ57"/>
-      <c r="TK57"/>
-      <c r="TL57"/>
-      <c r="TM57"/>
-      <c r="TN57"/>
-      <c r="TO57"/>
-      <c r="TP57"/>
-      <c r="TQ57"/>
-      <c r="TR57"/>
-      <c r="TS57"/>
-      <c r="TT57"/>
-      <c r="TU57"/>
-      <c r="TV57"/>
-      <c r="TW57"/>
-      <c r="TX57"/>
-      <c r="TY57"/>
-      <c r="TZ57"/>
-      <c r="UA57"/>
-      <c r="UB57"/>
-      <c r="UC57"/>
-      <c r="UD57"/>
-      <c r="UE57"/>
-      <c r="UF57"/>
-      <c r="UG57"/>
-      <c r="UH57"/>
-      <c r="UI57"/>
-      <c r="UJ57"/>
-      <c r="UK57"/>
-      <c r="UL57"/>
-      <c r="UM57"/>
-      <c r="UN57"/>
-      <c r="UO57"/>
-      <c r="UP57"/>
-      <c r="UQ57"/>
-      <c r="UR57"/>
-      <c r="US57"/>
-      <c r="UT57"/>
-      <c r="UU57"/>
-      <c r="UV57"/>
-      <c r="UW57"/>
-      <c r="UX57"/>
-      <c r="UY57"/>
-      <c r="UZ57"/>
-      <c r="VA57"/>
-      <c r="VB57"/>
-      <c r="VC57"/>
-      <c r="VD57"/>
-      <c r="VE57"/>
-      <c r="VF57"/>
-      <c r="VG57"/>
-      <c r="VH57"/>
-      <c r="VI57"/>
-      <c r="VJ57"/>
-      <c r="VK57"/>
-      <c r="VL57"/>
-      <c r="VM57"/>
-      <c r="VN57"/>
-      <c r="VO57"/>
-      <c r="VP57"/>
-      <c r="VQ57"/>
-      <c r="VR57"/>
-      <c r="VS57"/>
-      <c r="VT57"/>
-      <c r="VU57"/>
-      <c r="VV57"/>
-      <c r="VW57"/>
-      <c r="VX57"/>
-      <c r="VY57"/>
-      <c r="VZ57"/>
-      <c r="WA57"/>
-      <c r="WB57"/>
-      <c r="WC57"/>
-      <c r="WD57"/>
-      <c r="WE57"/>
-      <c r="WF57"/>
-      <c r="WG57"/>
-      <c r="WH57"/>
-      <c r="WI57"/>
-      <c r="WJ57"/>
-      <c r="WK57"/>
-      <c r="WL57"/>
-      <c r="WM57"/>
-      <c r="WN57"/>
-      <c r="WO57"/>
-      <c r="WP57"/>
-      <c r="WQ57"/>
-      <c r="WR57"/>
-      <c r="WS57"/>
-      <c r="WT57"/>
-      <c r="WU57"/>
-      <c r="WV57"/>
-      <c r="WW57"/>
-      <c r="WX57"/>
-      <c r="WY57"/>
-      <c r="WZ57"/>
-      <c r="XA57"/>
-      <c r="XB57"/>
-      <c r="XC57"/>
-      <c r="XD57"/>
-      <c r="XE57"/>
-      <c r="XF57"/>
-      <c r="XG57"/>
-      <c r="XH57"/>
-      <c r="XI57"/>
-      <c r="XJ57"/>
-      <c r="XK57"/>
-      <c r="XL57"/>
-      <c r="XM57"/>
-      <c r="XN57"/>
-      <c r="XO57"/>
-      <c r="XP57"/>
-      <c r="XQ57"/>
-      <c r="XR57"/>
-      <c r="XS57"/>
-      <c r="XT57"/>
-      <c r="XU57"/>
-      <c r="XV57"/>
-      <c r="XW57"/>
-      <c r="XX57"/>
-      <c r="XY57"/>
-      <c r="XZ57"/>
-      <c r="YA57"/>
-      <c r="YB57"/>
-      <c r="YC57"/>
-      <c r="YD57"/>
-      <c r="YE57"/>
-      <c r="YF57"/>
-      <c r="YG57"/>
-      <c r="YH57"/>
-      <c r="YI57"/>
-      <c r="YJ57"/>
-      <c r="YK57"/>
-      <c r="YL57"/>
-      <c r="YM57"/>
-      <c r="YN57"/>
-      <c r="YO57"/>
-      <c r="YP57"/>
-      <c r="YQ57"/>
-      <c r="YR57"/>
-      <c r="YS57"/>
-      <c r="YT57"/>
-      <c r="YU57"/>
-      <c r="YV57"/>
-      <c r="YW57"/>
-      <c r="YX57"/>
-      <c r="YY57"/>
-      <c r="YZ57"/>
-      <c r="ZA57"/>
-      <c r="ZB57"/>
-      <c r="ZC57"/>
-      <c r="ZD57"/>
-      <c r="ZE57"/>
-      <c r="ZF57"/>
-      <c r="ZG57"/>
-      <c r="ZH57"/>
-      <c r="ZI57"/>
-      <c r="ZJ57"/>
-      <c r="ZK57"/>
-      <c r="ZL57"/>
-      <c r="ZM57"/>
-      <c r="ZN57"/>
-      <c r="ZO57"/>
-      <c r="ZP57"/>
-      <c r="ZQ57"/>
-      <c r="ZR57"/>
-      <c r="ZS57"/>
-      <c r="ZT57"/>
-      <c r="ZU57"/>
-      <c r="ZV57"/>
-      <c r="ZW57"/>
-      <c r="ZX57"/>
-      <c r="ZY57"/>
-      <c r="ZZ57"/>
-      <c r="AAA57"/>
-      <c r="AAB57"/>
-      <c r="AAC57"/>
-      <c r="AAD57"/>
-      <c r="AAE57"/>
-      <c r="AAF57"/>
-      <c r="AAG57"/>
-      <c r="AAH57"/>
-      <c r="AAI57"/>
-      <c r="AAJ57"/>
-      <c r="AAK57"/>
-      <c r="AAL57"/>
-      <c r="AAM57"/>
-      <c r="AAN57"/>
-      <c r="AAO57"/>
-      <c r="AAP57"/>
-      <c r="AAQ57"/>
-      <c r="AAR57"/>
-      <c r="AAS57"/>
-      <c r="AAT57"/>
-      <c r="AAU57"/>
-      <c r="AAV57"/>
-      <c r="AAW57"/>
-      <c r="AAX57"/>
-      <c r="AAY57"/>
-      <c r="AAZ57"/>
-      <c r="ABA57"/>
-      <c r="ABB57"/>
-      <c r="ABC57"/>
-      <c r="ABD57"/>
-      <c r="ABE57"/>
-      <c r="ABF57"/>
-      <c r="ABG57"/>
-      <c r="ABH57"/>
-      <c r="ABI57"/>
-      <c r="ABJ57"/>
-      <c r="ABK57"/>
-      <c r="ABL57"/>
-      <c r="ABM57"/>
-      <c r="ABN57"/>
-      <c r="ABO57"/>
-      <c r="ABP57"/>
-      <c r="ABQ57"/>
-      <c r="ABR57"/>
-      <c r="ABS57"/>
-      <c r="ABT57"/>
-      <c r="ABU57"/>
-      <c r="ABV57"/>
-      <c r="ABW57"/>
-      <c r="ABX57"/>
-      <c r="ABY57"/>
-      <c r="ABZ57"/>
-      <c r="ACA57"/>
-      <c r="ACB57"/>
-      <c r="ACC57"/>
-      <c r="ACD57"/>
-      <c r="ACE57"/>
-      <c r="ACF57"/>
-      <c r="ACG57"/>
-      <c r="ACH57"/>
-      <c r="ACI57"/>
-      <c r="ACJ57"/>
-      <c r="ACK57"/>
-      <c r="ACL57"/>
-      <c r="ACM57"/>
-      <c r="ACN57"/>
-      <c r="ACO57"/>
-      <c r="ACP57"/>
-      <c r="ACQ57"/>
-      <c r="ACR57"/>
-      <c r="ACS57"/>
-      <c r="ACT57"/>
-      <c r="ACU57"/>
-      <c r="ACV57"/>
-      <c r="ACW57"/>
-      <c r="ACX57"/>
-      <c r="ACY57"/>
-      <c r="ACZ57"/>
-      <c r="ADA57"/>
-      <c r="ADB57"/>
-      <c r="ADC57"/>
-      <c r="ADD57"/>
-      <c r="ADE57"/>
-      <c r="ADF57"/>
-      <c r="ADG57"/>
-      <c r="ADH57"/>
-      <c r="ADI57"/>
-      <c r="ADJ57"/>
-      <c r="ADK57"/>
-      <c r="ADL57"/>
-      <c r="ADM57"/>
-      <c r="ADN57"/>
-      <c r="ADO57"/>
-      <c r="ADP57"/>
-      <c r="ADQ57"/>
-      <c r="ADR57"/>
-      <c r="ADS57"/>
-      <c r="ADT57"/>
-      <c r="ADU57"/>
-      <c r="ADV57"/>
-      <c r="ADW57"/>
-      <c r="ADX57"/>
-      <c r="ADY57"/>
-      <c r="ADZ57"/>
-      <c r="AEA57"/>
-      <c r="AEB57"/>
-      <c r="AEC57"/>
-      <c r="AED57"/>
-      <c r="AEE57"/>
-      <c r="AEF57"/>
-      <c r="AEG57"/>
-      <c r="AEH57"/>
-      <c r="AEI57"/>
-      <c r="AEJ57"/>
-      <c r="AEK57"/>
-      <c r="AEL57"/>
-      <c r="AEM57"/>
-      <c r="AEN57"/>
-      <c r="AEO57"/>
-      <c r="AEP57"/>
-      <c r="AEQ57"/>
-      <c r="AER57"/>
-      <c r="AES57"/>
-      <c r="AET57"/>
-      <c r="AEU57"/>
-      <c r="AEV57"/>
-      <c r="AEW57"/>
-      <c r="AEX57"/>
-      <c r="AEY57"/>
-      <c r="AEZ57"/>
-      <c r="AFA57"/>
-      <c r="AFB57"/>
-      <c r="AFC57"/>
-      <c r="AFD57"/>
-      <c r="AFE57"/>
-      <c r="AFF57"/>
-      <c r="AFG57"/>
-      <c r="AFH57"/>
-      <c r="AFI57"/>
-      <c r="AFJ57"/>
-      <c r="AFK57"/>
-      <c r="AFL57"/>
-      <c r="AFM57"/>
-      <c r="AFN57"/>
-      <c r="AFO57"/>
-      <c r="AFP57"/>
-      <c r="AFQ57"/>
-      <c r="AFR57"/>
-      <c r="AFS57"/>
-      <c r="AFT57"/>
-      <c r="AFU57"/>
-      <c r="AFV57"/>
-      <c r="AFW57"/>
-      <c r="AFX57"/>
-      <c r="AFY57"/>
-      <c r="AFZ57"/>
-      <c r="AGA57"/>
-      <c r="AGB57"/>
-      <c r="AGC57"/>
-      <c r="AGD57"/>
-      <c r="AGE57"/>
-      <c r="AGF57"/>
-      <c r="AGG57"/>
-      <c r="AGH57"/>
-      <c r="AGI57"/>
-      <c r="AGJ57"/>
-      <c r="AGK57"/>
-      <c r="AGL57"/>
-      <c r="AGM57"/>
-      <c r="AGN57"/>
-      <c r="AGO57"/>
-      <c r="AGP57"/>
-      <c r="AGQ57"/>
-      <c r="AGR57"/>
-      <c r="AGS57"/>
-      <c r="AGT57"/>
-      <c r="AGU57"/>
-      <c r="AGV57"/>
-      <c r="AGW57"/>
-      <c r="AGX57"/>
-      <c r="AGY57"/>
-      <c r="AGZ57"/>
-      <c r="AHA57"/>
-      <c r="AHB57"/>
-      <c r="AHC57"/>
-      <c r="AHD57"/>
-      <c r="AHE57"/>
-      <c r="AHF57"/>
-      <c r="AHG57"/>
-      <c r="AHH57"/>
-      <c r="AHI57"/>
-      <c r="AHJ57"/>
-      <c r="AHK57"/>
-      <c r="AHL57"/>
-      <c r="AHM57"/>
-      <c r="AHN57"/>
-      <c r="AHO57"/>
-      <c r="AHP57"/>
-      <c r="AHQ57"/>
-      <c r="AHR57"/>
-      <c r="AHS57"/>
-      <c r="AHT57"/>
-      <c r="AHU57"/>
-      <c r="AHV57"/>
-      <c r="AHW57"/>
-      <c r="AHX57"/>
-      <c r="AHY57"/>
-      <c r="AHZ57"/>
-      <c r="AIA57"/>
-      <c r="AIB57"/>
-      <c r="AIC57"/>
-      <c r="AID57"/>
-      <c r="AIE57"/>
-      <c r="AIF57"/>
-      <c r="AIG57"/>
-      <c r="AIH57"/>
-      <c r="AII57"/>
-      <c r="AIJ57"/>
-      <c r="AIK57"/>
-      <c r="AIL57"/>
-      <c r="AIM57"/>
-      <c r="AIN57"/>
-      <c r="AIO57"/>
-      <c r="AIP57"/>
-      <c r="AIQ57"/>
-      <c r="AIR57"/>
-      <c r="AIS57"/>
-      <c r="AIT57"/>
-      <c r="AIU57"/>
-      <c r="AIV57"/>
-      <c r="AIW57"/>
-      <c r="AIX57"/>
-      <c r="AIY57"/>
-      <c r="AIZ57"/>
-      <c r="AJA57"/>
-      <c r="AJB57"/>
-      <c r="AJC57"/>
-      <c r="AJD57"/>
-      <c r="AJE57"/>
-      <c r="AJF57"/>
-      <c r="AJG57"/>
-      <c r="AJH57"/>
-      <c r="AJI57"/>
-      <c r="AJJ57"/>
-      <c r="AJK57"/>
-      <c r="AJL57"/>
-      <c r="AJM57"/>
-      <c r="AJN57"/>
-      <c r="AJO57"/>
-      <c r="AJP57"/>
-      <c r="AJQ57"/>
-      <c r="AJR57"/>
-      <c r="AJS57"/>
-      <c r="AJT57"/>
-      <c r="AJU57"/>
-      <c r="AJV57"/>
-      <c r="AJW57"/>
-      <c r="AJX57"/>
-      <c r="AJY57"/>
-      <c r="AJZ57"/>
-      <c r="AKA57"/>
-      <c r="AKB57"/>
-      <c r="AKC57"/>
-      <c r="AKD57"/>
-      <c r="AKE57"/>
-      <c r="AKF57"/>
-      <c r="AKG57"/>
-      <c r="AKH57"/>
-      <c r="AKI57"/>
-      <c r="AKJ57"/>
-      <c r="AKK57"/>
-      <c r="AKL57"/>
-      <c r="AKM57"/>
-      <c r="AKN57"/>
-      <c r="AKO57"/>
-      <c r="AKP57"/>
-      <c r="AKQ57"/>
-      <c r="AKR57"/>
-      <c r="AKS57"/>
-      <c r="AKT57"/>
-      <c r="AKU57"/>
-      <c r="AKV57"/>
-      <c r="AKW57"/>
-      <c r="AKX57"/>
-      <c r="AKY57"/>
-      <c r="AKZ57"/>
-      <c r="ALA57"/>
-      <c r="ALB57"/>
-      <c r="ALC57"/>
-      <c r="ALD57"/>
-      <c r="ALE57"/>
-      <c r="ALF57"/>
-      <c r="ALG57"/>
-      <c r="ALH57"/>
-      <c r="ALI57"/>
-      <c r="ALJ57"/>
-      <c r="ALK57"/>
-      <c r="ALL57"/>
-      <c r="ALM57"/>
-      <c r="ALN57"/>
-      <c r="ALO57"/>
-      <c r="ALP57"/>
-      <c r="ALQ57"/>
-      <c r="ALR57"/>
-      <c r="ALS57"/>
-      <c r="ALT57"/>
-      <c r="ALU57"/>
-      <c r="ALV57"/>
-      <c r="ALW57"/>
-      <c r="ALX57"/>
-      <c r="ALY57"/>
-      <c r="ALZ57"/>
-      <c r="AMA57"/>
-      <c r="AMB57"/>
-      <c r="AMC57"/>
-      <c r="AMD57"/>
-      <c r="AME57"/>
-      <c r="AMF57"/>
-      <c r="AMG57"/>
-      <c r="AMH57"/>
-      <c r="AMI57"/>
-    </row>
-    <row r="58" spans="1:1023">
-      <c r="A58" s="55" t="s">
-        <v>265</v>
-      </c>
-      <c r="B58" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="D58" s="67" t="s">
-        <v>272</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1023">
-      <c r="A59" s="55" t="s">
-        <v>265</v>
-      </c>
-      <c r="B59" s="77" t="s">
-        <v>267</v>
-      </c>
-      <c r="C59" s="46"/>
-      <c r="D59" s="67" t="s">
-        <v>272</v>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="B58" s="72" t="s">
+        <v>321</v>
+      </c>
+      <c r="C58" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="D58" s="69" t="s">
+        <v>270</v>
+      </c>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="B59" s="72" t="s">
+        <v>312</v>
+      </c>
+      <c r="C59" s="49" t="s">
+        <v>314</v>
+      </c>
+      <c r="D59" s="69" t="s">
+        <v>316</v>
       </c>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="1:1023">
-      <c r="A60" s="55" t="s">
-        <v>265</v>
-      </c>
-      <c r="B60" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="D60" s="67" t="s">
+    <row r="60" spans="1:5">
+      <c r="A60" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="B60" s="72" t="s">
+        <v>313</v>
+      </c>
+      <c r="C60" s="49" t="s">
+        <v>315</v>
+      </c>
+      <c r="D60" s="69" t="s">
+        <v>316</v>
+      </c>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="B61" s="72" t="s">
+        <v>317</v>
+      </c>
+      <c r="C61" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="D61" s="69" t="s">
+        <v>316</v>
+      </c>
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" spans="1:5" ht="38.25">
+      <c r="A62" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="B62" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="D62" s="69" t="s">
         <v>271</v>
       </c>
-      <c r="E60" s="5"/>
-    </row>
-    <row r="61" spans="1:1023">
-      <c r="A61" s="55" t="s">
-        <v>265</v>
-      </c>
-      <c r="B61" s="77" t="s">
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="55" t="s">
+        <v>307</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="C63" s="81" t="s">
+        <v>357</v>
+      </c>
+      <c r="D63" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="38.25">
+      <c r="A64" s="55" t="s">
+        <v>307</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="C64" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="D64" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" spans="1:5" ht="38.25">
+      <c r="A65" s="55" t="s">
+        <v>307</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="81" t="s">
         <v>356</v>
       </c>
-      <c r="C61" s="83" t="s">
-        <v>357</v>
-      </c>
-      <c r="D61" s="67" t="s">
-        <v>272</v>
-      </c>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:1023">
-      <c r="A62" s="55" t="s">
-        <v>265</v>
-      </c>
-      <c r="B62" s="77" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="46" t="s">
-        <v>277</v>
-      </c>
-      <c r="D62" s="67" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1023">
-      <c r="A63" s="72" t="s">
-        <v>314</v>
-      </c>
-      <c r="B63" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="49" t="s">
-        <v>315</v>
-      </c>
-      <c r="D63" s="70" t="s">
-        <v>272</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1023">
-      <c r="A64" s="72" t="s">
-        <v>314</v>
-      </c>
-      <c r="B64" s="73" t="s">
-        <v>327</v>
-      </c>
-      <c r="C64" s="49" t="s">
+      <c r="D65" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="55" t="s">
+        <v>307</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="C66" s="46" t="s">
+        <v>320</v>
+      </c>
+      <c r="D66" s="69" t="s">
         <v>316</v>
       </c>
-      <c r="D64" s="70" t="s">
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="55" t="s">
+        <v>307</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" s="69" t="s">
         <v>271</v>
       </c>
-      <c r="E64" s="5"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="72" t="s">
-        <v>314</v>
-      </c>
-      <c r="B65" s="73" t="s">
-        <v>318</v>
-      </c>
-      <c r="C65" s="49" t="s">
-        <v>320</v>
-      </c>
-      <c r="D65" s="70" t="s">
-        <v>322</v>
-      </c>
-      <c r="E65" s="5"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="72" t="s">
-        <v>314</v>
-      </c>
-      <c r="B66" s="73" t="s">
-        <v>319</v>
-      </c>
-      <c r="C66" s="49" t="s">
-        <v>321</v>
-      </c>
-      <c r="D66" s="70" t="s">
-        <v>322</v>
-      </c>
-      <c r="E66" s="5"/>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="72" t="s">
-        <v>314</v>
-      </c>
-      <c r="B67" s="73" t="s">
-        <v>323</v>
-      </c>
-      <c r="C67" s="49" t="s">
-        <v>324</v>
-      </c>
-      <c r="D67" s="70" t="s">
-        <v>322</v>
-      </c>
       <c r="E67" s="5"/>
     </row>
-    <row r="68" spans="1:5" ht="38.25">
-      <c r="A68" s="72" t="s">
-        <v>314</v>
-      </c>
-      <c r="B68" s="71" t="s">
-        <v>5</v>
+    <row r="68" spans="1:5">
+      <c r="A68" s="55" t="s">
+        <v>307</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="C68" s="49" t="s">
-        <v>330</v>
-      </c>
-      <c r="D68" s="70" t="s">
-        <v>272</v>
-      </c>
-      <c r="E68" s="5"/>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="55" t="s">
-        <v>313</v>
-      </c>
-      <c r="B69" s="31" t="s">
-        <v>296</v>
-      </c>
-      <c r="C69" s="83" t="s">
-        <v>375</v>
-      </c>
-      <c r="D69" s="67" t="s">
-        <v>272</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="38.25">
-      <c r="A70" s="55" t="s">
-        <v>313</v>
-      </c>
-      <c r="B70" s="31" t="s">
-        <v>317</v>
-      </c>
-      <c r="C70" s="83" t="s">
-        <v>373</v>
-      </c>
-      <c r="D70" s="67" t="s">
-        <v>272</v>
-      </c>
-      <c r="E70" s="5"/>
-    </row>
-    <row r="71" spans="1:5" ht="38.25">
-      <c r="A71" s="55" t="s">
-        <v>313</v>
-      </c>
-      <c r="B71" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71" s="83" t="s">
-        <v>374</v>
-      </c>
-      <c r="D71" s="67" t="s">
-        <v>272</v>
-      </c>
-      <c r="E71" s="5"/>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="55" t="s">
-        <v>313</v>
-      </c>
-      <c r="B72" s="31" t="s">
-        <v>325</v>
-      </c>
-      <c r="C72" s="46" t="s">
-        <v>326</v>
-      </c>
-      <c r="D72" s="70" t="s">
-        <v>322</v>
-      </c>
-      <c r="E72" s="5"/>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="55" t="s">
-        <v>313</v>
-      </c>
-      <c r="B73" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="D73" s="70" t="s">
-        <v>272</v>
-      </c>
-      <c r="E73" s="5"/>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="55" t="s">
-        <v>313</v>
-      </c>
-      <c r="B74" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C74" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="D74" s="70" t="s">
-        <v>272</v>
-      </c>
-      <c r="E74" s="9"/>
+      <c r="D68" s="69" t="s">
+        <v>271</v>
+      </c>
+      <c r="E68" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E62" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E56"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
@@ -9797,7 +4564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9885,11 +4652,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -9905,8 +4672,8 @@
     <col min="9" max="9" width="25.42578125" customWidth="1"/>
     <col min="10" max="10" width="34.42578125" customWidth="1"/>
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19" style="81" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" style="81" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" style="79" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" style="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75">
@@ -9932,7 +4699,7 @@
         <v>56</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I1" s="25" t="s">
         <v>58</v>
@@ -9943,10 +4710,10 @@
       <c r="K1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="80" t="s">
+      <c r="L1" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="80" t="s">
+      <c r="M1" s="78" t="s">
         <v>44</v>
       </c>
       <c r="N1" t="s">
@@ -9958,39 +4725,39 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="C2">
         <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E2" t="s">
-        <v>347</v>
-      </c>
-      <c r="F2" s="78" t="s">
-        <v>349</v>
+        <v>333</v>
+      </c>
+      <c r="F2" s="77" t="s">
+        <v>335</v>
       </c>
       <c r="G2" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="H2" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="I2" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="J2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="L2" s="81">
+      <c r="L2" s="79">
         <v>1582103204370</v>
       </c>
-      <c r="M2" s="81">
+      <c r="M2" s="79">
         <v>1582792430187</v>
       </c>
       <c r="N2">
@@ -10002,39 +4769,39 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="C3">
         <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F3" s="78" t="s">
-        <v>349</v>
+        <v>334</v>
+      </c>
+      <c r="F3" s="77" t="s">
+        <v>335</v>
       </c>
       <c r="G3" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="H3" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="I3" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="J3" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K3">
         <v>99</v>
       </c>
-      <c r="L3" s="81">
+      <c r="L3" s="79">
         <v>1582103204370</v>
       </c>
-      <c r="M3" s="81">
+      <c r="M3" s="79">
         <v>1582792430187</v>
       </c>
       <c r="N3">
@@ -10046,39 +4813,39 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="C4">
         <v>123</v>
       </c>
       <c r="D4" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="E4" t="s">
-        <v>360</v>
-      </c>
-      <c r="F4" s="78" t="s">
-        <v>349</v>
+        <v>342</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>335</v>
       </c>
       <c r="G4" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="H4" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="I4" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="J4" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
-      <c r="L4" s="81">
+      <c r="L4" s="79">
         <v>1582103204370</v>
       </c>
-      <c r="M4" s="81">
+      <c r="M4" s="79">
         <v>1582792430187</v>
       </c>
       <c r="N4">
@@ -10086,11 +4853,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
+  <autoFilter ref="A1:N1"/>
   <phoneticPr fontId="23" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -10103,7 +4870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10130,7 +4897,7 @@
         <v>59</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="E1" s="37" t="s">
         <v>5</v>
@@ -10141,10 +4908,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5">
@@ -10156,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -10173,10 +4940,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5">
@@ -10188,10 +4955,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5">
@@ -10203,10 +4970,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5">
@@ -10218,10 +4985,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5">
@@ -10233,10 +5000,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5">
@@ -10248,10 +5015,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5">
@@ -10270,105 +5037,114 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
-    <col min="3" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:4" ht="18.75">
+      <c r="A1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="80" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="B3" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="E1" s="69" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
+      <c r="B6" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C3" t="s">
-        <v>333</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C4" t="s">
-        <v>334</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C5" t="s">
-        <v>335</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
+      <c r="B7" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10382,150 +5158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
-      <c r="A1" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="77" t="s">
-        <v>267</v>
-      </c>
-      <c r="C1" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="82" t="s">
-        <v>356</v>
-      </c>
-      <c r="E1" s="77" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="5">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="D9" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10543,22 +5176,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="73" t="s">
-        <v>327</v>
-      </c>
-      <c r="C1" s="73" t="s">
-        <v>318</v>
-      </c>
-      <c r="D1" s="73" t="s">
-        <v>319</v>
-      </c>
-      <c r="E1" s="73" t="s">
-        <v>323</v>
-      </c>
-      <c r="F1" s="71" t="s">
+      <c r="B1" s="72" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>317</v>
+      </c>
+      <c r="F1" s="70" t="s">
         <v>5</v>
       </c>
     </row>
@@ -10567,7 +5200,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -10587,7 +5220,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -10607,7 +5240,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10627,7 +5260,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10647,7 +5280,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -10674,10 +5307,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B7425A-AFAB-46F3-BDD9-8E7F16AA78B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -10685,7 +5318,7 @@
   <cols>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="81" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="79" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.140625" customWidth="1"/>
   </cols>
@@ -10709,11 +5342,11 @@
       <c r="F1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="84" t="s">
+      <c r="G1" s="82" t="s">
         <v>14</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I1" s="31" t="s">
         <v>15</v>
@@ -10722,7 +5355,7 @@
         <v>17</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>16</v>
@@ -10730,10 +5363,10 @@
       <c r="M1" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="N1" s="73" t="s">
-        <v>328</v>
-      </c>
-      <c r="O1" s="76" t="s">
+      <c r="N1" s="72" t="s">
+        <v>322</v>
+      </c>
+      <c r="O1" s="75" t="s">
         <v>11</v>
       </c>
     </row>
@@ -10742,10 +5375,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="C2" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -10753,11 +5386,11 @@
       <c r="F2">
         <v>3</v>
       </c>
-      <c r="G2" s="81">
+      <c r="G2" s="79">
         <v>1590045283916</v>
       </c>
       <c r="H2" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -10777,10 +5410,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="C3" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -10788,11 +5421,11 @@
       <c r="F3">
         <v>3</v>
       </c>
-      <c r="G3" s="81">
+      <c r="G3" s="79">
         <v>1590045323073</v>
       </c>
       <c r="H3" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -10812,10 +5445,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="C4" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -10823,11 +5456,11 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" s="81">
+      <c r="G4" s="79">
         <v>1590045603862</v>
       </c>
       <c r="H4" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -10847,10 +5480,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="C5" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -10858,11 +5491,11 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="81">
+      <c r="G5" s="79">
         <v>1590045634319</v>
       </c>
       <c r="H5" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -10882,10 +5515,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="C6" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -10893,11 +5526,11 @@
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6" s="81">
+      <c r="G6" s="79">
         <v>1590047016939</v>
       </c>
       <c r="H6" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -10917,10 +5550,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C7" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -10928,11 +5561,11 @@
       <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7" s="81">
+      <c r="G7" s="79">
         <v>1590047072983</v>
       </c>
       <c r="H7" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -10954,7 +5587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11026,7 +5659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11099,7 +5732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11124,7 +5757,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>36</v>
@@ -12044,7 +6677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12100,7 +6733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12160,7 +6793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12253,10 +6886,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -12267,10 +6900,10 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -12285,7 +6918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/db/excel/sqlite-inovation-manager-v1.xlsx
+++ b/db/excel/sqlite-inovation-manager-v1.xlsx
@@ -23,7 +23,7 @@
     <sheet name="ideas_questions" sheetId="22" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$E$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$E$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">users!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="145621" iterateDelta="1E-4" concurrentCalc="0"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="362">
   <si>
     <t>table_name</t>
   </si>
@@ -810,9 +810,6 @@
   </si>
   <si>
     <t>file_path</t>
-  </si>
-  <si>
-    <t>Mã user thực hiện tạo file này</t>
   </si>
   <si>
     <t>Tên file mô tả đầy đủ, chi tiết</t>
@@ -2479,10 +2476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI68"/>
+  <dimension ref="A1:AMI67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.25"/>
@@ -3541,10 +3538,10 @@
         <v>46</v>
       </c>
       <c r="D2" s="59" t="s">
+        <v>270</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>271</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:1023" ht="37.5">
@@ -3558,7 +3555,7 @@
         <v>240</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E3" s="26"/>
     </row>
@@ -3573,7 +3570,7 @@
         <v>49</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E4" s="26"/>
     </row>
@@ -3588,7 +3585,7 @@
         <v>51</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E5" s="24"/>
     </row>
@@ -3603,7 +3600,7 @@
         <v>53</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E6" s="24"/>
     </row>
@@ -3618,7 +3615,7 @@
         <v>55</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E7" s="24"/>
     </row>
@@ -3633,7 +3630,7 @@
         <v>57</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E8" s="24"/>
     </row>
@@ -3642,13 +3639,13 @@
         <v>45</v>
       </c>
       <c r="B9" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="C9" s="46" t="s">
-        <v>274</v>
-      </c>
       <c r="D9" s="61" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E9" s="24"/>
     </row>
@@ -3663,7 +3660,7 @@
         <v>237</v>
       </c>
       <c r="D10" s="61" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E10" s="24"/>
     </row>
@@ -3678,7 +3675,7 @@
         <v>238</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E11" s="24"/>
     </row>
@@ -3690,10 +3687,10 @@
         <v>60</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>30</v>
@@ -3710,7 +3707,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E13" s="13"/>
     </row>
@@ -3725,7 +3722,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="60" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E14" s="13"/>
     </row>
@@ -3740,7 +3737,7 @@
         <v>62</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E15" s="58"/>
     </row>
@@ -3755,10 +3752,10 @@
         <v>19</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>271</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3772,7 +3769,7 @@
         <v>20</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E17" s="4"/>
     </row>
@@ -3785,7 +3782,7 @@
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E18" s="4"/>
     </row>
@@ -3800,7 +3797,7 @@
         <v>249</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E19" s="4"/>
     </row>
@@ -3815,7 +3812,7 @@
         <v>21</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E20" s="5"/>
     </row>
@@ -3830,7 +3827,7 @@
         <v>24</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E21" s="6"/>
     </row>
@@ -3845,7 +3842,7 @@
         <v>22</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E22" s="5"/>
     </row>
@@ -3854,13 +3851,13 @@
         <v>18</v>
       </c>
       <c r="B23" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="C23" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="C23" s="46" t="s">
-        <v>283</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E23" s="5"/>
     </row>
@@ -3875,7 +3872,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E24" s="5"/>
     </row>
@@ -3887,10 +3884,10 @@
         <v>17</v>
       </c>
       <c r="C25" s="46" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E25" s="5"/>
     </row>
@@ -3899,13 +3896,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="C26" s="46" t="s">
         <v>294</v>
       </c>
-      <c r="C26" s="46" t="s">
-        <v>295</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E26" s="5"/>
     </row>
@@ -3918,10 +3915,10 @@
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3929,16 +3926,16 @@
         <v>18</v>
       </c>
       <c r="B28" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="C28" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="C28" s="46" t="s">
-        <v>261</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3946,16 +3943,16 @@
         <v>18</v>
       </c>
       <c r="B29" s="72" t="s">
+        <v>321</v>
+      </c>
+      <c r="C29" s="49" t="s">
         <v>322</v>
       </c>
-      <c r="C29" s="49" t="s">
-        <v>323</v>
-      </c>
       <c r="D29" s="73" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E29" s="74" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3967,7 +3964,7 @@
       </c>
       <c r="C30" s="46"/>
       <c r="D30" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E30" s="9"/>
     </row>
@@ -3982,10 +3979,10 @@
         <v>232</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>271</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="38.25">
@@ -3999,7 +3996,7 @@
         <v>236</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E32" s="5"/>
     </row>
@@ -4014,7 +4011,7 @@
         <v>250</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E33" s="5"/>
     </row>
@@ -4029,7 +4026,7 @@
         <v>249</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E34" s="4"/>
     </row>
@@ -4038,13 +4035,13 @@
         <v>231</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C35" s="46" t="s">
         <v>234</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E35" s="5"/>
     </row>
@@ -4059,7 +4056,7 @@
         <v>235</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E36" s="5"/>
     </row>
@@ -4074,7 +4071,7 @@
         <v>244</v>
       </c>
       <c r="D37" s="64" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E37" s="5"/>
     </row>
@@ -4083,13 +4080,13 @@
         <v>241</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C38" s="51" t="s">
         <v>242</v>
       </c>
       <c r="D38" s="64" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E38" s="5"/>
     </row>
@@ -4104,7 +4101,7 @@
         <v>245</v>
       </c>
       <c r="D39" s="64" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E39" s="5"/>
     </row>
@@ -4119,7 +4116,7 @@
         <v>246</v>
       </c>
       <c r="D40" s="64" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E40" s="9"/>
     </row>
@@ -4131,13 +4128,13 @@
         <v>6</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D41" s="65" t="s">
+        <v>270</v>
+      </c>
+      <c r="E41" s="11" t="s">
         <v>271</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4148,10 +4145,10 @@
         <v>251</v>
       </c>
       <c r="C42" s="46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D42" s="66" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E42" s="5"/>
     </row>
@@ -4166,7 +4163,7 @@
         <v>252</v>
       </c>
       <c r="D43" s="65" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E43" s="5"/>
     </row>
@@ -4181,7 +4178,7 @@
         <v>253</v>
       </c>
       <c r="D44" s="65" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E44" s="5"/>
     </row>
@@ -4193,10 +4190,10 @@
         <v>256</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D45" s="66" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E45" s="5"/>
     </row>
@@ -4211,66 +4208,66 @@
         <v>245</v>
       </c>
       <c r="D46" s="64" t="s">
+        <v>270</v>
+      </c>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="43" t="s">
+        <v>261</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="D47" s="67" t="s">
+        <v>270</v>
+      </c>
+      <c r="E47" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="E46" s="5"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="44" t="s">
-        <v>247</v>
-      </c>
-      <c r="B47" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="46" t="s">
-        <v>257</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="E47" s="9"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C48" s="46" t="s">
         <v>263</v>
       </c>
       <c r="D48" s="67" t="s">
-        <v>271</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>272</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="E48" s="5"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="43" t="s">
-        <v>262</v>
-      </c>
-      <c r="B49" s="37" t="s">
-        <v>25</v>
+        <v>261</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>59</v>
       </c>
       <c r="C49" s="46" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D49" s="67" t="s">
-        <v>270</v>
-      </c>
-      <c r="E49" s="5"/>
+        <v>269</v>
+      </c>
+      <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" s="46" t="s">
-        <v>298</v>
+        <v>337</v>
+      </c>
+      <c r="C50" s="81" t="s">
+        <v>338</v>
       </c>
       <c r="D50" s="67" t="s">
         <v>270</v>
@@ -4279,129 +4276,129 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="43" t="s">
-        <v>262</v>
-      </c>
-      <c r="B51" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="C51" s="81" t="s">
-        <v>339</v>
+        <v>261</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="46" t="s">
+        <v>274</v>
       </c>
       <c r="D51" s="67" t="s">
-        <v>271</v>
-      </c>
-      <c r="E51" s="1"/>
+        <v>270</v>
+      </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="43" t="s">
-        <v>262</v>
-      </c>
-      <c r="B52" s="37" t="s">
-        <v>5</v>
+      <c r="A52" s="55" t="s">
+        <v>264</v>
+      </c>
+      <c r="B52" s="76" t="s">
+        <v>6</v>
       </c>
       <c r="C52" s="46" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D52" s="67" t="s">
+        <v>270</v>
+      </c>
+      <c r="E52" s="11" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B53" s="76" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C53" s="46" t="s">
         <v>266</v>
       </c>
       <c r="D53" s="67" t="s">
-        <v>271</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>272</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="E53" s="5"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B54" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" s="46" t="s">
-        <v>267</v>
+        <v>337</v>
+      </c>
+      <c r="C54" s="81" t="s">
+        <v>338</v>
       </c>
       <c r="D54" s="67" t="s">
         <v>270</v>
       </c>
-      <c r="E54" s="5"/>
+      <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B55" s="76" t="s">
-        <v>338</v>
-      </c>
-      <c r="C55" s="81" t="s">
-        <v>339</v>
+        <v>5</v>
+      </c>
+      <c r="C55" s="46" t="s">
+        <v>274</v>
       </c>
       <c r="D55" s="67" t="s">
-        <v>271</v>
-      </c>
-      <c r="E55" s="1"/>
+        <v>270</v>
+      </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="55" t="s">
-        <v>265</v>
-      </c>
-      <c r="B56" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="D56" s="67" t="s">
+      <c r="A56" s="71" t="s">
+        <v>307</v>
+      </c>
+      <c r="B56" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="49" t="s">
+        <v>308</v>
+      </c>
+      <c r="D56" s="69" t="s">
+        <v>270</v>
+      </c>
+      <c r="E56" s="11" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="71" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B57" s="72" t="s">
-        <v>6</v>
+        <v>320</v>
       </c>
       <c r="C57" s="49" t="s">
         <v>309</v>
       </c>
       <c r="D57" s="69" t="s">
-        <v>271</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>272</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="71" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B58" s="72" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C58" s="49" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D58" s="69" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="71" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B59" s="72" t="s">
         <v>312</v>
@@ -4410,149 +4407,134 @@
         <v>314</v>
       </c>
       <c r="D59" s="69" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E59" s="5"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="71" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B60" s="72" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C60" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="D60" s="69" t="s">
         <v>315</v>
       </c>
-      <c r="D60" s="69" t="s">
-        <v>316</v>
-      </c>
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" ht="38.25">
       <c r="A61" s="71" t="s">
-        <v>308</v>
-      </c>
-      <c r="B61" s="72" t="s">
-        <v>317</v>
+        <v>307</v>
+      </c>
+      <c r="B61" s="70" t="s">
+        <v>5</v>
       </c>
       <c r="C61" s="49" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D61" s="69" t="s">
-        <v>316</v>
+        <v>270</v>
       </c>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="1:5" ht="38.25">
-      <c r="A62" s="71" t="s">
-        <v>308</v>
-      </c>
-      <c r="B62" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="49" t="s">
-        <v>324</v>
-      </c>
-      <c r="D62" s="69" t="s">
-        <v>271</v>
-      </c>
-      <c r="E62" s="5"/>
-    </row>
-    <row r="63" spans="1:5">
+    <row r="62" spans="1:5">
+      <c r="A62" s="55" t="s">
+        <v>306</v>
+      </c>
+      <c r="B62" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="C62" s="81" t="s">
+        <v>356</v>
+      </c>
+      <c r="D62" s="67" t="s">
+        <v>270</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="38.25">
       <c r="A63" s="55" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="C63" s="81" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D63" s="67" t="s">
-        <v>271</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>336</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="E63" s="5"/>
     </row>
     <row r="64" spans="1:5" ht="38.25">
       <c r="A64" s="55" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>311</v>
+        <v>13</v>
       </c>
       <c r="C64" s="81" t="s">
         <v>355</v>
       </c>
       <c r="D64" s="67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E64" s="5"/>
     </row>
-    <row r="65" spans="1:5" ht="38.25">
+    <row r="65" spans="1:5">
       <c r="A65" s="55" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C65" s="81" t="s">
-        <v>356</v>
-      </c>
-      <c r="D65" s="67" t="s">
-        <v>271</v>
+        <v>318</v>
+      </c>
+      <c r="C65" s="46" t="s">
+        <v>319</v>
+      </c>
+      <c r="D65" s="69" t="s">
+        <v>315</v>
       </c>
       <c r="E65" s="5"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="55" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="C66" s="46" t="s">
-        <v>320</v>
+        <v>14</v>
+      </c>
+      <c r="C66" s="49" t="s">
+        <v>34</v>
       </c>
       <c r="D66" s="69" t="s">
-        <v>316</v>
+        <v>270</v>
       </c>
       <c r="E66" s="5"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="55" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C67" s="49" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D67" s="69" t="s">
-        <v>271</v>
-      </c>
-      <c r="E67" s="5"/>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="55" t="s">
-        <v>307</v>
-      </c>
-      <c r="B68" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C68" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="D68" s="69" t="s">
-        <v>271</v>
-      </c>
-      <c r="E68" s="9"/>
+        <v>270</v>
+      </c>
+      <c r="E67" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E56"/>
+  <autoFilter ref="A1:E55"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
@@ -4699,7 +4681,7 @@
         <v>56</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I1" s="25" t="s">
         <v>58</v>
@@ -4725,31 +4707,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C2">
         <v>123</v>
       </c>
       <c r="D2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F2" s="77" t="s">
+        <v>334</v>
+      </c>
+      <c r="G2" t="s">
         <v>331</v>
       </c>
-      <c r="E2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F2" s="77" t="s">
-        <v>335</v>
-      </c>
-      <c r="G2" t="s">
-        <v>332</v>
-      </c>
       <c r="H2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -4769,31 +4751,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C3">
         <v>123</v>
       </c>
       <c r="D3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F3" s="77" t="s">
+        <v>334</v>
+      </c>
+      <c r="G3" t="s">
         <v>331</v>
       </c>
-      <c r="E3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F3" s="77" t="s">
-        <v>335</v>
-      </c>
-      <c r="G3" t="s">
-        <v>332</v>
-      </c>
       <c r="H3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K3">
         <v>99</v>
@@ -4813,31 +4795,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C4">
         <v>123</v>
       </c>
       <c r="D4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E4" t="s">
+        <v>341</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>334</v>
+      </c>
+      <c r="G4" t="s">
         <v>331</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I4" t="s">
         <v>342</v>
       </c>
-      <c r="F4" s="77" t="s">
-        <v>335</v>
-      </c>
-      <c r="G4" t="s">
-        <v>332</v>
-      </c>
-      <c r="H4" t="s">
-        <v>337</v>
-      </c>
-      <c r="I4" t="s">
-        <v>343</v>
-      </c>
       <c r="J4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -4897,7 +4879,7 @@
         <v>59</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E1" s="37" t="s">
         <v>5</v>
@@ -4908,10 +4890,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5">
@@ -4923,10 +4905,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -4940,10 +4922,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5">
@@ -4955,10 +4937,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5">
@@ -4970,10 +4952,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5">
@@ -4985,10 +4967,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5">
@@ -5000,10 +4982,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5">
@@ -5015,10 +4997,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5">
@@ -5060,7 +5042,7 @@
         <v>25</v>
       </c>
       <c r="C1" s="80" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D1" s="76" t="s">
         <v>5</v>
@@ -5071,7 +5053,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5">
@@ -5083,7 +5065,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -5097,7 +5079,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5">
@@ -5109,7 +5091,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5">
@@ -5121,7 +5103,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5">
@@ -5133,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5">
@@ -5180,16 +5162,16 @@
         <v>6</v>
       </c>
       <c r="B1" s="72" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C1" s="72" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1" s="72" t="s">
         <v>312</v>
       </c>
-      <c r="D1" s="72" t="s">
-        <v>313</v>
-      </c>
       <c r="E1" s="72" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F1" s="70" t="s">
         <v>5</v>
@@ -5200,7 +5182,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5220,7 +5202,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5240,7 +5222,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5260,7 +5242,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5280,7 +5262,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -5346,7 +5328,7 @@
         <v>14</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I1" s="31" t="s">
         <v>15</v>
@@ -5355,16 +5337,16 @@
         <v>17</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N1" s="72" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O1" s="75" t="s">
         <v>11</v>
@@ -5375,10 +5357,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" t="s">
         <v>344</v>
-      </c>
-      <c r="C2" t="s">
-        <v>345</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -5390,7 +5372,7 @@
         <v>1590045283916</v>
       </c>
       <c r="H2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -5410,10 +5392,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C3" t="s">
         <v>346</v>
-      </c>
-      <c r="C3" t="s">
-        <v>347</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -5425,7 +5407,7 @@
         <v>1590045323073</v>
       </c>
       <c r="H3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -5445,10 +5427,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -5460,7 +5442,7 @@
         <v>1590045603862</v>
       </c>
       <c r="H4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -5480,10 +5462,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C5" t="s">
         <v>348</v>
-      </c>
-      <c r="C5" t="s">
-        <v>349</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -5495,7 +5477,7 @@
         <v>1590045634319</v>
       </c>
       <c r="H5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -5515,10 +5497,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C6" t="s">
         <v>351</v>
-      </c>
-      <c r="C6" t="s">
-        <v>352</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -5530,7 +5512,7 @@
         <v>1590047016939</v>
       </c>
       <c r="H6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -5550,10 +5532,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C7" t="s">
         <v>353</v>
-      </c>
-      <c r="C7" t="s">
-        <v>354</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -5565,7 +5547,7 @@
         <v>1590047072983</v>
       </c>
       <c r="H7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -5757,7 +5739,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>36</v>
@@ -6886,10 +6868,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" t="s">
         <v>276</v>
-      </c>
-      <c r="H2" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -6900,10 +6882,10 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H3" t="s">
         <v>278</v>
-      </c>
-      <c r="H3" t="s">
-        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/db/excel/sqlite-inovation-manager-v1.xlsx
+++ b/db/excel/sqlite-inovation-manager-v1.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="365">
   <si>
     <t>table_name</t>
   </si>
@@ -1158,6 +1158,15 @@
   </si>
   <si>
     <t>Có thể triển khai sau</t>
+  </si>
+  <si>
+    <t>, FOREIGN KEY (user_id) REFERENCES users(id)</t>
+  </si>
+  <si>
+    <t>, FOREIGN KEY (idea_id) REFERENCES ideas(id), FOREIGN KEY (question_id) REFERENCES ideas_questions(id), FOREIGN KEY (user_id) REFERENCES users(id)</t>
+  </si>
+  <si>
+    <t>,  FOREIGN KEY (category_id) REFERENCES ideas_categories(id),  FOREIGN KEY (user_id) REFERENCES users(id),  FOREIGN KEY (status) REFERENCES ideas_statuses(id)</t>
   </si>
 </sst>
 </file>
@@ -2478,8 +2487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD47"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.25"/>
@@ -3955,7 +3964,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" ht="74.25" customHeight="1">
       <c r="A30" s="40" t="s">
         <v>18</v>
       </c>
@@ -3966,7 +3975,9 @@
       <c r="D30" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E30" s="9"/>
+      <c r="E30" s="9" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="41" t="s">
@@ -4045,7 +4056,7 @@
       </c>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" ht="25.5" customHeight="1">
       <c r="A36" s="41" t="s">
         <v>231</v>
       </c>
@@ -4058,7 +4069,9 @@
       <c r="D36" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="E36" s="5" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="42" t="s">
@@ -4118,7 +4131,9 @@
       <c r="D40" s="64" t="s">
         <v>270</v>
       </c>
-      <c r="E40" s="9"/>
+      <c r="E40" s="5" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="44" t="s">
@@ -4518,7 +4533,7 @@
       </c>
       <c r="E66" s="5"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" ht="61.5" customHeight="1">
       <c r="A67" s="55" t="s">
         <v>306</v>
       </c>
@@ -4531,7 +4546,9 @@
       <c r="D67" s="69" t="s">
         <v>270</v>
       </c>
-      <c r="E67" s="9"/>
+      <c r="E67" s="9" t="s">
+        <v>363</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E55"/>

--- a/db/excel/sqlite-inovation-manager-v1.xlsx
+++ b/db/excel/sqlite-inovation-manager-v1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DINHNV\MyData\LAPTRINH\NODE4\node4-inovation\db\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6CCD4F-891E-4578-9BBE-512F9454BDC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="495" windowWidth="18330" windowHeight="11760" tabRatio="500" activeTab="11"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
@@ -845,9 +851,6 @@
     <t>changed_username</t>
   </si>
   <si>
-    <t>User thay đổi thông tin bảng ghi này</t>
-  </si>
-  <si>
     <t>#Khác</t>
   </si>
   <si>
@@ -1109,9 +1112,6 @@
     <t>Có thể triển khai sau</t>
   </si>
   <si>
-    <t>, FOREIGN KEY (user_id) REFERENCES users(id)</t>
-  </si>
-  <si>
     <t>, FOREIGN KEY (idea_id) REFERENCES ideas(id), FOREIGN KEY (question_id) REFERENCES ideas_questions(id), FOREIGN KEY (user_id) REFERENCES users(id)</t>
   </si>
   <si>
@@ -1173,12 +1173,18 @@
   </si>
   <si>
     <t>pink</t>
+  </si>
+  <si>
+    <t>User thay đổi thông tin bản ghi này</t>
+  </si>
+  <si>
+    <t>, FOREIGN KEY (user_id) REFERENCES users(id), FOREIGN KEY (idea_id) REFERENCES ideas(id)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
@@ -1965,8 +1971,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1996,6 +2000,12 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="184">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -2585,11 +2595,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMI67"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.25"/>
@@ -3645,7 +3655,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D2" s="48" t="s">
         <v>256</v>
@@ -3662,7 +3672,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>255</v>
@@ -3677,7 +3687,7 @@
         <v>229</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>255</v>
@@ -3692,7 +3702,7 @@
         <v>46</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>255</v>
@@ -3707,7 +3717,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>255</v>
@@ -3767,7 +3777,7 @@
         <v>52</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>255</v>
@@ -3782,7 +3792,7 @@
         <v>53</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>255</v>
@@ -3844,7 +3854,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D15" s="41" t="s">
         <v>256</v>
@@ -3891,7 +3901,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D18" s="56" t="s">
         <v>255</v>
@@ -3951,7 +3961,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D22" s="56" t="s">
         <v>256</v>
@@ -3966,7 +3976,7 @@
         <v>267</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>268</v>
+        <v>365</v>
       </c>
       <c r="D23" s="56" t="s">
         <v>255</v>
@@ -3981,7 +3991,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="59" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D24" s="56" t="s">
         <v>256</v>
@@ -3996,7 +4006,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="59" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D25" s="56" t="s">
         <v>255</v>
@@ -4008,10 +4018,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="54" t="s">
+        <v>278</v>
+      </c>
+      <c r="C26" s="59" t="s">
         <v>279</v>
-      </c>
-      <c r="C26" s="59" t="s">
-        <v>280</v>
       </c>
       <c r="D26" s="56" t="s">
         <v>255</v>
@@ -4026,13 +4036,13 @@
         <v>16</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D27" s="56" t="s">
         <v>256</v>
       </c>
       <c r="E27" s="60" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4049,7 +4059,7 @@
         <v>256</v>
       </c>
       <c r="E28" s="60" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4057,16 +4067,16 @@
         <v>18</v>
       </c>
       <c r="B29" s="54" t="s">
+        <v>304</v>
+      </c>
+      <c r="C29" s="59" t="s">
         <v>305</v>
       </c>
-      <c r="C29" s="59" t="s">
-        <v>306</v>
-      </c>
       <c r="D29" s="56" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E29" s="60" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="74.25" customHeight="1">
@@ -4077,13 +4087,13 @@
         <v>11</v>
       </c>
       <c r="C30" s="59" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D30" s="56" t="s">
         <v>256</v>
       </c>
       <c r="E30" s="61" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4111,7 +4121,7 @@
         <v>14</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D32" s="51" t="s">
         <v>256</v>
@@ -4126,7 +4136,7 @@
         <v>226</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D33" s="51" t="s">
         <v>255</v>
@@ -4153,7 +4163,7 @@
         <v>224</v>
       </c>
       <c r="B35" s="63" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C35" s="50" t="s">
         <v>227</v>
@@ -4163,7 +4173,7 @@
       </c>
       <c r="E35" s="52"/>
     </row>
-    <row r="36" spans="1:5" ht="25.5" customHeight="1">
+    <row r="36" spans="1:5" ht="31.5">
       <c r="A36" s="62" t="s">
         <v>224</v>
       </c>
@@ -4176,8 +4186,8 @@
       <c r="D36" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="E36" s="52" t="s">
-        <v>345</v>
+      <c r="E36" s="104" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -4200,7 +4210,7 @@
         <v>230</v>
       </c>
       <c r="B38" s="76" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C38" s="73" t="s">
         <v>231</v>
@@ -4218,14 +4228,14 @@
         <v>14</v>
       </c>
       <c r="C39" s="73" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D39" s="74" t="s">
         <v>256</v>
       </c>
       <c r="E39" s="75"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" ht="31.5">
       <c r="A40" s="71" t="s">
         <v>230</v>
       </c>
@@ -4238,8 +4248,8 @@
       <c r="D40" s="74" t="s">
         <v>256</v>
       </c>
-      <c r="E40" s="75" t="s">
-        <v>345</v>
+      <c r="E40" s="105" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -4250,7 +4260,7 @@
         <v>6</v>
       </c>
       <c r="C41" s="68" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D41" s="69" t="s">
         <v>256</v>
@@ -4312,7 +4322,7 @@
         <v>243</v>
       </c>
       <c r="C45" s="68" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D45" s="78" t="s">
         <v>255</v>
@@ -4327,7 +4337,7 @@
         <v>14</v>
       </c>
       <c r="C46" s="68" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D46" s="69" t="s">
         <v>256</v>
@@ -4374,7 +4384,7 @@
         <v>53</v>
       </c>
       <c r="C49" s="59" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D49" s="80" t="s">
         <v>255</v>
@@ -4386,10 +4396,10 @@
         <v>247</v>
       </c>
       <c r="B50" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="C50" s="59" t="s">
         <v>320</v>
-      </c>
-      <c r="C50" s="59" t="s">
-        <v>321</v>
       </c>
       <c r="D50" s="80" t="s">
         <v>256</v>
@@ -4448,15 +4458,15 @@
         <v>250</v>
       </c>
       <c r="B54" s="82" t="s">
+        <v>319</v>
+      </c>
+      <c r="C54" s="83" t="s">
         <v>320</v>
-      </c>
-      <c r="C54" s="83" t="s">
-        <v>321</v>
       </c>
       <c r="D54" s="84" t="s">
         <v>256</v>
       </c>
-      <c r="E54" s="87"/>
+      <c r="E54" s="86"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="81" t="s">
@@ -4471,194 +4481,194 @@
       <c r="D55" s="84" t="s">
         <v>256</v>
       </c>
-      <c r="E55" s="88"/>
+      <c r="E55" s="86"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="89" t="s">
+      <c r="A56" s="87" t="s">
+        <v>290</v>
+      </c>
+      <c r="B56" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="89" t="s">
         <v>291</v>
       </c>
-      <c r="B56" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="91" t="s">
+      <c r="D56" s="90" t="s">
+        <v>256</v>
+      </c>
+      <c r="E56" s="91" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="87" t="s">
+        <v>290</v>
+      </c>
+      <c r="B57" s="88" t="s">
+        <v>303</v>
+      </c>
+      <c r="C57" s="89" t="s">
         <v>292</v>
       </c>
-      <c r="D56" s="92" t="s">
+      <c r="D57" s="90" t="s">
+        <v>255</v>
+      </c>
+      <c r="E57" s="75"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="87" t="s">
+        <v>290</v>
+      </c>
+      <c r="B58" s="88" t="s">
+        <v>294</v>
+      </c>
+      <c r="C58" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="D58" s="90" t="s">
+        <v>298</v>
+      </c>
+      <c r="E58" s="75"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="87" t="s">
+        <v>290</v>
+      </c>
+      <c r="B59" s="88" t="s">
+        <v>295</v>
+      </c>
+      <c r="C59" s="89" t="s">
+        <v>297</v>
+      </c>
+      <c r="D59" s="90" t="s">
+        <v>298</v>
+      </c>
+      <c r="E59" s="75"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="87" t="s">
+        <v>290</v>
+      </c>
+      <c r="B60" s="88" t="s">
+        <v>299</v>
+      </c>
+      <c r="C60" s="89" t="s">
+        <v>300</v>
+      </c>
+      <c r="D60" s="90" t="s">
+        <v>298</v>
+      </c>
+      <c r="E60" s="75"/>
+    </row>
+    <row r="61" spans="1:5" ht="38.25">
+      <c r="A61" s="87" t="s">
+        <v>290</v>
+      </c>
+      <c r="B61" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="89" t="s">
+        <v>306</v>
+      </c>
+      <c r="D61" s="90" t="s">
         <v>256</v>
       </c>
-      <c r="E56" s="93" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="89" t="s">
-        <v>291</v>
-      </c>
-      <c r="B57" s="90" t="s">
-        <v>304</v>
-      </c>
-      <c r="C57" s="91" t="s">
+      <c r="E61" s="75"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="93" t="s">
+        <v>289</v>
+      </c>
+      <c r="B62" s="94" t="s">
+        <v>277</v>
+      </c>
+      <c r="C62" s="95" t="s">
+        <v>338</v>
+      </c>
+      <c r="D62" s="96" t="s">
+        <v>256</v>
+      </c>
+      <c r="E62" s="97"/>
+    </row>
+    <row r="63" spans="1:5" ht="38.25">
+      <c r="A63" s="93" t="s">
+        <v>289</v>
+      </c>
+      <c r="B63" s="94" t="s">
         <v>293</v>
       </c>
-      <c r="D57" s="92" t="s">
-        <v>255</v>
-      </c>
-      <c r="E57" s="75"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="89" t="s">
-        <v>291</v>
-      </c>
-      <c r="B58" s="90" t="s">
-        <v>295</v>
-      </c>
-      <c r="C58" s="91" t="s">
-        <v>297</v>
-      </c>
-      <c r="D58" s="92" t="s">
-        <v>299</v>
-      </c>
-      <c r="E58" s="75"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="89" t="s">
-        <v>291</v>
-      </c>
-      <c r="B59" s="90" t="s">
-        <v>296</v>
-      </c>
-      <c r="C59" s="91" t="s">
+      <c r="C63" s="95" t="s">
+        <v>336</v>
+      </c>
+      <c r="D63" s="96" t="s">
+        <v>256</v>
+      </c>
+      <c r="E63" s="97"/>
+    </row>
+    <row r="64" spans="1:5" ht="38.25">
+      <c r="A64" s="93" t="s">
+        <v>289</v>
+      </c>
+      <c r="B64" s="94" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="95" t="s">
+        <v>337</v>
+      </c>
+      <c r="D64" s="96" t="s">
+        <v>256</v>
+      </c>
+      <c r="E64" s="97"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="93" t="s">
+        <v>289</v>
+      </c>
+      <c r="B65" s="94" t="s">
+        <v>301</v>
+      </c>
+      <c r="C65" s="98" t="s">
+        <v>302</v>
+      </c>
+      <c r="D65" s="96" t="s">
         <v>298</v>
       </c>
-      <c r="D59" s="92" t="s">
-        <v>299</v>
-      </c>
-      <c r="E59" s="75"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="89" t="s">
-        <v>291</v>
-      </c>
-      <c r="B60" s="90" t="s">
-        <v>300</v>
-      </c>
-      <c r="C60" s="91" t="s">
-        <v>301</v>
-      </c>
-      <c r="D60" s="92" t="s">
-        <v>299</v>
-      </c>
-      <c r="E60" s="75"/>
-    </row>
-    <row r="61" spans="1:5" ht="38.25">
-      <c r="A61" s="89" t="s">
-        <v>291</v>
-      </c>
-      <c r="B61" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="91" t="s">
-        <v>307</v>
-      </c>
-      <c r="D61" s="92" t="s">
+      <c r="E65" s="97"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="93" t="s">
+        <v>289</v>
+      </c>
+      <c r="B66" s="94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="98" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="96" t="s">
         <v>256</v>
       </c>
-      <c r="E61" s="75"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="95" t="s">
-        <v>290</v>
-      </c>
-      <c r="B62" s="96" t="s">
-        <v>278</v>
-      </c>
-      <c r="C62" s="97" t="s">
-        <v>339</v>
-      </c>
-      <c r="D62" s="98" t="s">
+      <c r="E66" s="97"/>
+    </row>
+    <row r="67" spans="1:5" ht="61.5" customHeight="1">
+      <c r="A67" s="93" t="s">
+        <v>289</v>
+      </c>
+      <c r="B67" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" s="96" t="s">
         <v>256</v>
       </c>
-      <c r="E62" s="99"/>
-    </row>
-    <row r="63" spans="1:5" ht="38.25">
-      <c r="A63" s="95" t="s">
-        <v>290</v>
-      </c>
-      <c r="B63" s="96" t="s">
-        <v>294</v>
-      </c>
-      <c r="C63" s="97" t="s">
-        <v>337</v>
-      </c>
-      <c r="D63" s="98" t="s">
-        <v>256</v>
-      </c>
-      <c r="E63" s="99"/>
-    </row>
-    <row r="64" spans="1:5" ht="38.25">
-      <c r="A64" s="95" t="s">
-        <v>290</v>
-      </c>
-      <c r="B64" s="96" t="s">
-        <v>13</v>
-      </c>
-      <c r="C64" s="97" t="s">
-        <v>338</v>
-      </c>
-      <c r="D64" s="98" t="s">
-        <v>256</v>
-      </c>
-      <c r="E64" s="99"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="95" t="s">
-        <v>290</v>
-      </c>
-      <c r="B65" s="96" t="s">
-        <v>302</v>
-      </c>
-      <c r="C65" s="100" t="s">
-        <v>303</v>
-      </c>
-      <c r="D65" s="98" t="s">
-        <v>299</v>
-      </c>
-      <c r="E65" s="99"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="95" t="s">
-        <v>290</v>
-      </c>
-      <c r="B66" s="96" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" s="100" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66" s="98" t="s">
-        <v>256</v>
-      </c>
-      <c r="E66" s="99"/>
-    </row>
-    <row r="67" spans="1:5" ht="61.5" customHeight="1">
-      <c r="A67" s="95" t="s">
-        <v>290</v>
-      </c>
-      <c r="B67" s="96" t="s">
-        <v>42</v>
-      </c>
-      <c r="C67" s="100" t="s">
-        <v>67</v>
-      </c>
-      <c r="D67" s="98" t="s">
-        <v>256</v>
-      </c>
-      <c r="E67" s="101" t="s">
-        <v>346</v>
+      <c r="E67" s="99" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E55"/>
+  <autoFilter ref="A1:E55" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
@@ -4670,7 +4680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4758,7 +4768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4831,31 +4841,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C2">
         <v>123</v>
       </c>
       <c r="D2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="G2" t="s">
         <v>314</v>
       </c>
-      <c r="E2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F2" s="34" t="s">
+      <c r="H2" t="s">
         <v>318</v>
       </c>
-      <c r="G2" t="s">
-        <v>315</v>
-      </c>
-      <c r="H2" t="s">
-        <v>319</v>
-      </c>
       <c r="I2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -4875,31 +4885,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C3">
         <v>123</v>
       </c>
       <c r="D3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="G3" t="s">
         <v>314</v>
       </c>
-      <c r="E3" t="s">
-        <v>317</v>
-      </c>
-      <c r="F3" s="34" t="s">
+      <c r="H3" t="s">
         <v>318</v>
       </c>
-      <c r="G3" t="s">
-        <v>315</v>
-      </c>
-      <c r="H3" t="s">
-        <v>319</v>
-      </c>
       <c r="I3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K3">
         <v>99</v>
@@ -4919,31 +4929,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C4">
         <v>123</v>
       </c>
       <c r="D4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="G4" t="s">
         <v>314</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
+        <v>318</v>
+      </c>
+      <c r="I4" t="s">
         <v>324</v>
       </c>
-      <c r="F4" s="34" t="s">
-        <v>318</v>
-      </c>
-      <c r="G4" t="s">
-        <v>315</v>
-      </c>
-      <c r="H4" t="s">
-        <v>319</v>
-      </c>
-      <c r="I4" t="s">
-        <v>325</v>
-      </c>
       <c r="J4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -4959,11 +4969,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1"/>
+  <autoFilter ref="A1:N1" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
   <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -4976,10 +4986,10 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -5003,7 +5013,7 @@
         <v>53</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>5</v>
@@ -5014,10 +5024,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4">
@@ -5029,10 +5039,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -5046,10 +5056,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4">
@@ -5061,10 +5071,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4">
@@ -5076,10 +5086,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4">
@@ -5091,10 +5101,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4">
@@ -5106,10 +5116,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4">
@@ -5121,10 +5131,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4">
@@ -5143,7 +5153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5166,7 +5176,7 @@
         <v>23</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D1" s="33" t="s">
         <v>5</v>
@@ -5177,7 +5187,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4">
@@ -5215,7 +5225,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4">
@@ -5227,7 +5237,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4">
@@ -5239,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4">
@@ -5264,7 +5274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5286,16 +5296,16 @@
         <v>6</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C1" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>296</v>
-      </c>
       <c r="E1" s="32" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>5</v>
@@ -5306,7 +5316,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5326,7 +5336,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5346,7 +5356,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5366,7 +5376,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5386,7 +5396,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -5413,7 +5423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -5433,46 +5443,46 @@
       <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="101" t="s">
         <v>236</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="101" t="s">
         <v>267</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="I1" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="J1" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="103" t="s">
-        <v>279</v>
-      </c>
-      <c r="L1" s="103" t="s">
+      <c r="K1" s="101" t="s">
+        <v>278</v>
+      </c>
+      <c r="L1" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="103" t="s">
+      <c r="M1" s="101" t="s">
         <v>245</v>
       </c>
-      <c r="N1" s="103" t="s">
-        <v>305</v>
-      </c>
-      <c r="O1" s="105" t="s">
+      <c r="N1" s="101" t="s">
+        <v>304</v>
+      </c>
+      <c r="O1" s="103" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5481,10 +5491,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" t="s">
         <v>326</v>
-      </c>
-      <c r="C2" t="s">
-        <v>327</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -5496,7 +5506,7 @@
         <v>1590045283916</v>
       </c>
       <c r="H2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -5516,10 +5526,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" t="s">
         <v>328</v>
-      </c>
-      <c r="C3" t="s">
-        <v>329</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -5531,7 +5541,7 @@
         <v>1590045323073</v>
       </c>
       <c r="H3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -5551,10 +5561,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -5566,7 +5576,7 @@
         <v>1590045603862</v>
       </c>
       <c r="H4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -5586,10 +5596,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C5" t="s">
         <v>330</v>
-      </c>
-      <c r="C5" t="s">
-        <v>331</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -5601,7 +5611,7 @@
         <v>1590045634319</v>
       </c>
       <c r="H5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -5621,10 +5631,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C6" t="s">
         <v>333</v>
-      </c>
-      <c r="C6" t="s">
-        <v>334</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -5636,7 +5646,7 @@
         <v>1590047016939</v>
       </c>
       <c r="H6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -5656,10 +5666,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C7" t="s">
         <v>335</v>
-      </c>
-      <c r="C7" t="s">
-        <v>336</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -5671,7 +5681,7 @@
         <v>1590047072983</v>
       </c>
       <c r="H7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -5693,7 +5703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5765,7 +5775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5838,7 +5848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6783,7 +6793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6839,7 +6849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6899,7 +6909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7024,7 +7034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/db/excel/sqlite-inovation-manager-v1.xlsx
+++ b/db/excel/sqlite-inovation-manager-v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DINHNV\MyData\LAPTRINH\NODE4\node4-inovation\db\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6CCD4F-891E-4578-9BBE-512F9454BDC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C82E25-FC38-4E79-A4CF-2B0F6ADF4B43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
@@ -1787,7 +1787,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1852,7 +1852,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2598,21 +2597,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMI67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.25"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.7109375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.7109375" style="27" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="1023" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1023" s="27" customFormat="1">
+    <row r="1" spans="1:1023" s="26" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2628,2042 +2627,2042 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="29"/>
-      <c r="AQ1" s="29"/>
-      <c r="AR1" s="29"/>
-      <c r="AS1" s="29"/>
-      <c r="AT1" s="29"/>
-      <c r="AU1" s="29"/>
-      <c r="AV1" s="29"/>
-      <c r="AW1" s="29"/>
-      <c r="AX1" s="29"/>
-      <c r="AY1" s="29"/>
-      <c r="AZ1" s="29"/>
-      <c r="BA1" s="29"/>
-      <c r="BB1" s="29"/>
-      <c r="BC1" s="29"/>
-      <c r="BD1" s="29"/>
-      <c r="BE1" s="29"/>
-      <c r="BF1" s="29"/>
-      <c r="BG1" s="29"/>
-      <c r="BH1" s="29"/>
-      <c r="BI1" s="29"/>
-      <c r="BJ1" s="29"/>
-      <c r="BK1" s="29"/>
-      <c r="BL1" s="29"/>
-      <c r="BM1" s="29"/>
-      <c r="BN1" s="29"/>
-      <c r="BO1" s="29"/>
-      <c r="BP1" s="29"/>
-      <c r="BQ1" s="29"/>
-      <c r="BR1" s="29"/>
-      <c r="BS1" s="29"/>
-      <c r="BT1" s="29"/>
-      <c r="BU1" s="29"/>
-      <c r="BV1" s="29"/>
-      <c r="BW1" s="29"/>
-      <c r="BX1" s="29"/>
-      <c r="BY1" s="29"/>
-      <c r="BZ1" s="29"/>
-      <c r="CA1" s="29"/>
-      <c r="CB1" s="29"/>
-      <c r="CC1" s="29"/>
-      <c r="CD1" s="29"/>
-      <c r="CE1" s="29"/>
-      <c r="CF1" s="29"/>
-      <c r="CG1" s="29"/>
-      <c r="CH1" s="29"/>
-      <c r="CI1" s="29"/>
-      <c r="CJ1" s="29"/>
-      <c r="CK1" s="29"/>
-      <c r="CL1" s="29"/>
-      <c r="CM1" s="29"/>
-      <c r="CN1" s="29"/>
-      <c r="CO1" s="29"/>
-      <c r="CP1" s="29"/>
-      <c r="CQ1" s="29"/>
-      <c r="CR1" s="29"/>
-      <c r="CS1" s="29"/>
-      <c r="CT1" s="29"/>
-      <c r="CU1" s="29"/>
-      <c r="CV1" s="29"/>
-      <c r="CW1" s="29"/>
-      <c r="CX1" s="29"/>
-      <c r="CY1" s="29"/>
-      <c r="CZ1" s="29"/>
-      <c r="DA1" s="29"/>
-      <c r="DB1" s="29"/>
-      <c r="DC1" s="29"/>
-      <c r="DD1" s="29"/>
-      <c r="DE1" s="29"/>
-      <c r="DF1" s="29"/>
-      <c r="DG1" s="29"/>
-      <c r="DH1" s="29"/>
-      <c r="DI1" s="29"/>
-      <c r="DJ1" s="29"/>
-      <c r="DK1" s="29"/>
-      <c r="DL1" s="29"/>
-      <c r="DM1" s="29"/>
-      <c r="DN1" s="29"/>
-      <c r="DO1" s="29"/>
-      <c r="DP1" s="29"/>
-      <c r="DQ1" s="29"/>
-      <c r="DR1" s="29"/>
-      <c r="DS1" s="29"/>
-      <c r="DT1" s="29"/>
-      <c r="DU1" s="29"/>
-      <c r="DV1" s="29"/>
-      <c r="DW1" s="29"/>
-      <c r="DX1" s="29"/>
-      <c r="DY1" s="29"/>
-      <c r="DZ1" s="29"/>
-      <c r="EA1" s="29"/>
-      <c r="EB1" s="29"/>
-      <c r="EC1" s="29"/>
-      <c r="ED1" s="29"/>
-      <c r="EE1" s="29"/>
-      <c r="EF1" s="29"/>
-      <c r="EG1" s="29"/>
-      <c r="EH1" s="29"/>
-      <c r="EI1" s="29"/>
-      <c r="EJ1" s="29"/>
-      <c r="EK1" s="29"/>
-      <c r="EL1" s="29"/>
-      <c r="EM1" s="29"/>
-      <c r="EN1" s="29"/>
-      <c r="EO1" s="29"/>
-      <c r="EP1" s="29"/>
-      <c r="EQ1" s="29"/>
-      <c r="ER1" s="29"/>
-      <c r="ES1" s="29"/>
-      <c r="ET1" s="29"/>
-      <c r="EU1" s="29"/>
-      <c r="EV1" s="29"/>
-      <c r="EW1" s="29"/>
-      <c r="EX1" s="29"/>
-      <c r="EY1" s="29"/>
-      <c r="EZ1" s="29"/>
-      <c r="FA1" s="29"/>
-      <c r="FB1" s="29"/>
-      <c r="FC1" s="29"/>
-      <c r="FD1" s="29"/>
-      <c r="FE1" s="29"/>
-      <c r="FF1" s="29"/>
-      <c r="FG1" s="29"/>
-      <c r="FH1" s="29"/>
-      <c r="FI1" s="29"/>
-      <c r="FJ1" s="29"/>
-      <c r="FK1" s="29"/>
-      <c r="FL1" s="29"/>
-      <c r="FM1" s="29"/>
-      <c r="FN1" s="29"/>
-      <c r="FO1" s="29"/>
-      <c r="FP1" s="29"/>
-      <c r="FQ1" s="29"/>
-      <c r="FR1" s="29"/>
-      <c r="FS1" s="29"/>
-      <c r="FT1" s="29"/>
-      <c r="FU1" s="29"/>
-      <c r="FV1" s="29"/>
-      <c r="FW1" s="29"/>
-      <c r="FX1" s="29"/>
-      <c r="FY1" s="29"/>
-      <c r="FZ1" s="29"/>
-      <c r="GA1" s="29"/>
-      <c r="GB1" s="29"/>
-      <c r="GC1" s="29"/>
-      <c r="GD1" s="29"/>
-      <c r="GE1" s="29"/>
-      <c r="GF1" s="29"/>
-      <c r="GG1" s="29"/>
-      <c r="GH1" s="29"/>
-      <c r="GI1" s="29"/>
-      <c r="GJ1" s="29"/>
-      <c r="GK1" s="29"/>
-      <c r="GL1" s="29"/>
-      <c r="GM1" s="29"/>
-      <c r="GN1" s="29"/>
-      <c r="GO1" s="29"/>
-      <c r="GP1" s="29"/>
-      <c r="GQ1" s="29"/>
-      <c r="GR1" s="29"/>
-      <c r="GS1" s="29"/>
-      <c r="GT1" s="29"/>
-      <c r="GU1" s="29"/>
-      <c r="GV1" s="29"/>
-      <c r="GW1" s="29"/>
-      <c r="GX1" s="29"/>
-      <c r="GY1" s="29"/>
-      <c r="GZ1" s="29"/>
-      <c r="HA1" s="29"/>
-      <c r="HB1" s="29"/>
-      <c r="HC1" s="29"/>
-      <c r="HD1" s="29"/>
-      <c r="HE1" s="29"/>
-      <c r="HF1" s="29"/>
-      <c r="HG1" s="29"/>
-      <c r="HH1" s="29"/>
-      <c r="HI1" s="29"/>
-      <c r="HJ1" s="29"/>
-      <c r="HK1" s="29"/>
-      <c r="HL1" s="29"/>
-      <c r="HM1" s="29"/>
-      <c r="HN1" s="29"/>
-      <c r="HO1" s="29"/>
-      <c r="HP1" s="29"/>
-      <c r="HQ1" s="29"/>
-      <c r="HR1" s="29"/>
-      <c r="HS1" s="29"/>
-      <c r="HT1" s="29"/>
-      <c r="HU1" s="29"/>
-      <c r="HV1" s="29"/>
-      <c r="HW1" s="29"/>
-      <c r="HX1" s="29"/>
-      <c r="HY1" s="29"/>
-      <c r="HZ1" s="29"/>
-      <c r="IA1" s="29"/>
-      <c r="IB1" s="29"/>
-      <c r="IC1" s="29"/>
-      <c r="ID1" s="29"/>
-      <c r="IE1" s="29"/>
-      <c r="IF1" s="29"/>
-      <c r="IG1" s="29"/>
-      <c r="IH1" s="29"/>
-      <c r="II1" s="29"/>
-      <c r="IJ1" s="29"/>
-      <c r="IK1" s="29"/>
-      <c r="IL1" s="29"/>
-      <c r="IM1" s="29"/>
-      <c r="IN1" s="29"/>
-      <c r="IO1" s="29"/>
-      <c r="IP1" s="29"/>
-      <c r="IQ1" s="29"/>
-      <c r="IR1" s="29"/>
-      <c r="IS1" s="29"/>
-      <c r="IT1" s="29"/>
-      <c r="IU1" s="29"/>
-      <c r="IV1" s="29"/>
-      <c r="IW1" s="29"/>
-      <c r="IX1" s="29"/>
-      <c r="IY1" s="29"/>
-      <c r="IZ1" s="29"/>
-      <c r="JA1" s="29"/>
-      <c r="JB1" s="29"/>
-      <c r="JC1" s="29"/>
-      <c r="JD1" s="29"/>
-      <c r="JE1" s="29"/>
-      <c r="JF1" s="29"/>
-      <c r="JG1" s="29"/>
-      <c r="JH1" s="29"/>
-      <c r="JI1" s="29"/>
-      <c r="JJ1" s="29"/>
-      <c r="JK1" s="29"/>
-      <c r="JL1" s="29"/>
-      <c r="JM1" s="29"/>
-      <c r="JN1" s="29"/>
-      <c r="JO1" s="29"/>
-      <c r="JP1" s="29"/>
-      <c r="JQ1" s="29"/>
-      <c r="JR1" s="29"/>
-      <c r="JS1" s="29"/>
-      <c r="JT1" s="29"/>
-      <c r="JU1" s="29"/>
-      <c r="JV1" s="29"/>
-      <c r="JW1" s="29"/>
-      <c r="JX1" s="29"/>
-      <c r="JY1" s="29"/>
-      <c r="JZ1" s="29"/>
-      <c r="KA1" s="29"/>
-      <c r="KB1" s="29"/>
-      <c r="KC1" s="29"/>
-      <c r="KD1" s="29"/>
-      <c r="KE1" s="29"/>
-      <c r="KF1" s="29"/>
-      <c r="KG1" s="29"/>
-      <c r="KH1" s="29"/>
-      <c r="KI1" s="29"/>
-      <c r="KJ1" s="29"/>
-      <c r="KK1" s="29"/>
-      <c r="KL1" s="29"/>
-      <c r="KM1" s="29"/>
-      <c r="KN1" s="29"/>
-      <c r="KO1" s="29"/>
-      <c r="KP1" s="29"/>
-      <c r="KQ1" s="29"/>
-      <c r="KR1" s="29"/>
-      <c r="KS1" s="29"/>
-      <c r="KT1" s="29"/>
-      <c r="KU1" s="29"/>
-      <c r="KV1" s="29"/>
-      <c r="KW1" s="29"/>
-      <c r="KX1" s="29"/>
-      <c r="KY1" s="29"/>
-      <c r="KZ1" s="29"/>
-      <c r="LA1" s="29"/>
-      <c r="LB1" s="29"/>
-      <c r="LC1" s="29"/>
-      <c r="LD1" s="29"/>
-      <c r="LE1" s="29"/>
-      <c r="LF1" s="29"/>
-      <c r="LG1" s="29"/>
-      <c r="LH1" s="29"/>
-      <c r="LI1" s="29"/>
-      <c r="LJ1" s="29"/>
-      <c r="LK1" s="29"/>
-      <c r="LL1" s="29"/>
-      <c r="LM1" s="29"/>
-      <c r="LN1" s="29"/>
-      <c r="LO1" s="29"/>
-      <c r="LP1" s="29"/>
-      <c r="LQ1" s="29"/>
-      <c r="LR1" s="29"/>
-      <c r="LS1" s="29"/>
-      <c r="LT1" s="29"/>
-      <c r="LU1" s="29"/>
-      <c r="LV1" s="29"/>
-      <c r="LW1" s="29"/>
-      <c r="LX1" s="29"/>
-      <c r="LY1" s="29"/>
-      <c r="LZ1" s="29"/>
-      <c r="MA1" s="29"/>
-      <c r="MB1" s="29"/>
-      <c r="MC1" s="29"/>
-      <c r="MD1" s="29"/>
-      <c r="ME1" s="29"/>
-      <c r="MF1" s="29"/>
-      <c r="MG1" s="29"/>
-      <c r="MH1" s="29"/>
-      <c r="MI1" s="29"/>
-      <c r="MJ1" s="29"/>
-      <c r="MK1" s="29"/>
-      <c r="ML1" s="29"/>
-      <c r="MM1" s="29"/>
-      <c r="MN1" s="29"/>
-      <c r="MO1" s="29"/>
-      <c r="MP1" s="29"/>
-      <c r="MQ1" s="29"/>
-      <c r="MR1" s="29"/>
-      <c r="MS1" s="29"/>
-      <c r="MT1" s="29"/>
-      <c r="MU1" s="29"/>
-      <c r="MV1" s="29"/>
-      <c r="MW1" s="29"/>
-      <c r="MX1" s="29"/>
-      <c r="MY1" s="29"/>
-      <c r="MZ1" s="29"/>
-      <c r="NA1" s="29"/>
-      <c r="NB1" s="29"/>
-      <c r="NC1" s="29"/>
-      <c r="ND1" s="29"/>
-      <c r="NE1" s="29"/>
-      <c r="NF1" s="29"/>
-      <c r="NG1" s="29"/>
-      <c r="NH1" s="29"/>
-      <c r="NI1" s="29"/>
-      <c r="NJ1" s="29"/>
-      <c r="NK1" s="29"/>
-      <c r="NL1" s="29"/>
-      <c r="NM1" s="29"/>
-      <c r="NN1" s="29"/>
-      <c r="NO1" s="29"/>
-      <c r="NP1" s="29"/>
-      <c r="NQ1" s="29"/>
-      <c r="NR1" s="29"/>
-      <c r="NS1" s="29"/>
-      <c r="NT1" s="29"/>
-      <c r="NU1" s="29"/>
-      <c r="NV1" s="29"/>
-      <c r="NW1" s="29"/>
-      <c r="NX1" s="29"/>
-      <c r="NY1" s="29"/>
-      <c r="NZ1" s="29"/>
-      <c r="OA1" s="29"/>
-      <c r="OB1" s="29"/>
-      <c r="OC1" s="29"/>
-      <c r="OD1" s="29"/>
-      <c r="OE1" s="29"/>
-      <c r="OF1" s="29"/>
-      <c r="OG1" s="29"/>
-      <c r="OH1" s="29"/>
-      <c r="OI1" s="29"/>
-      <c r="OJ1" s="29"/>
-      <c r="OK1" s="29"/>
-      <c r="OL1" s="29"/>
-      <c r="OM1" s="29"/>
-      <c r="ON1" s="29"/>
-      <c r="OO1" s="29"/>
-      <c r="OP1" s="29"/>
-      <c r="OQ1" s="29"/>
-      <c r="OR1" s="29"/>
-      <c r="OS1" s="29"/>
-      <c r="OT1" s="29"/>
-      <c r="OU1" s="29"/>
-      <c r="OV1" s="29"/>
-      <c r="OW1" s="29"/>
-      <c r="OX1" s="29"/>
-      <c r="OY1" s="29"/>
-      <c r="OZ1" s="29"/>
-      <c r="PA1" s="29"/>
-      <c r="PB1" s="29"/>
-      <c r="PC1" s="29"/>
-      <c r="PD1" s="29"/>
-      <c r="PE1" s="29"/>
-      <c r="PF1" s="29"/>
-      <c r="PG1" s="29"/>
-      <c r="PH1" s="29"/>
-      <c r="PI1" s="29"/>
-      <c r="PJ1" s="29"/>
-      <c r="PK1" s="29"/>
-      <c r="PL1" s="29"/>
-      <c r="PM1" s="29"/>
-      <c r="PN1" s="29"/>
-      <c r="PO1" s="29"/>
-      <c r="PP1" s="29"/>
-      <c r="PQ1" s="29"/>
-      <c r="PR1" s="29"/>
-      <c r="PS1" s="29"/>
-      <c r="PT1" s="29"/>
-      <c r="PU1" s="29"/>
-      <c r="PV1" s="29"/>
-      <c r="PW1" s="29"/>
-      <c r="PX1" s="29"/>
-      <c r="PY1" s="29"/>
-      <c r="PZ1" s="29"/>
-      <c r="QA1" s="29"/>
-      <c r="QB1" s="29"/>
-      <c r="QC1" s="29"/>
-      <c r="QD1" s="29"/>
-      <c r="QE1" s="29"/>
-      <c r="QF1" s="29"/>
-      <c r="QG1" s="29"/>
-      <c r="QH1" s="29"/>
-      <c r="QI1" s="29"/>
-      <c r="QJ1" s="29"/>
-      <c r="QK1" s="29"/>
-      <c r="QL1" s="29"/>
-      <c r="QM1" s="29"/>
-      <c r="QN1" s="29"/>
-      <c r="QO1" s="29"/>
-      <c r="QP1" s="29"/>
-      <c r="QQ1" s="29"/>
-      <c r="QR1" s="29"/>
-      <c r="QS1" s="29"/>
-      <c r="QT1" s="29"/>
-      <c r="QU1" s="29"/>
-      <c r="QV1" s="29"/>
-      <c r="QW1" s="29"/>
-      <c r="QX1" s="29"/>
-      <c r="QY1" s="29"/>
-      <c r="QZ1" s="29"/>
-      <c r="RA1" s="29"/>
-      <c r="RB1" s="29"/>
-      <c r="RC1" s="29"/>
-      <c r="RD1" s="29"/>
-      <c r="RE1" s="29"/>
-      <c r="RF1" s="29"/>
-      <c r="RG1" s="29"/>
-      <c r="RH1" s="29"/>
-      <c r="RI1" s="29"/>
-      <c r="RJ1" s="29"/>
-      <c r="RK1" s="29"/>
-      <c r="RL1" s="29"/>
-      <c r="RM1" s="29"/>
-      <c r="RN1" s="29"/>
-      <c r="RO1" s="29"/>
-      <c r="RP1" s="29"/>
-      <c r="RQ1" s="29"/>
-      <c r="RR1" s="29"/>
-      <c r="RS1" s="29"/>
-      <c r="RT1" s="29"/>
-      <c r="RU1" s="29"/>
-      <c r="RV1" s="29"/>
-      <c r="RW1" s="29"/>
-      <c r="RX1" s="29"/>
-      <c r="RY1" s="29"/>
-      <c r="RZ1" s="29"/>
-      <c r="SA1" s="29"/>
-      <c r="SB1" s="29"/>
-      <c r="SC1" s="29"/>
-      <c r="SD1" s="29"/>
-      <c r="SE1" s="29"/>
-      <c r="SF1" s="29"/>
-      <c r="SG1" s="29"/>
-      <c r="SH1" s="29"/>
-      <c r="SI1" s="29"/>
-      <c r="SJ1" s="29"/>
-      <c r="SK1" s="29"/>
-      <c r="SL1" s="29"/>
-      <c r="SM1" s="29"/>
-      <c r="SN1" s="29"/>
-      <c r="SO1" s="29"/>
-      <c r="SP1" s="29"/>
-      <c r="SQ1" s="29"/>
-      <c r="SR1" s="29"/>
-      <c r="SS1" s="29"/>
-      <c r="ST1" s="29"/>
-      <c r="SU1" s="29"/>
-      <c r="SV1" s="29"/>
-      <c r="SW1" s="29"/>
-      <c r="SX1" s="29"/>
-      <c r="SY1" s="29"/>
-      <c r="SZ1" s="29"/>
-      <c r="TA1" s="29"/>
-      <c r="TB1" s="29"/>
-      <c r="TC1" s="29"/>
-      <c r="TD1" s="29"/>
-      <c r="TE1" s="29"/>
-      <c r="TF1" s="29"/>
-      <c r="TG1" s="29"/>
-      <c r="TH1" s="29"/>
-      <c r="TI1" s="29"/>
-      <c r="TJ1" s="29"/>
-      <c r="TK1" s="29"/>
-      <c r="TL1" s="29"/>
-      <c r="TM1" s="29"/>
-      <c r="TN1" s="29"/>
-      <c r="TO1" s="29"/>
-      <c r="TP1" s="29"/>
-      <c r="TQ1" s="29"/>
-      <c r="TR1" s="29"/>
-      <c r="TS1" s="29"/>
-      <c r="TT1" s="29"/>
-      <c r="TU1" s="29"/>
-      <c r="TV1" s="29"/>
-      <c r="TW1" s="29"/>
-      <c r="TX1" s="29"/>
-      <c r="TY1" s="29"/>
-      <c r="TZ1" s="29"/>
-      <c r="UA1" s="29"/>
-      <c r="UB1" s="29"/>
-      <c r="UC1" s="29"/>
-      <c r="UD1" s="29"/>
-      <c r="UE1" s="29"/>
-      <c r="UF1" s="29"/>
-      <c r="UG1" s="29"/>
-      <c r="UH1" s="29"/>
-      <c r="UI1" s="29"/>
-      <c r="UJ1" s="29"/>
-      <c r="UK1" s="29"/>
-      <c r="UL1" s="29"/>
-      <c r="UM1" s="29"/>
-      <c r="UN1" s="29"/>
-      <c r="UO1" s="29"/>
-      <c r="UP1" s="29"/>
-      <c r="UQ1" s="29"/>
-      <c r="UR1" s="29"/>
-      <c r="US1" s="29"/>
-      <c r="UT1" s="29"/>
-      <c r="UU1" s="29"/>
-      <c r="UV1" s="29"/>
-      <c r="UW1" s="29"/>
-      <c r="UX1" s="29"/>
-      <c r="UY1" s="29"/>
-      <c r="UZ1" s="29"/>
-      <c r="VA1" s="29"/>
-      <c r="VB1" s="29"/>
-      <c r="VC1" s="29"/>
-      <c r="VD1" s="29"/>
-      <c r="VE1" s="29"/>
-      <c r="VF1" s="29"/>
-      <c r="VG1" s="29"/>
-      <c r="VH1" s="29"/>
-      <c r="VI1" s="29"/>
-      <c r="VJ1" s="29"/>
-      <c r="VK1" s="29"/>
-      <c r="VL1" s="29"/>
-      <c r="VM1" s="29"/>
-      <c r="VN1" s="29"/>
-      <c r="VO1" s="29"/>
-      <c r="VP1" s="29"/>
-      <c r="VQ1" s="29"/>
-      <c r="VR1" s="29"/>
-      <c r="VS1" s="29"/>
-      <c r="VT1" s="29"/>
-      <c r="VU1" s="29"/>
-      <c r="VV1" s="29"/>
-      <c r="VW1" s="29"/>
-      <c r="VX1" s="29"/>
-      <c r="VY1" s="29"/>
-      <c r="VZ1" s="29"/>
-      <c r="WA1" s="29"/>
-      <c r="WB1" s="29"/>
-      <c r="WC1" s="29"/>
-      <c r="WD1" s="29"/>
-      <c r="WE1" s="29"/>
-      <c r="WF1" s="29"/>
-      <c r="WG1" s="29"/>
-      <c r="WH1" s="29"/>
-      <c r="WI1" s="29"/>
-      <c r="WJ1" s="29"/>
-      <c r="WK1" s="29"/>
-      <c r="WL1" s="29"/>
-      <c r="WM1" s="29"/>
-      <c r="WN1" s="29"/>
-      <c r="WO1" s="29"/>
-      <c r="WP1" s="29"/>
-      <c r="WQ1" s="29"/>
-      <c r="WR1" s="29"/>
-      <c r="WS1" s="29"/>
-      <c r="WT1" s="29"/>
-      <c r="WU1" s="29"/>
-      <c r="WV1" s="29"/>
-      <c r="WW1" s="29"/>
-      <c r="WX1" s="29"/>
-      <c r="WY1" s="29"/>
-      <c r="WZ1" s="29"/>
-      <c r="XA1" s="29"/>
-      <c r="XB1" s="29"/>
-      <c r="XC1" s="29"/>
-      <c r="XD1" s="29"/>
-      <c r="XE1" s="29"/>
-      <c r="XF1" s="29"/>
-      <c r="XG1" s="29"/>
-      <c r="XH1" s="29"/>
-      <c r="XI1" s="29"/>
-      <c r="XJ1" s="29"/>
-      <c r="XK1" s="29"/>
-      <c r="XL1" s="29"/>
-      <c r="XM1" s="29"/>
-      <c r="XN1" s="29"/>
-      <c r="XO1" s="29"/>
-      <c r="XP1" s="29"/>
-      <c r="XQ1" s="29"/>
-      <c r="XR1" s="29"/>
-      <c r="XS1" s="29"/>
-      <c r="XT1" s="29"/>
-      <c r="XU1" s="29"/>
-      <c r="XV1" s="29"/>
-      <c r="XW1" s="29"/>
-      <c r="XX1" s="29"/>
-      <c r="XY1" s="29"/>
-      <c r="XZ1" s="29"/>
-      <c r="YA1" s="29"/>
-      <c r="YB1" s="29"/>
-      <c r="YC1" s="29"/>
-      <c r="YD1" s="29"/>
-      <c r="YE1" s="29"/>
-      <c r="YF1" s="29"/>
-      <c r="YG1" s="29"/>
-      <c r="YH1" s="29"/>
-      <c r="YI1" s="29"/>
-      <c r="YJ1" s="29"/>
-      <c r="YK1" s="29"/>
-      <c r="YL1" s="29"/>
-      <c r="YM1" s="29"/>
-      <c r="YN1" s="29"/>
-      <c r="YO1" s="29"/>
-      <c r="YP1" s="29"/>
-      <c r="YQ1" s="29"/>
-      <c r="YR1" s="29"/>
-      <c r="YS1" s="29"/>
-      <c r="YT1" s="29"/>
-      <c r="YU1" s="29"/>
-      <c r="YV1" s="29"/>
-      <c r="YW1" s="29"/>
-      <c r="YX1" s="29"/>
-      <c r="YY1" s="29"/>
-      <c r="YZ1" s="29"/>
-      <c r="ZA1" s="29"/>
-      <c r="ZB1" s="29"/>
-      <c r="ZC1" s="29"/>
-      <c r="ZD1" s="29"/>
-      <c r="ZE1" s="29"/>
-      <c r="ZF1" s="29"/>
-      <c r="ZG1" s="29"/>
-      <c r="ZH1" s="29"/>
-      <c r="ZI1" s="29"/>
-      <c r="ZJ1" s="29"/>
-      <c r="ZK1" s="29"/>
-      <c r="ZL1" s="29"/>
-      <c r="ZM1" s="29"/>
-      <c r="ZN1" s="29"/>
-      <c r="ZO1" s="29"/>
-      <c r="ZP1" s="29"/>
-      <c r="ZQ1" s="29"/>
-      <c r="ZR1" s="29"/>
-      <c r="ZS1" s="29"/>
-      <c r="ZT1" s="29"/>
-      <c r="ZU1" s="29"/>
-      <c r="ZV1" s="29"/>
-      <c r="ZW1" s="29"/>
-      <c r="ZX1" s="29"/>
-      <c r="ZY1" s="29"/>
-      <c r="ZZ1" s="29"/>
-      <c r="AAA1" s="29"/>
-      <c r="AAB1" s="29"/>
-      <c r="AAC1" s="29"/>
-      <c r="AAD1" s="29"/>
-      <c r="AAE1" s="29"/>
-      <c r="AAF1" s="29"/>
-      <c r="AAG1" s="29"/>
-      <c r="AAH1" s="29"/>
-      <c r="AAI1" s="29"/>
-      <c r="AAJ1" s="29"/>
-      <c r="AAK1" s="29"/>
-      <c r="AAL1" s="29"/>
-      <c r="AAM1" s="29"/>
-      <c r="AAN1" s="29"/>
-      <c r="AAO1" s="29"/>
-      <c r="AAP1" s="29"/>
-      <c r="AAQ1" s="29"/>
-      <c r="AAR1" s="29"/>
-      <c r="AAS1" s="29"/>
-      <c r="AAT1" s="29"/>
-      <c r="AAU1" s="29"/>
-      <c r="AAV1" s="29"/>
-      <c r="AAW1" s="29"/>
-      <c r="AAX1" s="29"/>
-      <c r="AAY1" s="29"/>
-      <c r="AAZ1" s="29"/>
-      <c r="ABA1" s="29"/>
-      <c r="ABB1" s="29"/>
-      <c r="ABC1" s="29"/>
-      <c r="ABD1" s="29"/>
-      <c r="ABE1" s="29"/>
-      <c r="ABF1" s="29"/>
-      <c r="ABG1" s="29"/>
-      <c r="ABH1" s="29"/>
-      <c r="ABI1" s="29"/>
-      <c r="ABJ1" s="29"/>
-      <c r="ABK1" s="29"/>
-      <c r="ABL1" s="29"/>
-      <c r="ABM1" s="29"/>
-      <c r="ABN1" s="29"/>
-      <c r="ABO1" s="29"/>
-      <c r="ABP1" s="29"/>
-      <c r="ABQ1" s="29"/>
-      <c r="ABR1" s="29"/>
-      <c r="ABS1" s="29"/>
-      <c r="ABT1" s="29"/>
-      <c r="ABU1" s="29"/>
-      <c r="ABV1" s="29"/>
-      <c r="ABW1" s="29"/>
-      <c r="ABX1" s="29"/>
-      <c r="ABY1" s="29"/>
-      <c r="ABZ1" s="29"/>
-      <c r="ACA1" s="29"/>
-      <c r="ACB1" s="29"/>
-      <c r="ACC1" s="29"/>
-      <c r="ACD1" s="29"/>
-      <c r="ACE1" s="29"/>
-      <c r="ACF1" s="29"/>
-      <c r="ACG1" s="29"/>
-      <c r="ACH1" s="29"/>
-      <c r="ACI1" s="29"/>
-      <c r="ACJ1" s="29"/>
-      <c r="ACK1" s="29"/>
-      <c r="ACL1" s="29"/>
-      <c r="ACM1" s="29"/>
-      <c r="ACN1" s="29"/>
-      <c r="ACO1" s="29"/>
-      <c r="ACP1" s="29"/>
-      <c r="ACQ1" s="29"/>
-      <c r="ACR1" s="29"/>
-      <c r="ACS1" s="29"/>
-      <c r="ACT1" s="29"/>
-      <c r="ACU1" s="29"/>
-      <c r="ACV1" s="29"/>
-      <c r="ACW1" s="29"/>
-      <c r="ACX1" s="29"/>
-      <c r="ACY1" s="29"/>
-      <c r="ACZ1" s="29"/>
-      <c r="ADA1" s="29"/>
-      <c r="ADB1" s="29"/>
-      <c r="ADC1" s="29"/>
-      <c r="ADD1" s="29"/>
-      <c r="ADE1" s="29"/>
-      <c r="ADF1" s="29"/>
-      <c r="ADG1" s="29"/>
-      <c r="ADH1" s="29"/>
-      <c r="ADI1" s="29"/>
-      <c r="ADJ1" s="29"/>
-      <c r="ADK1" s="29"/>
-      <c r="ADL1" s="29"/>
-      <c r="ADM1" s="29"/>
-      <c r="ADN1" s="29"/>
-      <c r="ADO1" s="29"/>
-      <c r="ADP1" s="29"/>
-      <c r="ADQ1" s="29"/>
-      <c r="ADR1" s="29"/>
-      <c r="ADS1" s="29"/>
-      <c r="ADT1" s="29"/>
-      <c r="ADU1" s="29"/>
-      <c r="ADV1" s="29"/>
-      <c r="ADW1" s="29"/>
-      <c r="ADX1" s="29"/>
-      <c r="ADY1" s="29"/>
-      <c r="ADZ1" s="29"/>
-      <c r="AEA1" s="29"/>
-      <c r="AEB1" s="29"/>
-      <c r="AEC1" s="29"/>
-      <c r="AED1" s="29"/>
-      <c r="AEE1" s="29"/>
-      <c r="AEF1" s="29"/>
-      <c r="AEG1" s="29"/>
-      <c r="AEH1" s="29"/>
-      <c r="AEI1" s="29"/>
-      <c r="AEJ1" s="29"/>
-      <c r="AEK1" s="29"/>
-      <c r="AEL1" s="29"/>
-      <c r="AEM1" s="29"/>
-      <c r="AEN1" s="29"/>
-      <c r="AEO1" s="29"/>
-      <c r="AEP1" s="29"/>
-      <c r="AEQ1" s="29"/>
-      <c r="AER1" s="29"/>
-      <c r="AES1" s="29"/>
-      <c r="AET1" s="29"/>
-      <c r="AEU1" s="29"/>
-      <c r="AEV1" s="29"/>
-      <c r="AEW1" s="29"/>
-      <c r="AEX1" s="29"/>
-      <c r="AEY1" s="29"/>
-      <c r="AEZ1" s="29"/>
-      <c r="AFA1" s="29"/>
-      <c r="AFB1" s="29"/>
-      <c r="AFC1" s="29"/>
-      <c r="AFD1" s="29"/>
-      <c r="AFE1" s="29"/>
-      <c r="AFF1" s="29"/>
-      <c r="AFG1" s="29"/>
-      <c r="AFH1" s="29"/>
-      <c r="AFI1" s="29"/>
-      <c r="AFJ1" s="29"/>
-      <c r="AFK1" s="29"/>
-      <c r="AFL1" s="29"/>
-      <c r="AFM1" s="29"/>
-      <c r="AFN1" s="29"/>
-      <c r="AFO1" s="29"/>
-      <c r="AFP1" s="29"/>
-      <c r="AFQ1" s="29"/>
-      <c r="AFR1" s="29"/>
-      <c r="AFS1" s="29"/>
-      <c r="AFT1" s="29"/>
-      <c r="AFU1" s="29"/>
-      <c r="AFV1" s="29"/>
-      <c r="AFW1" s="29"/>
-      <c r="AFX1" s="29"/>
-      <c r="AFY1" s="29"/>
-      <c r="AFZ1" s="29"/>
-      <c r="AGA1" s="29"/>
-      <c r="AGB1" s="29"/>
-      <c r="AGC1" s="29"/>
-      <c r="AGD1" s="29"/>
-      <c r="AGE1" s="29"/>
-      <c r="AGF1" s="29"/>
-      <c r="AGG1" s="29"/>
-      <c r="AGH1" s="29"/>
-      <c r="AGI1" s="29"/>
-      <c r="AGJ1" s="29"/>
-      <c r="AGK1" s="29"/>
-      <c r="AGL1" s="29"/>
-      <c r="AGM1" s="29"/>
-      <c r="AGN1" s="29"/>
-      <c r="AGO1" s="29"/>
-      <c r="AGP1" s="29"/>
-      <c r="AGQ1" s="29"/>
-      <c r="AGR1" s="29"/>
-      <c r="AGS1" s="29"/>
-      <c r="AGT1" s="29"/>
-      <c r="AGU1" s="29"/>
-      <c r="AGV1" s="29"/>
-      <c r="AGW1" s="29"/>
-      <c r="AGX1" s="29"/>
-      <c r="AGY1" s="29"/>
-      <c r="AGZ1" s="29"/>
-      <c r="AHA1" s="29"/>
-      <c r="AHB1" s="29"/>
-      <c r="AHC1" s="29"/>
-      <c r="AHD1" s="29"/>
-      <c r="AHE1" s="29"/>
-      <c r="AHF1" s="29"/>
-      <c r="AHG1" s="29"/>
-      <c r="AHH1" s="29"/>
-      <c r="AHI1" s="29"/>
-      <c r="AHJ1" s="29"/>
-      <c r="AHK1" s="29"/>
-      <c r="AHL1" s="29"/>
-      <c r="AHM1" s="29"/>
-      <c r="AHN1" s="29"/>
-      <c r="AHO1" s="29"/>
-      <c r="AHP1" s="29"/>
-      <c r="AHQ1" s="29"/>
-      <c r="AHR1" s="29"/>
-      <c r="AHS1" s="29"/>
-      <c r="AHT1" s="29"/>
-      <c r="AHU1" s="29"/>
-      <c r="AHV1" s="29"/>
-      <c r="AHW1" s="29"/>
-      <c r="AHX1" s="29"/>
-      <c r="AHY1" s="29"/>
-      <c r="AHZ1" s="29"/>
-      <c r="AIA1" s="29"/>
-      <c r="AIB1" s="29"/>
-      <c r="AIC1" s="29"/>
-      <c r="AID1" s="29"/>
-      <c r="AIE1" s="29"/>
-      <c r="AIF1" s="29"/>
-      <c r="AIG1" s="29"/>
-      <c r="AIH1" s="29"/>
-      <c r="AII1" s="29"/>
-      <c r="AIJ1" s="29"/>
-      <c r="AIK1" s="29"/>
-      <c r="AIL1" s="29"/>
-      <c r="AIM1" s="29"/>
-      <c r="AIN1" s="29"/>
-      <c r="AIO1" s="29"/>
-      <c r="AIP1" s="29"/>
-      <c r="AIQ1" s="29"/>
-      <c r="AIR1" s="29"/>
-      <c r="AIS1" s="29"/>
-      <c r="AIT1" s="29"/>
-      <c r="AIU1" s="29"/>
-      <c r="AIV1" s="29"/>
-      <c r="AIW1" s="29"/>
-      <c r="AIX1" s="29"/>
-      <c r="AIY1" s="29"/>
-      <c r="AIZ1" s="29"/>
-      <c r="AJA1" s="29"/>
-      <c r="AJB1" s="29"/>
-      <c r="AJC1" s="29"/>
-      <c r="AJD1" s="29"/>
-      <c r="AJE1" s="29"/>
-      <c r="AJF1" s="29"/>
-      <c r="AJG1" s="29"/>
-      <c r="AJH1" s="29"/>
-      <c r="AJI1" s="29"/>
-      <c r="AJJ1" s="29"/>
-      <c r="AJK1" s="29"/>
-      <c r="AJL1" s="29"/>
-      <c r="AJM1" s="29"/>
-      <c r="AJN1" s="29"/>
-      <c r="AJO1" s="29"/>
-      <c r="AJP1" s="29"/>
-      <c r="AJQ1" s="29"/>
-      <c r="AJR1" s="29"/>
-      <c r="AJS1" s="29"/>
-      <c r="AJT1" s="29"/>
-      <c r="AJU1" s="29"/>
-      <c r="AJV1" s="29"/>
-      <c r="AJW1" s="29"/>
-      <c r="AJX1" s="29"/>
-      <c r="AJY1" s="29"/>
-      <c r="AJZ1" s="29"/>
-      <c r="AKA1" s="29"/>
-      <c r="AKB1" s="29"/>
-      <c r="AKC1" s="29"/>
-      <c r="AKD1" s="29"/>
-      <c r="AKE1" s="29"/>
-      <c r="AKF1" s="29"/>
-      <c r="AKG1" s="29"/>
-      <c r="AKH1" s="29"/>
-      <c r="AKI1" s="29"/>
-      <c r="AKJ1" s="29"/>
-      <c r="AKK1" s="29"/>
-      <c r="AKL1" s="29"/>
-      <c r="AKM1" s="29"/>
-      <c r="AKN1" s="29"/>
-      <c r="AKO1" s="29"/>
-      <c r="AKP1" s="29"/>
-      <c r="AKQ1" s="29"/>
-      <c r="AKR1" s="29"/>
-      <c r="AKS1" s="29"/>
-      <c r="AKT1" s="29"/>
-      <c r="AKU1" s="29"/>
-      <c r="AKV1" s="29"/>
-      <c r="AKW1" s="29"/>
-      <c r="AKX1" s="29"/>
-      <c r="AKY1" s="29"/>
-      <c r="AKZ1" s="29"/>
-      <c r="ALA1" s="29"/>
-      <c r="ALB1" s="29"/>
-      <c r="ALC1" s="29"/>
-      <c r="ALD1" s="29"/>
-      <c r="ALE1" s="29"/>
-      <c r="ALF1" s="29"/>
-      <c r="ALG1" s="29"/>
-      <c r="ALH1" s="29"/>
-      <c r="ALI1" s="29"/>
-      <c r="ALJ1" s="29"/>
-      <c r="ALK1" s="29"/>
-      <c r="ALL1" s="29"/>
-      <c r="ALM1" s="29"/>
-      <c r="ALN1" s="29"/>
-      <c r="ALO1" s="29"/>
-      <c r="ALP1" s="29"/>
-      <c r="ALQ1" s="29"/>
-      <c r="ALR1" s="29"/>
-      <c r="ALS1" s="29"/>
-      <c r="ALT1" s="29"/>
-      <c r="ALU1" s="29"/>
-      <c r="ALV1" s="29"/>
-      <c r="ALW1" s="29"/>
-      <c r="ALX1" s="29"/>
-      <c r="ALY1" s="29"/>
-      <c r="ALZ1" s="29"/>
-      <c r="AMA1" s="29"/>
-      <c r="AMB1" s="29"/>
-      <c r="AMC1" s="29"/>
-      <c r="AMD1" s="29"/>
-      <c r="AME1" s="29"/>
-      <c r="AMF1" s="29"/>
-      <c r="AMG1" s="29"/>
-      <c r="AMH1" s="29"/>
-      <c r="AMI1" s="29"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="28"/>
+      <c r="AR1" s="28"/>
+      <c r="AS1" s="28"/>
+      <c r="AT1" s="28"/>
+      <c r="AU1" s="28"/>
+      <c r="AV1" s="28"/>
+      <c r="AW1" s="28"/>
+      <c r="AX1" s="28"/>
+      <c r="AY1" s="28"/>
+      <c r="AZ1" s="28"/>
+      <c r="BA1" s="28"/>
+      <c r="BB1" s="28"/>
+      <c r="BC1" s="28"/>
+      <c r="BD1" s="28"/>
+      <c r="BE1" s="28"/>
+      <c r="BF1" s="28"/>
+      <c r="BG1" s="28"/>
+      <c r="BH1" s="28"/>
+      <c r="BI1" s="28"/>
+      <c r="BJ1" s="28"/>
+      <c r="BK1" s="28"/>
+      <c r="BL1" s="28"/>
+      <c r="BM1" s="28"/>
+      <c r="BN1" s="28"/>
+      <c r="BO1" s="28"/>
+      <c r="BP1" s="28"/>
+      <c r="BQ1" s="28"/>
+      <c r="BR1" s="28"/>
+      <c r="BS1" s="28"/>
+      <c r="BT1" s="28"/>
+      <c r="BU1" s="28"/>
+      <c r="BV1" s="28"/>
+      <c r="BW1" s="28"/>
+      <c r="BX1" s="28"/>
+      <c r="BY1" s="28"/>
+      <c r="BZ1" s="28"/>
+      <c r="CA1" s="28"/>
+      <c r="CB1" s="28"/>
+      <c r="CC1" s="28"/>
+      <c r="CD1" s="28"/>
+      <c r="CE1" s="28"/>
+      <c r="CF1" s="28"/>
+      <c r="CG1" s="28"/>
+      <c r="CH1" s="28"/>
+      <c r="CI1" s="28"/>
+      <c r="CJ1" s="28"/>
+      <c r="CK1" s="28"/>
+      <c r="CL1" s="28"/>
+      <c r="CM1" s="28"/>
+      <c r="CN1" s="28"/>
+      <c r="CO1" s="28"/>
+      <c r="CP1" s="28"/>
+      <c r="CQ1" s="28"/>
+      <c r="CR1" s="28"/>
+      <c r="CS1" s="28"/>
+      <c r="CT1" s="28"/>
+      <c r="CU1" s="28"/>
+      <c r="CV1" s="28"/>
+      <c r="CW1" s="28"/>
+      <c r="CX1" s="28"/>
+      <c r="CY1" s="28"/>
+      <c r="CZ1" s="28"/>
+      <c r="DA1" s="28"/>
+      <c r="DB1" s="28"/>
+      <c r="DC1" s="28"/>
+      <c r="DD1" s="28"/>
+      <c r="DE1" s="28"/>
+      <c r="DF1" s="28"/>
+      <c r="DG1" s="28"/>
+      <c r="DH1" s="28"/>
+      <c r="DI1" s="28"/>
+      <c r="DJ1" s="28"/>
+      <c r="DK1" s="28"/>
+      <c r="DL1" s="28"/>
+      <c r="DM1" s="28"/>
+      <c r="DN1" s="28"/>
+      <c r="DO1" s="28"/>
+      <c r="DP1" s="28"/>
+      <c r="DQ1" s="28"/>
+      <c r="DR1" s="28"/>
+      <c r="DS1" s="28"/>
+      <c r="DT1" s="28"/>
+      <c r="DU1" s="28"/>
+      <c r="DV1" s="28"/>
+      <c r="DW1" s="28"/>
+      <c r="DX1" s="28"/>
+      <c r="DY1" s="28"/>
+      <c r="DZ1" s="28"/>
+      <c r="EA1" s="28"/>
+      <c r="EB1" s="28"/>
+      <c r="EC1" s="28"/>
+      <c r="ED1" s="28"/>
+      <c r="EE1" s="28"/>
+      <c r="EF1" s="28"/>
+      <c r="EG1" s="28"/>
+      <c r="EH1" s="28"/>
+      <c r="EI1" s="28"/>
+      <c r="EJ1" s="28"/>
+      <c r="EK1" s="28"/>
+      <c r="EL1" s="28"/>
+      <c r="EM1" s="28"/>
+      <c r="EN1" s="28"/>
+      <c r="EO1" s="28"/>
+      <c r="EP1" s="28"/>
+      <c r="EQ1" s="28"/>
+      <c r="ER1" s="28"/>
+      <c r="ES1" s="28"/>
+      <c r="ET1" s="28"/>
+      <c r="EU1" s="28"/>
+      <c r="EV1" s="28"/>
+      <c r="EW1" s="28"/>
+      <c r="EX1" s="28"/>
+      <c r="EY1" s="28"/>
+      <c r="EZ1" s="28"/>
+      <c r="FA1" s="28"/>
+      <c r="FB1" s="28"/>
+      <c r="FC1" s="28"/>
+      <c r="FD1" s="28"/>
+      <c r="FE1" s="28"/>
+      <c r="FF1" s="28"/>
+      <c r="FG1" s="28"/>
+      <c r="FH1" s="28"/>
+      <c r="FI1" s="28"/>
+      <c r="FJ1" s="28"/>
+      <c r="FK1" s="28"/>
+      <c r="FL1" s="28"/>
+      <c r="FM1" s="28"/>
+      <c r="FN1" s="28"/>
+      <c r="FO1" s="28"/>
+      <c r="FP1" s="28"/>
+      <c r="FQ1" s="28"/>
+      <c r="FR1" s="28"/>
+      <c r="FS1" s="28"/>
+      <c r="FT1" s="28"/>
+      <c r="FU1" s="28"/>
+      <c r="FV1" s="28"/>
+      <c r="FW1" s="28"/>
+      <c r="FX1" s="28"/>
+      <c r="FY1" s="28"/>
+      <c r="FZ1" s="28"/>
+      <c r="GA1" s="28"/>
+      <c r="GB1" s="28"/>
+      <c r="GC1" s="28"/>
+      <c r="GD1" s="28"/>
+      <c r="GE1" s="28"/>
+      <c r="GF1" s="28"/>
+      <c r="GG1" s="28"/>
+      <c r="GH1" s="28"/>
+      <c r="GI1" s="28"/>
+      <c r="GJ1" s="28"/>
+      <c r="GK1" s="28"/>
+      <c r="GL1" s="28"/>
+      <c r="GM1" s="28"/>
+      <c r="GN1" s="28"/>
+      <c r="GO1" s="28"/>
+      <c r="GP1" s="28"/>
+      <c r="GQ1" s="28"/>
+      <c r="GR1" s="28"/>
+      <c r="GS1" s="28"/>
+      <c r="GT1" s="28"/>
+      <c r="GU1" s="28"/>
+      <c r="GV1" s="28"/>
+      <c r="GW1" s="28"/>
+      <c r="GX1" s="28"/>
+      <c r="GY1" s="28"/>
+      <c r="GZ1" s="28"/>
+      <c r="HA1" s="28"/>
+      <c r="HB1" s="28"/>
+      <c r="HC1" s="28"/>
+      <c r="HD1" s="28"/>
+      <c r="HE1" s="28"/>
+      <c r="HF1" s="28"/>
+      <c r="HG1" s="28"/>
+      <c r="HH1" s="28"/>
+      <c r="HI1" s="28"/>
+      <c r="HJ1" s="28"/>
+      <c r="HK1" s="28"/>
+      <c r="HL1" s="28"/>
+      <c r="HM1" s="28"/>
+      <c r="HN1" s="28"/>
+      <c r="HO1" s="28"/>
+      <c r="HP1" s="28"/>
+      <c r="HQ1" s="28"/>
+      <c r="HR1" s="28"/>
+      <c r="HS1" s="28"/>
+      <c r="HT1" s="28"/>
+      <c r="HU1" s="28"/>
+      <c r="HV1" s="28"/>
+      <c r="HW1" s="28"/>
+      <c r="HX1" s="28"/>
+      <c r="HY1" s="28"/>
+      <c r="HZ1" s="28"/>
+      <c r="IA1" s="28"/>
+      <c r="IB1" s="28"/>
+      <c r="IC1" s="28"/>
+      <c r="ID1" s="28"/>
+      <c r="IE1" s="28"/>
+      <c r="IF1" s="28"/>
+      <c r="IG1" s="28"/>
+      <c r="IH1" s="28"/>
+      <c r="II1" s="28"/>
+      <c r="IJ1" s="28"/>
+      <c r="IK1" s="28"/>
+      <c r="IL1" s="28"/>
+      <c r="IM1" s="28"/>
+      <c r="IN1" s="28"/>
+      <c r="IO1" s="28"/>
+      <c r="IP1" s="28"/>
+      <c r="IQ1" s="28"/>
+      <c r="IR1" s="28"/>
+      <c r="IS1" s="28"/>
+      <c r="IT1" s="28"/>
+      <c r="IU1" s="28"/>
+      <c r="IV1" s="28"/>
+      <c r="IW1" s="28"/>
+      <c r="IX1" s="28"/>
+      <c r="IY1" s="28"/>
+      <c r="IZ1" s="28"/>
+      <c r="JA1" s="28"/>
+      <c r="JB1" s="28"/>
+      <c r="JC1" s="28"/>
+      <c r="JD1" s="28"/>
+      <c r="JE1" s="28"/>
+      <c r="JF1" s="28"/>
+      <c r="JG1" s="28"/>
+      <c r="JH1" s="28"/>
+      <c r="JI1" s="28"/>
+      <c r="JJ1" s="28"/>
+      <c r="JK1" s="28"/>
+      <c r="JL1" s="28"/>
+      <c r="JM1" s="28"/>
+      <c r="JN1" s="28"/>
+      <c r="JO1" s="28"/>
+      <c r="JP1" s="28"/>
+      <c r="JQ1" s="28"/>
+      <c r="JR1" s="28"/>
+      <c r="JS1" s="28"/>
+      <c r="JT1" s="28"/>
+      <c r="JU1" s="28"/>
+      <c r="JV1" s="28"/>
+      <c r="JW1" s="28"/>
+      <c r="JX1" s="28"/>
+      <c r="JY1" s="28"/>
+      <c r="JZ1" s="28"/>
+      <c r="KA1" s="28"/>
+      <c r="KB1" s="28"/>
+      <c r="KC1" s="28"/>
+      <c r="KD1" s="28"/>
+      <c r="KE1" s="28"/>
+      <c r="KF1" s="28"/>
+      <c r="KG1" s="28"/>
+      <c r="KH1" s="28"/>
+      <c r="KI1" s="28"/>
+      <c r="KJ1" s="28"/>
+      <c r="KK1" s="28"/>
+      <c r="KL1" s="28"/>
+      <c r="KM1" s="28"/>
+      <c r="KN1" s="28"/>
+      <c r="KO1" s="28"/>
+      <c r="KP1" s="28"/>
+      <c r="KQ1" s="28"/>
+      <c r="KR1" s="28"/>
+      <c r="KS1" s="28"/>
+      <c r="KT1" s="28"/>
+      <c r="KU1" s="28"/>
+      <c r="KV1" s="28"/>
+      <c r="KW1" s="28"/>
+      <c r="KX1" s="28"/>
+      <c r="KY1" s="28"/>
+      <c r="KZ1" s="28"/>
+      <c r="LA1" s="28"/>
+      <c r="LB1" s="28"/>
+      <c r="LC1" s="28"/>
+      <c r="LD1" s="28"/>
+      <c r="LE1" s="28"/>
+      <c r="LF1" s="28"/>
+      <c r="LG1" s="28"/>
+      <c r="LH1" s="28"/>
+      <c r="LI1" s="28"/>
+      <c r="LJ1" s="28"/>
+      <c r="LK1" s="28"/>
+      <c r="LL1" s="28"/>
+      <c r="LM1" s="28"/>
+      <c r="LN1" s="28"/>
+      <c r="LO1" s="28"/>
+      <c r="LP1" s="28"/>
+      <c r="LQ1" s="28"/>
+      <c r="LR1" s="28"/>
+      <c r="LS1" s="28"/>
+      <c r="LT1" s="28"/>
+      <c r="LU1" s="28"/>
+      <c r="LV1" s="28"/>
+      <c r="LW1" s="28"/>
+      <c r="LX1" s="28"/>
+      <c r="LY1" s="28"/>
+      <c r="LZ1" s="28"/>
+      <c r="MA1" s="28"/>
+      <c r="MB1" s="28"/>
+      <c r="MC1" s="28"/>
+      <c r="MD1" s="28"/>
+      <c r="ME1" s="28"/>
+      <c r="MF1" s="28"/>
+      <c r="MG1" s="28"/>
+      <c r="MH1" s="28"/>
+      <c r="MI1" s="28"/>
+      <c r="MJ1" s="28"/>
+      <c r="MK1" s="28"/>
+      <c r="ML1" s="28"/>
+      <c r="MM1" s="28"/>
+      <c r="MN1" s="28"/>
+      <c r="MO1" s="28"/>
+      <c r="MP1" s="28"/>
+      <c r="MQ1" s="28"/>
+      <c r="MR1" s="28"/>
+      <c r="MS1" s="28"/>
+      <c r="MT1" s="28"/>
+      <c r="MU1" s="28"/>
+      <c r="MV1" s="28"/>
+      <c r="MW1" s="28"/>
+      <c r="MX1" s="28"/>
+      <c r="MY1" s="28"/>
+      <c r="MZ1" s="28"/>
+      <c r="NA1" s="28"/>
+      <c r="NB1" s="28"/>
+      <c r="NC1" s="28"/>
+      <c r="ND1" s="28"/>
+      <c r="NE1" s="28"/>
+      <c r="NF1" s="28"/>
+      <c r="NG1" s="28"/>
+      <c r="NH1" s="28"/>
+      <c r="NI1" s="28"/>
+      <c r="NJ1" s="28"/>
+      <c r="NK1" s="28"/>
+      <c r="NL1" s="28"/>
+      <c r="NM1" s="28"/>
+      <c r="NN1" s="28"/>
+      <c r="NO1" s="28"/>
+      <c r="NP1" s="28"/>
+      <c r="NQ1" s="28"/>
+      <c r="NR1" s="28"/>
+      <c r="NS1" s="28"/>
+      <c r="NT1" s="28"/>
+      <c r="NU1" s="28"/>
+      <c r="NV1" s="28"/>
+      <c r="NW1" s="28"/>
+      <c r="NX1" s="28"/>
+      <c r="NY1" s="28"/>
+      <c r="NZ1" s="28"/>
+      <c r="OA1" s="28"/>
+      <c r="OB1" s="28"/>
+      <c r="OC1" s="28"/>
+      <c r="OD1" s="28"/>
+      <c r="OE1" s="28"/>
+      <c r="OF1" s="28"/>
+      <c r="OG1" s="28"/>
+      <c r="OH1" s="28"/>
+      <c r="OI1" s="28"/>
+      <c r="OJ1" s="28"/>
+      <c r="OK1" s="28"/>
+      <c r="OL1" s="28"/>
+      <c r="OM1" s="28"/>
+      <c r="ON1" s="28"/>
+      <c r="OO1" s="28"/>
+      <c r="OP1" s="28"/>
+      <c r="OQ1" s="28"/>
+      <c r="OR1" s="28"/>
+      <c r="OS1" s="28"/>
+      <c r="OT1" s="28"/>
+      <c r="OU1" s="28"/>
+      <c r="OV1" s="28"/>
+      <c r="OW1" s="28"/>
+      <c r="OX1" s="28"/>
+      <c r="OY1" s="28"/>
+      <c r="OZ1" s="28"/>
+      <c r="PA1" s="28"/>
+      <c r="PB1" s="28"/>
+      <c r="PC1" s="28"/>
+      <c r="PD1" s="28"/>
+      <c r="PE1" s="28"/>
+      <c r="PF1" s="28"/>
+      <c r="PG1" s="28"/>
+      <c r="PH1" s="28"/>
+      <c r="PI1" s="28"/>
+      <c r="PJ1" s="28"/>
+      <c r="PK1" s="28"/>
+      <c r="PL1" s="28"/>
+      <c r="PM1" s="28"/>
+      <c r="PN1" s="28"/>
+      <c r="PO1" s="28"/>
+      <c r="PP1" s="28"/>
+      <c r="PQ1" s="28"/>
+      <c r="PR1" s="28"/>
+      <c r="PS1" s="28"/>
+      <c r="PT1" s="28"/>
+      <c r="PU1" s="28"/>
+      <c r="PV1" s="28"/>
+      <c r="PW1" s="28"/>
+      <c r="PX1" s="28"/>
+      <c r="PY1" s="28"/>
+      <c r="PZ1" s="28"/>
+      <c r="QA1" s="28"/>
+      <c r="QB1" s="28"/>
+      <c r="QC1" s="28"/>
+      <c r="QD1" s="28"/>
+      <c r="QE1" s="28"/>
+      <c r="QF1" s="28"/>
+      <c r="QG1" s="28"/>
+      <c r="QH1" s="28"/>
+      <c r="QI1" s="28"/>
+      <c r="QJ1" s="28"/>
+      <c r="QK1" s="28"/>
+      <c r="QL1" s="28"/>
+      <c r="QM1" s="28"/>
+      <c r="QN1" s="28"/>
+      <c r="QO1" s="28"/>
+      <c r="QP1" s="28"/>
+      <c r="QQ1" s="28"/>
+      <c r="QR1" s="28"/>
+      <c r="QS1" s="28"/>
+      <c r="QT1" s="28"/>
+      <c r="QU1" s="28"/>
+      <c r="QV1" s="28"/>
+      <c r="QW1" s="28"/>
+      <c r="QX1" s="28"/>
+      <c r="QY1" s="28"/>
+      <c r="QZ1" s="28"/>
+      <c r="RA1" s="28"/>
+      <c r="RB1" s="28"/>
+      <c r="RC1" s="28"/>
+      <c r="RD1" s="28"/>
+      <c r="RE1" s="28"/>
+      <c r="RF1" s="28"/>
+      <c r="RG1" s="28"/>
+      <c r="RH1" s="28"/>
+      <c r="RI1" s="28"/>
+      <c r="RJ1" s="28"/>
+      <c r="RK1" s="28"/>
+      <c r="RL1" s="28"/>
+      <c r="RM1" s="28"/>
+      <c r="RN1" s="28"/>
+      <c r="RO1" s="28"/>
+      <c r="RP1" s="28"/>
+      <c r="RQ1" s="28"/>
+      <c r="RR1" s="28"/>
+      <c r="RS1" s="28"/>
+      <c r="RT1" s="28"/>
+      <c r="RU1" s="28"/>
+      <c r="RV1" s="28"/>
+      <c r="RW1" s="28"/>
+      <c r="RX1" s="28"/>
+      <c r="RY1" s="28"/>
+      <c r="RZ1" s="28"/>
+      <c r="SA1" s="28"/>
+      <c r="SB1" s="28"/>
+      <c r="SC1" s="28"/>
+      <c r="SD1" s="28"/>
+      <c r="SE1" s="28"/>
+      <c r="SF1" s="28"/>
+      <c r="SG1" s="28"/>
+      <c r="SH1" s="28"/>
+      <c r="SI1" s="28"/>
+      <c r="SJ1" s="28"/>
+      <c r="SK1" s="28"/>
+      <c r="SL1" s="28"/>
+      <c r="SM1" s="28"/>
+      <c r="SN1" s="28"/>
+      <c r="SO1" s="28"/>
+      <c r="SP1" s="28"/>
+      <c r="SQ1" s="28"/>
+      <c r="SR1" s="28"/>
+      <c r="SS1" s="28"/>
+      <c r="ST1" s="28"/>
+      <c r="SU1" s="28"/>
+      <c r="SV1" s="28"/>
+      <c r="SW1" s="28"/>
+      <c r="SX1" s="28"/>
+      <c r="SY1" s="28"/>
+      <c r="SZ1" s="28"/>
+      <c r="TA1" s="28"/>
+      <c r="TB1" s="28"/>
+      <c r="TC1" s="28"/>
+      <c r="TD1" s="28"/>
+      <c r="TE1" s="28"/>
+      <c r="TF1" s="28"/>
+      <c r="TG1" s="28"/>
+      <c r="TH1" s="28"/>
+      <c r="TI1" s="28"/>
+      <c r="TJ1" s="28"/>
+      <c r="TK1" s="28"/>
+      <c r="TL1" s="28"/>
+      <c r="TM1" s="28"/>
+      <c r="TN1" s="28"/>
+      <c r="TO1" s="28"/>
+      <c r="TP1" s="28"/>
+      <c r="TQ1" s="28"/>
+      <c r="TR1" s="28"/>
+      <c r="TS1" s="28"/>
+      <c r="TT1" s="28"/>
+      <c r="TU1" s="28"/>
+      <c r="TV1" s="28"/>
+      <c r="TW1" s="28"/>
+      <c r="TX1" s="28"/>
+      <c r="TY1" s="28"/>
+      <c r="TZ1" s="28"/>
+      <c r="UA1" s="28"/>
+      <c r="UB1" s="28"/>
+      <c r="UC1" s="28"/>
+      <c r="UD1" s="28"/>
+      <c r="UE1" s="28"/>
+      <c r="UF1" s="28"/>
+      <c r="UG1" s="28"/>
+      <c r="UH1" s="28"/>
+      <c r="UI1" s="28"/>
+      <c r="UJ1" s="28"/>
+      <c r="UK1" s="28"/>
+      <c r="UL1" s="28"/>
+      <c r="UM1" s="28"/>
+      <c r="UN1" s="28"/>
+      <c r="UO1" s="28"/>
+      <c r="UP1" s="28"/>
+      <c r="UQ1" s="28"/>
+      <c r="UR1" s="28"/>
+      <c r="US1" s="28"/>
+      <c r="UT1" s="28"/>
+      <c r="UU1" s="28"/>
+      <c r="UV1" s="28"/>
+      <c r="UW1" s="28"/>
+      <c r="UX1" s="28"/>
+      <c r="UY1" s="28"/>
+      <c r="UZ1" s="28"/>
+      <c r="VA1" s="28"/>
+      <c r="VB1" s="28"/>
+      <c r="VC1" s="28"/>
+      <c r="VD1" s="28"/>
+      <c r="VE1" s="28"/>
+      <c r="VF1" s="28"/>
+      <c r="VG1" s="28"/>
+      <c r="VH1" s="28"/>
+      <c r="VI1" s="28"/>
+      <c r="VJ1" s="28"/>
+      <c r="VK1" s="28"/>
+      <c r="VL1" s="28"/>
+      <c r="VM1" s="28"/>
+      <c r="VN1" s="28"/>
+      <c r="VO1" s="28"/>
+      <c r="VP1" s="28"/>
+      <c r="VQ1" s="28"/>
+      <c r="VR1" s="28"/>
+      <c r="VS1" s="28"/>
+      <c r="VT1" s="28"/>
+      <c r="VU1" s="28"/>
+      <c r="VV1" s="28"/>
+      <c r="VW1" s="28"/>
+      <c r="VX1" s="28"/>
+      <c r="VY1" s="28"/>
+      <c r="VZ1" s="28"/>
+      <c r="WA1" s="28"/>
+      <c r="WB1" s="28"/>
+      <c r="WC1" s="28"/>
+      <c r="WD1" s="28"/>
+      <c r="WE1" s="28"/>
+      <c r="WF1" s="28"/>
+      <c r="WG1" s="28"/>
+      <c r="WH1" s="28"/>
+      <c r="WI1" s="28"/>
+      <c r="WJ1" s="28"/>
+      <c r="WK1" s="28"/>
+      <c r="WL1" s="28"/>
+      <c r="WM1" s="28"/>
+      <c r="WN1" s="28"/>
+      <c r="WO1" s="28"/>
+      <c r="WP1" s="28"/>
+      <c r="WQ1" s="28"/>
+      <c r="WR1" s="28"/>
+      <c r="WS1" s="28"/>
+      <c r="WT1" s="28"/>
+      <c r="WU1" s="28"/>
+      <c r="WV1" s="28"/>
+      <c r="WW1" s="28"/>
+      <c r="WX1" s="28"/>
+      <c r="WY1" s="28"/>
+      <c r="WZ1" s="28"/>
+      <c r="XA1" s="28"/>
+      <c r="XB1" s="28"/>
+      <c r="XC1" s="28"/>
+      <c r="XD1" s="28"/>
+      <c r="XE1" s="28"/>
+      <c r="XF1" s="28"/>
+      <c r="XG1" s="28"/>
+      <c r="XH1" s="28"/>
+      <c r="XI1" s="28"/>
+      <c r="XJ1" s="28"/>
+      <c r="XK1" s="28"/>
+      <c r="XL1" s="28"/>
+      <c r="XM1" s="28"/>
+      <c r="XN1" s="28"/>
+      <c r="XO1" s="28"/>
+      <c r="XP1" s="28"/>
+      <c r="XQ1" s="28"/>
+      <c r="XR1" s="28"/>
+      <c r="XS1" s="28"/>
+      <c r="XT1" s="28"/>
+      <c r="XU1" s="28"/>
+      <c r="XV1" s="28"/>
+      <c r="XW1" s="28"/>
+      <c r="XX1" s="28"/>
+      <c r="XY1" s="28"/>
+      <c r="XZ1" s="28"/>
+      <c r="YA1" s="28"/>
+      <c r="YB1" s="28"/>
+      <c r="YC1" s="28"/>
+      <c r="YD1" s="28"/>
+      <c r="YE1" s="28"/>
+      <c r="YF1" s="28"/>
+      <c r="YG1" s="28"/>
+      <c r="YH1" s="28"/>
+      <c r="YI1" s="28"/>
+      <c r="YJ1" s="28"/>
+      <c r="YK1" s="28"/>
+      <c r="YL1" s="28"/>
+      <c r="YM1" s="28"/>
+      <c r="YN1" s="28"/>
+      <c r="YO1" s="28"/>
+      <c r="YP1" s="28"/>
+      <c r="YQ1" s="28"/>
+      <c r="YR1" s="28"/>
+      <c r="YS1" s="28"/>
+      <c r="YT1" s="28"/>
+      <c r="YU1" s="28"/>
+      <c r="YV1" s="28"/>
+      <c r="YW1" s="28"/>
+      <c r="YX1" s="28"/>
+      <c r="YY1" s="28"/>
+      <c r="YZ1" s="28"/>
+      <c r="ZA1" s="28"/>
+      <c r="ZB1" s="28"/>
+      <c r="ZC1" s="28"/>
+      <c r="ZD1" s="28"/>
+      <c r="ZE1" s="28"/>
+      <c r="ZF1" s="28"/>
+      <c r="ZG1" s="28"/>
+      <c r="ZH1" s="28"/>
+      <c r="ZI1" s="28"/>
+      <c r="ZJ1" s="28"/>
+      <c r="ZK1" s="28"/>
+      <c r="ZL1" s="28"/>
+      <c r="ZM1" s="28"/>
+      <c r="ZN1" s="28"/>
+      <c r="ZO1" s="28"/>
+      <c r="ZP1" s="28"/>
+      <c r="ZQ1" s="28"/>
+      <c r="ZR1" s="28"/>
+      <c r="ZS1" s="28"/>
+      <c r="ZT1" s="28"/>
+      <c r="ZU1" s="28"/>
+      <c r="ZV1" s="28"/>
+      <c r="ZW1" s="28"/>
+      <c r="ZX1" s="28"/>
+      <c r="ZY1" s="28"/>
+      <c r="ZZ1" s="28"/>
+      <c r="AAA1" s="28"/>
+      <c r="AAB1" s="28"/>
+      <c r="AAC1" s="28"/>
+      <c r="AAD1" s="28"/>
+      <c r="AAE1" s="28"/>
+      <c r="AAF1" s="28"/>
+      <c r="AAG1" s="28"/>
+      <c r="AAH1" s="28"/>
+      <c r="AAI1" s="28"/>
+      <c r="AAJ1" s="28"/>
+      <c r="AAK1" s="28"/>
+      <c r="AAL1" s="28"/>
+      <c r="AAM1" s="28"/>
+      <c r="AAN1" s="28"/>
+      <c r="AAO1" s="28"/>
+      <c r="AAP1" s="28"/>
+      <c r="AAQ1" s="28"/>
+      <c r="AAR1" s="28"/>
+      <c r="AAS1" s="28"/>
+      <c r="AAT1" s="28"/>
+      <c r="AAU1" s="28"/>
+      <c r="AAV1" s="28"/>
+      <c r="AAW1" s="28"/>
+      <c r="AAX1" s="28"/>
+      <c r="AAY1" s="28"/>
+      <c r="AAZ1" s="28"/>
+      <c r="ABA1" s="28"/>
+      <c r="ABB1" s="28"/>
+      <c r="ABC1" s="28"/>
+      <c r="ABD1" s="28"/>
+      <c r="ABE1" s="28"/>
+      <c r="ABF1" s="28"/>
+      <c r="ABG1" s="28"/>
+      <c r="ABH1" s="28"/>
+      <c r="ABI1" s="28"/>
+      <c r="ABJ1" s="28"/>
+      <c r="ABK1" s="28"/>
+      <c r="ABL1" s="28"/>
+      <c r="ABM1" s="28"/>
+      <c r="ABN1" s="28"/>
+      <c r="ABO1" s="28"/>
+      <c r="ABP1" s="28"/>
+      <c r="ABQ1" s="28"/>
+      <c r="ABR1" s="28"/>
+      <c r="ABS1" s="28"/>
+      <c r="ABT1" s="28"/>
+      <c r="ABU1" s="28"/>
+      <c r="ABV1" s="28"/>
+      <c r="ABW1" s="28"/>
+      <c r="ABX1" s="28"/>
+      <c r="ABY1" s="28"/>
+      <c r="ABZ1" s="28"/>
+      <c r="ACA1" s="28"/>
+      <c r="ACB1" s="28"/>
+      <c r="ACC1" s="28"/>
+      <c r="ACD1" s="28"/>
+      <c r="ACE1" s="28"/>
+      <c r="ACF1" s="28"/>
+      <c r="ACG1" s="28"/>
+      <c r="ACH1" s="28"/>
+      <c r="ACI1" s="28"/>
+      <c r="ACJ1" s="28"/>
+      <c r="ACK1" s="28"/>
+      <c r="ACL1" s="28"/>
+      <c r="ACM1" s="28"/>
+      <c r="ACN1" s="28"/>
+      <c r="ACO1" s="28"/>
+      <c r="ACP1" s="28"/>
+      <c r="ACQ1" s="28"/>
+      <c r="ACR1" s="28"/>
+      <c r="ACS1" s="28"/>
+      <c r="ACT1" s="28"/>
+      <c r="ACU1" s="28"/>
+      <c r="ACV1" s="28"/>
+      <c r="ACW1" s="28"/>
+      <c r="ACX1" s="28"/>
+      <c r="ACY1" s="28"/>
+      <c r="ACZ1" s="28"/>
+      <c r="ADA1" s="28"/>
+      <c r="ADB1" s="28"/>
+      <c r="ADC1" s="28"/>
+      <c r="ADD1" s="28"/>
+      <c r="ADE1" s="28"/>
+      <c r="ADF1" s="28"/>
+      <c r="ADG1" s="28"/>
+      <c r="ADH1" s="28"/>
+      <c r="ADI1" s="28"/>
+      <c r="ADJ1" s="28"/>
+      <c r="ADK1" s="28"/>
+      <c r="ADL1" s="28"/>
+      <c r="ADM1" s="28"/>
+      <c r="ADN1" s="28"/>
+      <c r="ADO1" s="28"/>
+      <c r="ADP1" s="28"/>
+      <c r="ADQ1" s="28"/>
+      <c r="ADR1" s="28"/>
+      <c r="ADS1" s="28"/>
+      <c r="ADT1" s="28"/>
+      <c r="ADU1" s="28"/>
+      <c r="ADV1" s="28"/>
+      <c r="ADW1" s="28"/>
+      <c r="ADX1" s="28"/>
+      <c r="ADY1" s="28"/>
+      <c r="ADZ1" s="28"/>
+      <c r="AEA1" s="28"/>
+      <c r="AEB1" s="28"/>
+      <c r="AEC1" s="28"/>
+      <c r="AED1" s="28"/>
+      <c r="AEE1" s="28"/>
+      <c r="AEF1" s="28"/>
+      <c r="AEG1" s="28"/>
+      <c r="AEH1" s="28"/>
+      <c r="AEI1" s="28"/>
+      <c r="AEJ1" s="28"/>
+      <c r="AEK1" s="28"/>
+      <c r="AEL1" s="28"/>
+      <c r="AEM1" s="28"/>
+      <c r="AEN1" s="28"/>
+      <c r="AEO1" s="28"/>
+      <c r="AEP1" s="28"/>
+      <c r="AEQ1" s="28"/>
+      <c r="AER1" s="28"/>
+      <c r="AES1" s="28"/>
+      <c r="AET1" s="28"/>
+      <c r="AEU1" s="28"/>
+      <c r="AEV1" s="28"/>
+      <c r="AEW1" s="28"/>
+      <c r="AEX1" s="28"/>
+      <c r="AEY1" s="28"/>
+      <c r="AEZ1" s="28"/>
+      <c r="AFA1" s="28"/>
+      <c r="AFB1" s="28"/>
+      <c r="AFC1" s="28"/>
+      <c r="AFD1" s="28"/>
+      <c r="AFE1" s="28"/>
+      <c r="AFF1" s="28"/>
+      <c r="AFG1" s="28"/>
+      <c r="AFH1" s="28"/>
+      <c r="AFI1" s="28"/>
+      <c r="AFJ1" s="28"/>
+      <c r="AFK1" s="28"/>
+      <c r="AFL1" s="28"/>
+      <c r="AFM1" s="28"/>
+      <c r="AFN1" s="28"/>
+      <c r="AFO1" s="28"/>
+      <c r="AFP1" s="28"/>
+      <c r="AFQ1" s="28"/>
+      <c r="AFR1" s="28"/>
+      <c r="AFS1" s="28"/>
+      <c r="AFT1" s="28"/>
+      <c r="AFU1" s="28"/>
+      <c r="AFV1" s="28"/>
+      <c r="AFW1" s="28"/>
+      <c r="AFX1" s="28"/>
+      <c r="AFY1" s="28"/>
+      <c r="AFZ1" s="28"/>
+      <c r="AGA1" s="28"/>
+      <c r="AGB1" s="28"/>
+      <c r="AGC1" s="28"/>
+      <c r="AGD1" s="28"/>
+      <c r="AGE1" s="28"/>
+      <c r="AGF1" s="28"/>
+      <c r="AGG1" s="28"/>
+      <c r="AGH1" s="28"/>
+      <c r="AGI1" s="28"/>
+      <c r="AGJ1" s="28"/>
+      <c r="AGK1" s="28"/>
+      <c r="AGL1" s="28"/>
+      <c r="AGM1" s="28"/>
+      <c r="AGN1" s="28"/>
+      <c r="AGO1" s="28"/>
+      <c r="AGP1" s="28"/>
+      <c r="AGQ1" s="28"/>
+      <c r="AGR1" s="28"/>
+      <c r="AGS1" s="28"/>
+      <c r="AGT1" s="28"/>
+      <c r="AGU1" s="28"/>
+      <c r="AGV1" s="28"/>
+      <c r="AGW1" s="28"/>
+      <c r="AGX1" s="28"/>
+      <c r="AGY1" s="28"/>
+      <c r="AGZ1" s="28"/>
+      <c r="AHA1" s="28"/>
+      <c r="AHB1" s="28"/>
+      <c r="AHC1" s="28"/>
+      <c r="AHD1" s="28"/>
+      <c r="AHE1" s="28"/>
+      <c r="AHF1" s="28"/>
+      <c r="AHG1" s="28"/>
+      <c r="AHH1" s="28"/>
+      <c r="AHI1" s="28"/>
+      <c r="AHJ1" s="28"/>
+      <c r="AHK1" s="28"/>
+      <c r="AHL1" s="28"/>
+      <c r="AHM1" s="28"/>
+      <c r="AHN1" s="28"/>
+      <c r="AHO1" s="28"/>
+      <c r="AHP1" s="28"/>
+      <c r="AHQ1" s="28"/>
+      <c r="AHR1" s="28"/>
+      <c r="AHS1" s="28"/>
+      <c r="AHT1" s="28"/>
+      <c r="AHU1" s="28"/>
+      <c r="AHV1" s="28"/>
+      <c r="AHW1" s="28"/>
+      <c r="AHX1" s="28"/>
+      <c r="AHY1" s="28"/>
+      <c r="AHZ1" s="28"/>
+      <c r="AIA1" s="28"/>
+      <c r="AIB1" s="28"/>
+      <c r="AIC1" s="28"/>
+      <c r="AID1" s="28"/>
+      <c r="AIE1" s="28"/>
+      <c r="AIF1" s="28"/>
+      <c r="AIG1" s="28"/>
+      <c r="AIH1" s="28"/>
+      <c r="AII1" s="28"/>
+      <c r="AIJ1" s="28"/>
+      <c r="AIK1" s="28"/>
+      <c r="AIL1" s="28"/>
+      <c r="AIM1" s="28"/>
+      <c r="AIN1" s="28"/>
+      <c r="AIO1" s="28"/>
+      <c r="AIP1" s="28"/>
+      <c r="AIQ1" s="28"/>
+      <c r="AIR1" s="28"/>
+      <c r="AIS1" s="28"/>
+      <c r="AIT1" s="28"/>
+      <c r="AIU1" s="28"/>
+      <c r="AIV1" s="28"/>
+      <c r="AIW1" s="28"/>
+      <c r="AIX1" s="28"/>
+      <c r="AIY1" s="28"/>
+      <c r="AIZ1" s="28"/>
+      <c r="AJA1" s="28"/>
+      <c r="AJB1" s="28"/>
+      <c r="AJC1" s="28"/>
+      <c r="AJD1" s="28"/>
+      <c r="AJE1" s="28"/>
+      <c r="AJF1" s="28"/>
+      <c r="AJG1" s="28"/>
+      <c r="AJH1" s="28"/>
+      <c r="AJI1" s="28"/>
+      <c r="AJJ1" s="28"/>
+      <c r="AJK1" s="28"/>
+      <c r="AJL1" s="28"/>
+      <c r="AJM1" s="28"/>
+      <c r="AJN1" s="28"/>
+      <c r="AJO1" s="28"/>
+      <c r="AJP1" s="28"/>
+      <c r="AJQ1" s="28"/>
+      <c r="AJR1" s="28"/>
+      <c r="AJS1" s="28"/>
+      <c r="AJT1" s="28"/>
+      <c r="AJU1" s="28"/>
+      <c r="AJV1" s="28"/>
+      <c r="AJW1" s="28"/>
+      <c r="AJX1" s="28"/>
+      <c r="AJY1" s="28"/>
+      <c r="AJZ1" s="28"/>
+      <c r="AKA1" s="28"/>
+      <c r="AKB1" s="28"/>
+      <c r="AKC1" s="28"/>
+      <c r="AKD1" s="28"/>
+      <c r="AKE1" s="28"/>
+      <c r="AKF1" s="28"/>
+      <c r="AKG1" s="28"/>
+      <c r="AKH1" s="28"/>
+      <c r="AKI1" s="28"/>
+      <c r="AKJ1" s="28"/>
+      <c r="AKK1" s="28"/>
+      <c r="AKL1" s="28"/>
+      <c r="AKM1" s="28"/>
+      <c r="AKN1" s="28"/>
+      <c r="AKO1" s="28"/>
+      <c r="AKP1" s="28"/>
+      <c r="AKQ1" s="28"/>
+      <c r="AKR1" s="28"/>
+      <c r="AKS1" s="28"/>
+      <c r="AKT1" s="28"/>
+      <c r="AKU1" s="28"/>
+      <c r="AKV1" s="28"/>
+      <c r="AKW1" s="28"/>
+      <c r="AKX1" s="28"/>
+      <c r="AKY1" s="28"/>
+      <c r="AKZ1" s="28"/>
+      <c r="ALA1" s="28"/>
+      <c r="ALB1" s="28"/>
+      <c r="ALC1" s="28"/>
+      <c r="ALD1" s="28"/>
+      <c r="ALE1" s="28"/>
+      <c r="ALF1" s="28"/>
+      <c r="ALG1" s="28"/>
+      <c r="ALH1" s="28"/>
+      <c r="ALI1" s="28"/>
+      <c r="ALJ1" s="28"/>
+      <c r="ALK1" s="28"/>
+      <c r="ALL1" s="28"/>
+      <c r="ALM1" s="28"/>
+      <c r="ALN1" s="28"/>
+      <c r="ALO1" s="28"/>
+      <c r="ALP1" s="28"/>
+      <c r="ALQ1" s="28"/>
+      <c r="ALR1" s="28"/>
+      <c r="ALS1" s="28"/>
+      <c r="ALT1" s="28"/>
+      <c r="ALU1" s="28"/>
+      <c r="ALV1" s="28"/>
+      <c r="ALW1" s="28"/>
+      <c r="ALX1" s="28"/>
+      <c r="ALY1" s="28"/>
+      <c r="ALZ1" s="28"/>
+      <c r="AMA1" s="28"/>
+      <c r="AMB1" s="28"/>
+      <c r="AMC1" s="28"/>
+      <c r="AMD1" s="28"/>
+      <c r="AME1" s="28"/>
+      <c r="AMF1" s="28"/>
+      <c r="AMG1" s="28"/>
+      <c r="AMH1" s="28"/>
+      <c r="AMI1" s="28"/>
     </row>
     <row r="2" spans="1:1023">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="46" t="s">
         <v>347</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="47" t="s">
         <v>256</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="41" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:1023">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="E3" s="42"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:1023">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>349</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="E4" s="42"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="1:1023">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="39" t="s">
         <v>350</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="E5" s="42"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:1023">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="39" t="s">
         <v>351</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="E6" s="42"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="1:1023">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="E7" s="42"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" spans="1:1023">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="E8" s="42"/>
+      <c r="E8" s="41"/>
     </row>
     <row r="9" spans="1:1023">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="39" t="s">
         <v>259</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="E9" s="42"/>
+      <c r="E9" s="41"/>
     </row>
     <row r="10" spans="1:1023">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="39" t="s">
         <v>352</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="E10" s="42"/>
+      <c r="E10" s="41"/>
     </row>
     <row r="11" spans="1:1023">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="39" t="s">
         <v>353</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="E11" s="42"/>
+      <c r="E11" s="41"/>
     </row>
     <row r="12" spans="1:1023" ht="37.5">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="39" t="s">
         <v>253</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:1023">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="E13" s="44"/>
+      <c r="E13" s="43"/>
     </row>
     <row r="14" spans="1:1023">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="E14" s="44"/>
+      <c r="E14" s="43"/>
     </row>
     <row r="15" spans="1:1023">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="44" t="s">
         <v>354</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="E15" s="46"/>
+      <c r="E15" s="45"/>
     </row>
     <row r="16" spans="1:1023">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="55" t="s">
         <v>256</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="56" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="E17" s="56"/>
+      <c r="E17" s="55"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="54" t="s">
         <v>355</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="E18" s="56"/>
+      <c r="E18" s="55"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="54" t="s">
         <v>237</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="E19" s="56"/>
+      <c r="E19" s="55"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="55" t="s">
         <v>256</v>
       </c>
-      <c r="E20" s="60"/>
+      <c r="E20" s="59"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="55" t="s">
         <v>256</v>
       </c>
-      <c r="E21" s="60"/>
+      <c r="E21" s="59"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="58" t="s">
         <v>356</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="55" t="s">
         <v>256</v>
       </c>
-      <c r="E22" s="60"/>
+      <c r="E22" s="59"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="58" t="s">
         <v>365</v>
       </c>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="E23" s="60"/>
+      <c r="E23" s="59"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="58" t="s">
         <v>357</v>
       </c>
-      <c r="D24" s="56" t="s">
+      <c r="D24" s="55" t="s">
         <v>256</v>
       </c>
-      <c r="E24" s="60"/>
+      <c r="E24" s="59"/>
     </row>
     <row r="25" spans="1:5" ht="38.25">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="58" t="s">
         <v>280</v>
       </c>
-      <c r="D25" s="56" t="s">
+      <c r="D25" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="E25" s="60"/>
+      <c r="E25" s="59"/>
     </row>
     <row r="26" spans="1:5" ht="38.25">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="53" t="s">
         <v>278</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="58" t="s">
         <v>279</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="E26" s="60"/>
+      <c r="E26" s="59"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="58" t="s">
         <v>346</v>
       </c>
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="55" t="s">
         <v>256</v>
       </c>
-      <c r="E27" s="60" t="s">
+      <c r="E27" s="59" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="D28" s="56" t="s">
+      <c r="D28" s="55" t="s">
         <v>256</v>
       </c>
-      <c r="E28" s="60" t="s">
+      <c r="E28" s="59" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="53" t="s">
         <v>304</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="58" t="s">
         <v>305</v>
       </c>
-      <c r="D29" s="56" t="s">
+      <c r="D29" s="55" t="s">
         <v>298</v>
       </c>
-      <c r="E29" s="60" t="s">
+      <c r="E29" s="59" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="74.25" customHeight="1">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="58" t="s">
         <v>358</v>
       </c>
-      <c r="D30" s="56" t="s">
+      <c r="D30" s="55" t="s">
         <v>256</v>
       </c>
-      <c r="E30" s="61" t="s">
+      <c r="E30" s="60" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="D31" s="51" t="s">
+      <c r="D31" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="E31" s="64" t="s">
+      <c r="E31" s="63" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="49" t="s">
         <v>359</v>
       </c>
-      <c r="D32" s="51" t="s">
+      <c r="D32" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="E32" s="52"/>
+      <c r="E32" s="51"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="62" t="s">
+      <c r="A33" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="62" t="s">
         <v>226</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="49" t="s">
         <v>360</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="E33" s="52"/>
+      <c r="E33" s="51"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="C34" s="65" t="s">
+      <c r="C34" s="64" t="s">
         <v>237</v>
       </c>
-      <c r="D34" s="51" t="s">
+      <c r="D34" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="E34" s="51"/>
+      <c r="E34" s="50"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="D35" s="51" t="s">
+      <c r="D35" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="E35" s="52"/>
+      <c r="E35" s="51"/>
     </row>
     <row r="36" spans="1:5" ht="31.5">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="B36" s="63" t="s">
+      <c r="B36" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="D36" s="51" t="s">
+      <c r="D36" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="E36" s="104" t="s">
+      <c r="E36" s="103" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="71" t="s">
+      <c r="A37" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="B37" s="72" t="s">
+      <c r="B37" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="73" t="s">
+      <c r="C37" s="72" t="s">
         <v>233</v>
       </c>
-      <c r="D37" s="74" t="s">
+      <c r="D37" s="73" t="s">
         <v>256</v>
       </c>
-      <c r="E37" s="75"/>
+      <c r="E37" s="74"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="71" t="s">
+      <c r="A38" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="75" t="s">
         <v>277</v>
       </c>
-      <c r="C38" s="73" t="s">
+      <c r="C38" s="72" t="s">
         <v>231</v>
       </c>
-      <c r="D38" s="74" t="s">
+      <c r="D38" s="73" t="s">
         <v>256</v>
       </c>
-      <c r="E38" s="75"/>
+      <c r="E38" s="74"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="71" t="s">
+      <c r="A39" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="B39" s="72" t="s">
+      <c r="B39" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="73" t="s">
+      <c r="C39" s="72" t="s">
         <v>361</v>
       </c>
-      <c r="D39" s="74" t="s">
+      <c r="D39" s="73" t="s">
         <v>256</v>
       </c>
-      <c r="E39" s="75"/>
+      <c r="E39" s="74"/>
     </row>
     <row r="40" spans="1:5" ht="31.5">
-      <c r="A40" s="71" t="s">
+      <c r="A40" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="B40" s="72" t="s">
+      <c r="B40" s="71" t="s">
         <v>232</v>
       </c>
-      <c r="C40" s="73" t="s">
+      <c r="C40" s="72" t="s">
         <v>234</v>
       </c>
-      <c r="D40" s="74" t="s">
+      <c r="D40" s="73" t="s">
         <v>256</v>
       </c>
-      <c r="E40" s="105" t="s">
+      <c r="E40" s="104" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="66" t="s">
+      <c r="A41" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="B41" s="67" t="s">
+      <c r="B41" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="68" t="s">
+      <c r="C41" s="67" t="s">
         <v>362</v>
       </c>
-      <c r="D41" s="69" t="s">
+      <c r="D41" s="68" t="s">
         <v>256</v>
       </c>
-      <c r="E41" s="77" t="s">
+      <c r="E41" s="76" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="66" t="s">
+      <c r="A42" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="66" t="s">
         <v>238</v>
       </c>
-      <c r="C42" s="68" t="s">
+      <c r="C42" s="67" t="s">
         <v>244</v>
       </c>
-      <c r="D42" s="78" t="s">
+      <c r="D42" s="77" t="s">
         <v>255</v>
       </c>
-      <c r="E42" s="70"/>
+      <c r="E42" s="69"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="66" t="s">
+      <c r="A43" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="B43" s="67" t="s">
+      <c r="B43" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="C43" s="68" t="s">
+      <c r="C43" s="67" t="s">
         <v>239</v>
       </c>
-      <c r="D43" s="69" t="s">
+      <c r="D43" s="68" t="s">
         <v>255</v>
       </c>
-      <c r="E43" s="70"/>
+      <c r="E43" s="69"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="66" t="s">
+      <c r="A44" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="B44" s="67" t="s">
+      <c r="B44" s="66" t="s">
         <v>242</v>
       </c>
-      <c r="C44" s="68" t="s">
+      <c r="C44" s="67" t="s">
         <v>240</v>
       </c>
-      <c r="D44" s="69" t="s">
+      <c r="D44" s="68" t="s">
         <v>256</v>
       </c>
-      <c r="E44" s="70"/>
+      <c r="E44" s="69"/>
     </row>
     <row r="45" spans="1:5" ht="38.25">
-      <c r="A45" s="66" t="s">
+      <c r="A45" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="B45" s="67" t="s">
+      <c r="B45" s="66" t="s">
         <v>243</v>
       </c>
-      <c r="C45" s="68" t="s">
+      <c r="C45" s="67" t="s">
         <v>363</v>
       </c>
-      <c r="D45" s="78" t="s">
+      <c r="D45" s="77" t="s">
         <v>255</v>
       </c>
-      <c r="E45" s="70"/>
+      <c r="E45" s="69"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="66" t="s">
+      <c r="A46" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="B46" s="67" t="s">
+      <c r="B46" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="68" t="s">
+      <c r="C46" s="67" t="s">
         <v>361</v>
       </c>
-      <c r="D46" s="69" t="s">
+      <c r="D46" s="68" t="s">
         <v>256</v>
       </c>
-      <c r="E46" s="70"/>
+      <c r="E46" s="69"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="79" t="s">
+      <c r="A47" s="78" t="s">
         <v>247</v>
       </c>
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="D47" s="80" t="s">
+      <c r="D47" s="79" t="s">
         <v>256</v>
       </c>
-      <c r="E47" s="57" t="s">
+      <c r="E47" s="56" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="79" t="s">
+      <c r="A48" s="78" t="s">
         <v>247</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="59" t="s">
+      <c r="C48" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="D48" s="80" t="s">
+      <c r="D48" s="79" t="s">
         <v>255</v>
       </c>
-      <c r="E48" s="60"/>
+      <c r="E48" s="59"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="79" t="s">
+      <c r="A49" s="78" t="s">
         <v>247</v>
       </c>
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="59" t="s">
+      <c r="C49" s="58" t="s">
         <v>281</v>
       </c>
-      <c r="D49" s="80" t="s">
+      <c r="D49" s="79" t="s">
         <v>255</v>
       </c>
-      <c r="E49" s="60"/>
+      <c r="E49" s="59"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="79" t="s">
+      <c r="A50" s="78" t="s">
         <v>247</v>
       </c>
-      <c r="B50" s="54" t="s">
+      <c r="B50" s="53" t="s">
         <v>319</v>
       </c>
-      <c r="C50" s="59" t="s">
+      <c r="C50" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="D50" s="80" t="s">
+      <c r="D50" s="79" t="s">
         <v>256</v>
       </c>
-      <c r="E50" s="60"/>
+      <c r="E50" s="59"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="79" t="s">
+      <c r="A51" s="78" t="s">
         <v>247</v>
       </c>
-      <c r="B51" s="54" t="s">
+      <c r="B51" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="59" t="s">
+      <c r="C51" s="58" t="s">
         <v>260</v>
       </c>
-      <c r="D51" s="80" t="s">
+      <c r="D51" s="79" t="s">
         <v>256</v>
       </c>
-      <c r="E51" s="60"/>
+      <c r="E51" s="59"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="81" t="s">
+      <c r="A52" s="80" t="s">
         <v>250</v>
       </c>
-      <c r="B52" s="82" t="s">
+      <c r="B52" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="83" t="s">
+      <c r="C52" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="D52" s="84" t="s">
+      <c r="D52" s="83" t="s">
         <v>256</v>
       </c>
-      <c r="E52" s="85" t="s">
+      <c r="E52" s="84" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="81" t="s">
+      <c r="A53" s="80" t="s">
         <v>250</v>
       </c>
-      <c r="B53" s="82" t="s">
+      <c r="B53" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="83" t="s">
+      <c r="C53" s="82" t="s">
         <v>252</v>
       </c>
-      <c r="D53" s="84" t="s">
+      <c r="D53" s="83" t="s">
         <v>255</v>
       </c>
-      <c r="E53" s="86"/>
+      <c r="E53" s="85"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="81" t="s">
+      <c r="A54" s="80" t="s">
         <v>250</v>
       </c>
-      <c r="B54" s="82" t="s">
+      <c r="B54" s="81" t="s">
         <v>319</v>
       </c>
-      <c r="C54" s="83" t="s">
+      <c r="C54" s="82" t="s">
         <v>320</v>
       </c>
-      <c r="D54" s="84" t="s">
+      <c r="D54" s="83" t="s">
         <v>256</v>
       </c>
-      <c r="E54" s="86"/>
+      <c r="E54" s="85"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="81" t="s">
+      <c r="A55" s="80" t="s">
         <v>250</v>
       </c>
-      <c r="B55" s="82" t="s">
+      <c r="B55" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="83" t="s">
+      <c r="C55" s="82" t="s">
         <v>260</v>
       </c>
-      <c r="D55" s="84" t="s">
+      <c r="D55" s="83" t="s">
         <v>256</v>
       </c>
-      <c r="E55" s="86"/>
+      <c r="E55" s="85"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="87" t="s">
+      <c r="A56" s="86" t="s">
         <v>290</v>
       </c>
-      <c r="B56" s="88" t="s">
+      <c r="B56" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="89" t="s">
+      <c r="C56" s="88" t="s">
         <v>291</v>
       </c>
-      <c r="D56" s="90" t="s">
+      <c r="D56" s="89" t="s">
         <v>256</v>
       </c>
-      <c r="E56" s="91" t="s">
+      <c r="E56" s="90" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="87" t="s">
+      <c r="A57" s="86" t="s">
         <v>290</v>
       </c>
-      <c r="B57" s="88" t="s">
+      <c r="B57" s="87" t="s">
         <v>303</v>
       </c>
-      <c r="C57" s="89" t="s">
+      <c r="C57" s="88" t="s">
         <v>292</v>
       </c>
-      <c r="D57" s="90" t="s">
+      <c r="D57" s="89" t="s">
         <v>255</v>
       </c>
-      <c r="E57" s="75"/>
+      <c r="E57" s="74"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="87" t="s">
+      <c r="A58" s="86" t="s">
         <v>290</v>
       </c>
-      <c r="B58" s="88" t="s">
+      <c r="B58" s="87" t="s">
         <v>294</v>
       </c>
-      <c r="C58" s="89" t="s">
+      <c r="C58" s="88" t="s">
         <v>296</v>
       </c>
-      <c r="D58" s="90" t="s">
+      <c r="D58" s="89" t="s">
         <v>298</v>
       </c>
-      <c r="E58" s="75"/>
+      <c r="E58" s="74"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="87" t="s">
+      <c r="A59" s="86" t="s">
         <v>290</v>
       </c>
-      <c r="B59" s="88" t="s">
+      <c r="B59" s="87" t="s">
         <v>295</v>
       </c>
-      <c r="C59" s="89" t="s">
+      <c r="C59" s="88" t="s">
         <v>297</v>
       </c>
-      <c r="D59" s="90" t="s">
+      <c r="D59" s="89" t="s">
         <v>298</v>
       </c>
-      <c r="E59" s="75"/>
+      <c r="E59" s="74"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="87" t="s">
+      <c r="A60" s="86" t="s">
         <v>290</v>
       </c>
-      <c r="B60" s="88" t="s">
+      <c r="B60" s="87" t="s">
         <v>299</v>
       </c>
-      <c r="C60" s="89" t="s">
+      <c r="C60" s="88" t="s">
         <v>300</v>
       </c>
-      <c r="D60" s="90" t="s">
+      <c r="D60" s="89" t="s">
         <v>298</v>
       </c>
-      <c r="E60" s="75"/>
+      <c r="E60" s="74"/>
     </row>
     <row r="61" spans="1:5" ht="38.25">
-      <c r="A61" s="87" t="s">
+      <c r="A61" s="86" t="s">
         <v>290</v>
       </c>
-      <c r="B61" s="92" t="s">
+      <c r="B61" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="89" t="s">
+      <c r="C61" s="88" t="s">
         <v>306</v>
       </c>
-      <c r="D61" s="90" t="s">
+      <c r="D61" s="89" t="s">
         <v>256</v>
       </c>
-      <c r="E61" s="75"/>
+      <c r="E61" s="74"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="93" t="s">
+      <c r="A62" s="92" t="s">
         <v>289</v>
       </c>
-      <c r="B62" s="94" t="s">
+      <c r="B62" s="93" t="s">
         <v>277</v>
       </c>
-      <c r="C62" s="95" t="s">
+      <c r="C62" s="94" t="s">
         <v>338</v>
       </c>
-      <c r="D62" s="96" t="s">
+      <c r="D62" s="95" t="s">
         <v>256</v>
       </c>
-      <c r="E62" s="97"/>
+      <c r="E62" s="96"/>
     </row>
     <row r="63" spans="1:5" ht="38.25">
-      <c r="A63" s="93" t="s">
+      <c r="A63" s="92" t="s">
         <v>289</v>
       </c>
-      <c r="B63" s="94" t="s">
+      <c r="B63" s="93" t="s">
         <v>293</v>
       </c>
-      <c r="C63" s="95" t="s">
+      <c r="C63" s="94" t="s">
         <v>336</v>
       </c>
-      <c r="D63" s="96" t="s">
+      <c r="D63" s="95" t="s">
         <v>256</v>
       </c>
-      <c r="E63" s="97"/>
+      <c r="E63" s="96"/>
     </row>
     <row r="64" spans="1:5" ht="38.25">
-      <c r="A64" s="93" t="s">
+      <c r="A64" s="92" t="s">
         <v>289</v>
       </c>
-      <c r="B64" s="94" t="s">
+      <c r="B64" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="95" t="s">
+      <c r="C64" s="94" t="s">
         <v>337</v>
       </c>
-      <c r="D64" s="96" t="s">
+      <c r="D64" s="95" t="s">
         <v>256</v>
       </c>
-      <c r="E64" s="97"/>
+      <c r="E64" s="96"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="93" t="s">
+      <c r="A65" s="92" t="s">
         <v>289</v>
       </c>
-      <c r="B65" s="94" t="s">
+      <c r="B65" s="93" t="s">
         <v>301</v>
       </c>
-      <c r="C65" s="98" t="s">
+      <c r="C65" s="97" t="s">
         <v>302</v>
       </c>
-      <c r="D65" s="96" t="s">
+      <c r="D65" s="95" t="s">
         <v>298</v>
       </c>
-      <c r="E65" s="97"/>
+      <c r="E65" s="96"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="93" t="s">
+      <c r="A66" s="92" t="s">
         <v>289</v>
       </c>
-      <c r="B66" s="94" t="s">
+      <c r="B66" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="C66" s="98" t="s">
+      <c r="C66" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="D66" s="96" t="s">
+      <c r="D66" s="95" t="s">
         <v>256</v>
       </c>
-      <c r="E66" s="97"/>
+      <c r="E66" s="96"/>
     </row>
     <row r="67" spans="1:5" ht="61.5" customHeight="1">
-      <c r="A67" s="93" t="s">
+      <c r="A67" s="92" t="s">
         <v>289</v>
       </c>
-      <c r="B67" s="94" t="s">
+      <c r="B67" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="C67" s="98" t="s">
+      <c r="C67" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="D67" s="96" t="s">
+      <c r="D67" s="95" t="s">
         <v>256</v>
       </c>
-      <c r="E67" s="99" t="s">
+      <c r="E67" s="98" t="s">
         <v>344</v>
       </c>
     </row>
@@ -4771,9 +4770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
@@ -4788,12 +4785,12 @@
     <col min="9" max="9" width="25.42578125" customWidth="1"/>
     <col min="10" max="10" width="34.42578125" customWidth="1"/>
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19" style="36" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="19" t="s">
@@ -4826,10 +4823,10 @@
       <c r="K1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="34" t="s">
         <v>42</v>
       </c>
       <c r="N1" t="s">
@@ -4852,7 +4849,7 @@
       <c r="E2" t="s">
         <v>315</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="33" t="s">
         <v>317</v>
       </c>
       <c r="G2" t="s">
@@ -4870,10 +4867,10 @@
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="L2" s="36">
+      <c r="L2" s="35">
         <v>1582103204370</v>
       </c>
-      <c r="M2" s="36">
+      <c r="M2" s="35">
         <v>1582792430187</v>
       </c>
       <c r="N2">
@@ -4896,7 +4893,7 @@
       <c r="E3" t="s">
         <v>316</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="33" t="s">
         <v>317</v>
       </c>
       <c r="G3" t="s">
@@ -4914,10 +4911,10 @@
       <c r="K3">
         <v>99</v>
       </c>
-      <c r="L3" s="36">
+      <c r="L3" s="35">
         <v>1582103204370</v>
       </c>
-      <c r="M3" s="36">
+      <c r="M3" s="35">
         <v>1582792430187</v>
       </c>
       <c r="N3">
@@ -4940,7 +4937,7 @@
       <c r="E4" t="s">
         <v>323</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="33" t="s">
         <v>317</v>
       </c>
       <c r="G4" t="s">
@@ -4958,10 +4955,10 @@
       <c r="K4">
         <v>1</v>
       </c>
-      <c r="L4" s="36">
+      <c r="L4" s="35">
         <v>1582103204370</v>
       </c>
-      <c r="M4" s="36">
+      <c r="M4" s="35">
         <v>1582792430187</v>
       </c>
       <c r="N4">
@@ -4990,7 +4987,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -5003,19 +5000,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5169,16 +5166,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5277,7 +5274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -5292,22 +5289,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="31" t="s">
         <v>299</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5426,63 +5423,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="35" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="100" t="s">
         <v>236</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="101" t="s">
+      <c r="F1" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="102" t="s">
+      <c r="G1" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="101" t="s">
+      <c r="H1" s="100" t="s">
         <v>267</v>
       </c>
-      <c r="I1" s="101" t="s">
+      <c r="I1" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="101" t="s">
+      <c r="J1" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="101" t="s">
+      <c r="K1" s="100" t="s">
         <v>278</v>
       </c>
-      <c r="L1" s="101" t="s">
+      <c r="L1" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="101" t="s">
+      <c r="M1" s="100" t="s">
         <v>245</v>
       </c>
-      <c r="N1" s="101" t="s">
+      <c r="N1" s="100" t="s">
         <v>304</v>
       </c>
-      <c r="O1" s="103" t="s">
+      <c r="O1" s="102" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5502,7 +5497,7 @@
       <c r="F2">
         <v>3</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="35">
         <v>1590045283916</v>
       </c>
       <c r="H2" t="s">
@@ -5537,7 +5532,7 @@
       <c r="F3">
         <v>3</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="35">
         <v>1590045323073</v>
       </c>
       <c r="H3" t="s">
@@ -5572,7 +5567,7 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="35">
         <v>1590045603862</v>
       </c>
       <c r="H4" t="s">
@@ -5607,7 +5602,7 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="35">
         <v>1590045634319</v>
       </c>
       <c r="H5" t="s">
@@ -5642,7 +5637,7 @@
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="35">
         <v>1590047016939</v>
       </c>
       <c r="H6" t="s">
@@ -5677,7 +5672,7 @@
       <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="35">
         <v>1590047072983</v>
       </c>
       <c r="H7" t="s">

--- a/db/excel/sqlite-inovation-manager-v1.xlsx
+++ b/db/excel/sqlite-inovation-manager-v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DINHNV\MyData\LAPTRINH\NODE4\node4-inovation\db\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C82E25-FC38-4E79-A4CF-2B0F6ADF4B43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF19C25-0B3C-4300-B42B-D5F35876C2AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="ideas_questions" sheetId="22" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$E$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$E$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">users!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="145621" iterateDelta="1E-4" concurrentCalc="0"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="368">
   <si>
     <t>table_name</t>
   </si>
@@ -1179,6 +1179,9 @@
   </si>
   <si>
     <t>, FOREIGN KEY (user_id) REFERENCES users(id), FOREIGN KEY (idea_id) REFERENCES ideas(id)</t>
+  </si>
+  <si>
+    <t>Mã tự tăng</t>
   </si>
 </sst>
 </file>
@@ -2595,10 +2598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMI67"/>
+  <dimension ref="A1:AMI68"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.25"/>
@@ -4193,26 +4196,28 @@
       <c r="A37" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="B37" s="71" t="s">
-        <v>13</v>
+      <c r="B37" s="72" t="s">
+        <v>6</v>
       </c>
       <c r="C37" s="72" t="s">
-        <v>233</v>
-      </c>
-      <c r="D37" s="73" t="s">
+        <v>367</v>
+      </c>
+      <c r="D37" s="72" t="s">
         <v>256</v>
       </c>
-      <c r="E37" s="74"/>
+      <c r="E37" s="72" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="B38" s="75" t="s">
-        <v>277</v>
+      <c r="B38" s="71" t="s">
+        <v>13</v>
       </c>
       <c r="C38" s="72" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D38" s="73" t="s">
         <v>256</v>
@@ -4223,49 +4228,47 @@
       <c r="A39" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="B39" s="71" t="s">
-        <v>14</v>
+      <c r="B39" s="75" t="s">
+        <v>277</v>
       </c>
       <c r="C39" s="72" t="s">
-        <v>361</v>
+        <v>231</v>
       </c>
       <c r="D39" s="73" t="s">
         <v>256</v>
       </c>
       <c r="E39" s="74"/>
     </row>
-    <row r="40" spans="1:5" ht="31.5">
+    <row r="40" spans="1:5">
       <c r="A40" s="70" t="s">
         <v>230</v>
       </c>
       <c r="B40" s="71" t="s">
-        <v>232</v>
+        <v>14</v>
       </c>
       <c r="C40" s="72" t="s">
-        <v>234</v>
+        <v>361</v>
       </c>
       <c r="D40" s="73" t="s">
         <v>256</v>
       </c>
-      <c r="E40" s="104" t="s">
+      <c r="E40" s="74"/>
+    </row>
+    <row r="41" spans="1:5" ht="31.5">
+      <c r="A41" s="70" t="s">
+        <v>230</v>
+      </c>
+      <c r="B41" s="71" t="s">
+        <v>232</v>
+      </c>
+      <c r="C41" s="72" t="s">
+        <v>234</v>
+      </c>
+      <c r="D41" s="73" t="s">
+        <v>256</v>
+      </c>
+      <c r="E41" s="104" t="s">
         <v>366</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="65" t="s">
-        <v>235</v>
-      </c>
-      <c r="B41" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="67" t="s">
-        <v>362</v>
-      </c>
-      <c r="D41" s="68" t="s">
-        <v>256</v>
-      </c>
-      <c r="E41" s="76" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4273,27 +4276,29 @@
         <v>235</v>
       </c>
       <c r="B42" s="66" t="s">
-        <v>238</v>
+        <v>6</v>
       </c>
       <c r="C42" s="67" t="s">
-        <v>244</v>
-      </c>
-      <c r="D42" s="77" t="s">
-        <v>255</v>
-      </c>
-      <c r="E42" s="69"/>
+        <v>362</v>
+      </c>
+      <c r="D42" s="68" t="s">
+        <v>256</v>
+      </c>
+      <c r="E42" s="76" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="65" t="s">
         <v>235</v>
       </c>
       <c r="B43" s="66" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C43" s="67" t="s">
-        <v>239</v>
-      </c>
-      <c r="D43" s="68" t="s">
+        <v>244</v>
+      </c>
+      <c r="D43" s="77" t="s">
         <v>255</v>
       </c>
       <c r="E43" s="69"/>
@@ -4303,87 +4308,87 @@
         <v>235</v>
       </c>
       <c r="B44" s="66" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C44" s="67" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D44" s="68" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E44" s="69"/>
     </row>
-    <row r="45" spans="1:5" ht="38.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="65" t="s">
         <v>235</v>
       </c>
       <c r="B45" s="66" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C45" s="67" t="s">
-        <v>363</v>
-      </c>
-      <c r="D45" s="77" t="s">
-        <v>255</v>
+        <v>240</v>
+      </c>
+      <c r="D45" s="68" t="s">
+        <v>256</v>
       </c>
       <c r="E45" s="69"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" ht="38.25">
       <c r="A46" s="65" t="s">
         <v>235</v>
       </c>
       <c r="B46" s="66" t="s">
+        <v>243</v>
+      </c>
+      <c r="C46" s="67" t="s">
+        <v>363</v>
+      </c>
+      <c r="D46" s="77" t="s">
+        <v>255</v>
+      </c>
+      <c r="E46" s="69"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="65" t="s">
+        <v>235</v>
+      </c>
+      <c r="B47" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="67" t="s">
+      <c r="C47" s="67" t="s">
         <v>361</v>
       </c>
-      <c r="D46" s="68" t="s">
+      <c r="D47" s="68" t="s">
         <v>256</v>
       </c>
-      <c r="E46" s="69"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="78" t="s">
-        <v>247</v>
-      </c>
-      <c r="B47" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="58" t="s">
-        <v>248</v>
-      </c>
-      <c r="D47" s="79" t="s">
-        <v>256</v>
-      </c>
-      <c r="E47" s="56" t="s">
-        <v>257</v>
-      </c>
+      <c r="E47" s="69"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="78" t="s">
         <v>247</v>
       </c>
       <c r="B48" s="53" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C48" s="58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D48" s="79" t="s">
-        <v>255</v>
-      </c>
-      <c r="E48" s="59"/>
+        <v>256</v>
+      </c>
+      <c r="E48" s="56" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="78" t="s">
         <v>247</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="C49" s="58" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="D49" s="79" t="s">
         <v>255</v>
@@ -4395,13 +4400,13 @@
         <v>247</v>
       </c>
       <c r="B50" s="53" t="s">
-        <v>319</v>
+        <v>53</v>
       </c>
       <c r="C50" s="58" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="D50" s="79" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E50" s="59"/>
     </row>
@@ -4410,10 +4415,10 @@
         <v>247</v>
       </c>
       <c r="B51" s="53" t="s">
-        <v>5</v>
+        <v>319</v>
       </c>
       <c r="C51" s="58" t="s">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="D51" s="79" t="s">
         <v>256</v>
@@ -4421,49 +4426,49 @@
       <c r="E51" s="59"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="80" t="s">
-        <v>250</v>
-      </c>
-      <c r="B52" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="82" t="s">
-        <v>251</v>
-      </c>
-      <c r="D52" s="83" t="s">
+      <c r="A52" s="78" t="s">
+        <v>247</v>
+      </c>
+      <c r="B52" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="58" t="s">
+        <v>260</v>
+      </c>
+      <c r="D52" s="79" t="s">
         <v>256</v>
       </c>
-      <c r="E52" s="84" t="s">
-        <v>257</v>
-      </c>
+      <c r="E52" s="59"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="80" t="s">
         <v>250</v>
       </c>
       <c r="B53" s="81" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C53" s="82" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D53" s="83" t="s">
-        <v>255</v>
-      </c>
-      <c r="E53" s="85"/>
+        <v>256</v>
+      </c>
+      <c r="E53" s="84" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="80" t="s">
         <v>250</v>
       </c>
       <c r="B54" s="81" t="s">
-        <v>319</v>
+        <v>23</v>
       </c>
       <c r="C54" s="82" t="s">
-        <v>320</v>
+        <v>252</v>
       </c>
       <c r="D54" s="83" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E54" s="85"/>
     </row>
@@ -4472,10 +4477,10 @@
         <v>250</v>
       </c>
       <c r="B55" s="81" t="s">
-        <v>5</v>
+        <v>319</v>
       </c>
       <c r="C55" s="82" t="s">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="D55" s="83" t="s">
         <v>256</v>
@@ -4483,49 +4488,49 @@
       <c r="E55" s="85"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="86" t="s">
-        <v>290</v>
-      </c>
-      <c r="B56" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="88" t="s">
-        <v>291</v>
-      </c>
-      <c r="D56" s="89" t="s">
+      <c r="A56" s="80" t="s">
+        <v>250</v>
+      </c>
+      <c r="B56" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="82" t="s">
+        <v>260</v>
+      </c>
+      <c r="D56" s="83" t="s">
         <v>256</v>
       </c>
-      <c r="E56" s="90" t="s">
-        <v>257</v>
-      </c>
+      <c r="E56" s="85"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="86" t="s">
         <v>290</v>
       </c>
       <c r="B57" s="87" t="s">
-        <v>303</v>
+        <v>6</v>
       </c>
       <c r="C57" s="88" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D57" s="89" t="s">
-        <v>255</v>
-      </c>
-      <c r="E57" s="74"/>
+        <v>256</v>
+      </c>
+      <c r="E57" s="90" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="86" t="s">
         <v>290</v>
       </c>
       <c r="B58" s="87" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C58" s="88" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D58" s="89" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="E58" s="74"/>
     </row>
@@ -4534,10 +4539,10 @@
         <v>290</v>
       </c>
       <c r="B59" s="87" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C59" s="88" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D59" s="89" t="s">
         <v>298</v>
@@ -4549,55 +4554,55 @@
         <v>290</v>
       </c>
       <c r="B60" s="87" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C60" s="88" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D60" s="89" t="s">
         <v>298</v>
       </c>
       <c r="E60" s="74"/>
     </row>
-    <row r="61" spans="1:5" ht="38.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="86" t="s">
         <v>290</v>
       </c>
-      <c r="B61" s="91" t="s">
+      <c r="B61" s="87" t="s">
+        <v>299</v>
+      </c>
+      <c r="C61" s="88" t="s">
+        <v>300</v>
+      </c>
+      <c r="D61" s="89" t="s">
+        <v>298</v>
+      </c>
+      <c r="E61" s="74"/>
+    </row>
+    <row r="62" spans="1:5" ht="38.25">
+      <c r="A62" s="86" t="s">
+        <v>290</v>
+      </c>
+      <c r="B62" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="88" t="s">
+      <c r="C62" s="88" t="s">
         <v>306</v>
       </c>
-      <c r="D61" s="89" t="s">
+      <c r="D62" s="89" t="s">
         <v>256</v>
       </c>
-      <c r="E61" s="74"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="92" t="s">
-        <v>289</v>
-      </c>
-      <c r="B62" s="93" t="s">
-        <v>277</v>
-      </c>
-      <c r="C62" s="94" t="s">
-        <v>338</v>
-      </c>
-      <c r="D62" s="95" t="s">
-        <v>256</v>
-      </c>
-      <c r="E62" s="96"/>
-    </row>
-    <row r="63" spans="1:5" ht="38.25">
+      <c r="E62" s="74"/>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="92" t="s">
         <v>289</v>
       </c>
       <c r="B63" s="93" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="C63" s="94" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D63" s="95" t="s">
         <v>256</v>
@@ -4609,28 +4614,28 @@
         <v>289</v>
       </c>
       <c r="B64" s="93" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="C64" s="94" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D64" s="95" t="s">
         <v>256</v>
       </c>
       <c r="E64" s="96"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" ht="38.25">
       <c r="A65" s="92" t="s">
         <v>289</v>
       </c>
       <c r="B65" s="93" t="s">
-        <v>301</v>
-      </c>
-      <c r="C65" s="97" t="s">
-        <v>302</v>
+        <v>13</v>
+      </c>
+      <c r="C65" s="94" t="s">
+        <v>337</v>
       </c>
       <c r="D65" s="95" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="E65" s="96"/>
     </row>
@@ -4639,35 +4644,50 @@
         <v>289</v>
       </c>
       <c r="B66" s="93" t="s">
-        <v>14</v>
+        <v>301</v>
       </c>
       <c r="C66" s="97" t="s">
-        <v>32</v>
+        <v>302</v>
       </c>
       <c r="D66" s="95" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="E66" s="96"/>
     </row>
-    <row r="67" spans="1:5" ht="61.5" customHeight="1">
+    <row r="67" spans="1:5">
       <c r="A67" s="92" t="s">
         <v>289</v>
       </c>
       <c r="B67" s="93" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C67" s="97" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="D67" s="95" t="s">
         <v>256</v>
       </c>
-      <c r="E67" s="98" t="s">
+      <c r="E67" s="96"/>
+    </row>
+    <row r="68" spans="1:5" ht="61.5" customHeight="1">
+      <c r="A68" s="92" t="s">
+        <v>289</v>
+      </c>
+      <c r="B68" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" s="97" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68" s="95" t="s">
+        <v>256</v>
+      </c>
+      <c r="E68" s="98" t="s">
         <v>344</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E55" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E56" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
@@ -5274,7 +5294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>

--- a/db/excel/sqlite-inovation-manager-v1.xlsx
+++ b/db/excel/sqlite-inovation-manager-v1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DINHNV\MyData\LAPTRINH\NODE4\node4-inovation\db\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF19C25-0B3C-4300-B42B-D5F35876C2AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
@@ -45,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="359">
   <si>
     <t>table_name</t>
   </si>
@@ -248,9 +242,6 @@
     <t>change_time</t>
   </si>
   <si>
-    <t>Thời gian thay đổi tham số</t>
-  </si>
-  <si>
     <t>delete_logentry</t>
   </si>
   <si>
@@ -914,9 +905,6 @@
     <t>burlywood</t>
   </si>
   <si>
-    <t>ideas_marks</t>
-  </si>
-  <si>
     <t>ideas_questions</t>
   </si>
   <si>
@@ -926,9 +914,6 @@
     <t>Câu hỏi gì để cho điểm</t>
   </si>
   <si>
-    <t>question_id</t>
-  </si>
-  <si>
     <t>min_point</t>
   </si>
   <si>
@@ -950,12 +935,6 @@
     <t>trọng số đánh giá này</t>
   </si>
   <si>
-    <t>point</t>
-  </si>
-  <si>
-    <t>cho mấy điểm</t>
-  </si>
-  <si>
     <t>question</t>
   </si>
   <si>
@@ -1055,48 +1034,6 @@
     <t>Mô tả Ý tưởng thứ hai của dinh99</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">câu hỏi nào </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(nhớ tạo PRIMARY KEY sau khi tạo đc csdl)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">user nào, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(nhớ tạo PRIMARY KEY sau khi tạo đc csdl)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ý tưởng nào </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(tạo PRIMARY KEY khi tạo csdl)</t>
-    </r>
-  </si>
-  <si>
     <t>Mô tả Ý tưởng đầu tiên của dinh1</t>
   </si>
   <si>
@@ -1110,9 +1047,6 @@
   </si>
   <si>
     <t>Có thể triển khai sau</t>
-  </si>
-  <si>
-    <t>, FOREIGN KEY (idea_id) REFERENCES ideas(id), FOREIGN KEY (question_id) REFERENCES ideas_questions(id), FOREIGN KEY (user_id) REFERENCES users(id)</t>
   </si>
   <si>
     <t>,  FOREIGN KEY (category_id) REFERENCES ideas_categories(id),  FOREIGN KEY (user_id) REFERENCES users(id),  FOREIGN KEY (status) REFERENCES ideas_statuses(id)</t>
@@ -1187,11 +1121,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1314,12 +1248,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1401,7 +1329,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1512,12 +1440,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
@@ -1790,7 +1712,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1904,108 +1826,95 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2597,11 +2506,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMI68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMI62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:XFD63"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.25"/>
@@ -3657,13 +3566,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="D2" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="E2" s="41" t="s">
         <v>256</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:1023">
@@ -3674,10 +3583,10 @@
         <v>45</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E3" s="41"/>
     </row>
@@ -3686,13 +3595,13 @@
         <v>43</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E4" s="41"/>
     </row>
@@ -3704,10 +3613,10 @@
         <v>46</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E5" s="41"/>
     </row>
@@ -3719,10 +3628,10 @@
         <v>47</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E6" s="41"/>
     </row>
@@ -3737,7 +3646,7 @@
         <v>49</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E7" s="41"/>
     </row>
@@ -3752,7 +3661,7 @@
         <v>51</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E8" s="41"/>
     </row>
@@ -3761,13 +3670,13 @@
         <v>43</v>
       </c>
       <c r="B9" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>259</v>
-      </c>
       <c r="D9" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E9" s="41"/>
     </row>
@@ -3779,10 +3688,10 @@
         <v>52</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E10" s="41"/>
     </row>
@@ -3794,10 +3703,10 @@
         <v>53</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E11" s="41"/>
     </row>
@@ -3809,10 +3718,10 @@
         <v>54</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E12" s="41" t="s">
         <v>28</v>
@@ -3829,7 +3738,7 @@
         <v>32</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E13" s="43"/>
     </row>
@@ -3844,7 +3753,7 @@
         <v>33</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E14" s="43"/>
     </row>
@@ -3856,10 +3765,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E15" s="45"/>
     </row>
@@ -3874,10 +3783,10 @@
         <v>19</v>
       </c>
       <c r="D16" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="E16" s="56" t="s">
         <v>256</v>
-      </c>
-      <c r="E16" s="56" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3891,7 +3800,7 @@
         <v>20</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E17" s="55"/>
     </row>
@@ -3903,10 +3812,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E18" s="55"/>
     </row>
@@ -3915,13 +3824,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="C19" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="C19" s="54" t="s">
-        <v>237</v>
-      </c>
       <c r="D19" s="55" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E19" s="55"/>
     </row>
@@ -3936,7 +3845,7 @@
         <v>21</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E20" s="59"/>
     </row>
@@ -3951,7 +3860,7 @@
         <v>22</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E21" s="59"/>
     </row>
@@ -3963,10 +3872,10 @@
         <v>14</v>
       </c>
       <c r="C22" s="58" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E22" s="59"/>
     </row>
@@ -3975,13 +3884,13 @@
         <v>18</v>
       </c>
       <c r="B23" s="53" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C23" s="58" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E23" s="59"/>
     </row>
@@ -3993,10 +3902,10 @@
         <v>15</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E24" s="59"/>
     </row>
@@ -4008,10 +3917,10 @@
         <v>17</v>
       </c>
       <c r="C25" s="58" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E25" s="59"/>
     </row>
@@ -4020,13 +3929,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="C26" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="C26" s="58" t="s">
-        <v>279</v>
-      </c>
       <c r="D26" s="55" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E26" s="59"/>
     </row>
@@ -4038,13 +3947,13 @@
         <v>16</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E27" s="59" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4052,16 +3961,16 @@
         <v>18</v>
       </c>
       <c r="B28" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28" s="58" t="s">
         <v>245</v>
       </c>
-      <c r="C28" s="58" t="s">
-        <v>246</v>
-      </c>
       <c r="D28" s="55" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E28" s="59" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4069,16 +3978,16 @@
         <v>18</v>
       </c>
       <c r="B29" s="53" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C29" s="58" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E29" s="59" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="74.25" customHeight="1">
@@ -4089,605 +3998,513 @@
         <v>11</v>
       </c>
       <c r="C30" s="58" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E30" s="60" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="61" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B31" s="62" t="s">
         <v>6</v>
       </c>
       <c r="C31" s="49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D31" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="E31" s="63" t="s">
         <v>256</v>
-      </c>
-      <c r="E31" s="63" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="61" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B32" s="62" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="49" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D32" s="50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E32" s="51"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="61" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B33" s="62" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D33" s="50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E33" s="51"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="61" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B34" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="C34" s="64" t="s">
         <v>236</v>
       </c>
-      <c r="C34" s="64" t="s">
-        <v>237</v>
-      </c>
       <c r="D34" s="50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E34" s="50"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="61" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B35" s="62" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D35" s="50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E35" s="51"/>
     </row>
     <row r="36" spans="1:5" ht="31.5">
       <c r="A36" s="61" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B36" s="62" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="49" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D36" s="50" t="s">
-        <v>256</v>
-      </c>
-      <c r="E36" s="103" t="s">
-        <v>366</v>
+        <v>255</v>
+      </c>
+      <c r="E36" s="96" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="70" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B37" s="72" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="72" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="D37" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="E37" s="72" t="s">
         <v>256</v>
-      </c>
-      <c r="E37" s="72" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="70" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B38" s="71" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D38" s="73" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E38" s="74"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="B39" s="75" t="s">
+        <v>276</v>
+      </c>
+      <c r="C39" s="72" t="s">
         <v>230</v>
       </c>
-      <c r="B39" s="75" t="s">
-        <v>277</v>
-      </c>
-      <c r="C39" s="72" t="s">
-        <v>231</v>
-      </c>
       <c r="D39" s="73" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E39" s="74"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="70" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B40" s="71" t="s">
         <v>14</v>
       </c>
       <c r="C40" s="72" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D40" s="73" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E40" s="74"/>
     </row>
     <row r="41" spans="1:5" ht="31.5">
       <c r="A41" s="70" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B41" s="71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C41" s="72" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D41" s="73" t="s">
-        <v>256</v>
-      </c>
-      <c r="E41" s="104" t="s">
-        <v>366</v>
+        <v>255</v>
+      </c>
+      <c r="E41" s="97" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B42" s="66" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="67" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D42" s="68" t="s">
+        <v>255</v>
+      </c>
+      <c r="E42" s="76" t="s">
         <v>256</v>
-      </c>
-      <c r="E42" s="76" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B43" s="66" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C43" s="67" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D43" s="77" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E43" s="69"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B44" s="66" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C44" s="67" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D44" s="68" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E44" s="69"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B45" s="66" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C45" s="67" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D45" s="68" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E45" s="69"/>
     </row>
     <row r="46" spans="1:5" ht="38.25">
       <c r="A46" s="65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B46" s="66" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C46" s="67" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D46" s="77" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E46" s="69"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B47" s="66" t="s">
         <v>14</v>
       </c>
       <c r="C47" s="67" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D47" s="68" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E47" s="69"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="78" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B48" s="53" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D48" s="79" t="s">
+        <v>255</v>
+      </c>
+      <c r="E48" s="56" t="s">
         <v>256</v>
-      </c>
-      <c r="E48" s="56" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="78" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B49" s="53" t="s">
         <v>23</v>
       </c>
       <c r="C49" s="58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D49" s="79" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E49" s="59"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="78" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B50" s="53" t="s">
         <v>53</v>
       </c>
       <c r="C50" s="58" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D50" s="79" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E50" s="59"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="78" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B51" s="53" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C51" s="58" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D51" s="79" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E51" s="59"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="78" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B52" s="53" t="s">
         <v>5</v>
       </c>
       <c r="C52" s="58" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D52" s="79" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E52" s="59"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="80" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B53" s="81" t="s">
         <v>6</v>
       </c>
       <c r="C53" s="82" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D53" s="83" t="s">
+        <v>255</v>
+      </c>
+      <c r="E53" s="84" t="s">
         <v>256</v>
-      </c>
-      <c r="E53" s="84" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="80" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B54" s="81" t="s">
         <v>23</v>
       </c>
       <c r="C54" s="82" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D54" s="83" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E54" s="85"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="80" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B55" s="81" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C55" s="82" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D55" s="83" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E55" s="85"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="80" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B56" s="81" t="s">
         <v>5</v>
       </c>
       <c r="C56" s="82" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D56" s="83" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E56" s="85"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="86" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B57" s="87" t="s">
         <v>6</v>
       </c>
       <c r="C57" s="88" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D57" s="89" t="s">
+        <v>255</v>
+      </c>
+      <c r="E57" s="90" t="s">
         <v>256</v>
-      </c>
-      <c r="E57" s="90" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="86" t="s">
+        <v>288</v>
+      </c>
+      <c r="B58" s="87" t="s">
+        <v>298</v>
+      </c>
+      <c r="C58" s="88" t="s">
         <v>290</v>
       </c>
-      <c r="B58" s="87" t="s">
-        <v>303</v>
-      </c>
-      <c r="C58" s="88" t="s">
-        <v>292</v>
-      </c>
       <c r="D58" s="89" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E58" s="74"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="86" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B59" s="87" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C59" s="88" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D59" s="89" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E59" s="74"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="86" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B60" s="87" t="s">
+        <v>292</v>
+      </c>
+      <c r="C60" s="88" t="s">
+        <v>294</v>
+      </c>
+      <c r="D60" s="89" t="s">
         <v>295</v>
-      </c>
-      <c r="C60" s="88" t="s">
-        <v>297</v>
-      </c>
-      <c r="D60" s="89" t="s">
-        <v>298</v>
       </c>
       <c r="E60" s="74"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="86" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B61" s="87" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C61" s="88" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D61" s="89" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E61" s="74"/>
     </row>
     <row r="62" spans="1:5" ht="38.25">
       <c r="A62" s="86" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B62" s="91" t="s">
         <v>5</v>
       </c>
       <c r="C62" s="88" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D62" s="89" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E62" s="74"/>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="92" t="s">
-        <v>289</v>
-      </c>
-      <c r="B63" s="93" t="s">
-        <v>277</v>
-      </c>
-      <c r="C63" s="94" t="s">
-        <v>338</v>
-      </c>
-      <c r="D63" s="95" t="s">
-        <v>256</v>
-      </c>
-      <c r="E63" s="96"/>
-    </row>
-    <row r="64" spans="1:5" ht="38.25">
-      <c r="A64" s="92" t="s">
-        <v>289</v>
-      </c>
-      <c r="B64" s="93" t="s">
-        <v>293</v>
-      </c>
-      <c r="C64" s="94" t="s">
-        <v>336</v>
-      </c>
-      <c r="D64" s="95" t="s">
-        <v>256</v>
-      </c>
-      <c r="E64" s="96"/>
-    </row>
-    <row r="65" spans="1:5" ht="38.25">
-      <c r="A65" s="92" t="s">
-        <v>289</v>
-      </c>
-      <c r="B65" s="93" t="s">
-        <v>13</v>
-      </c>
-      <c r="C65" s="94" t="s">
-        <v>337</v>
-      </c>
-      <c r="D65" s="95" t="s">
-        <v>256</v>
-      </c>
-      <c r="E65" s="96"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="92" t="s">
-        <v>289</v>
-      </c>
-      <c r="B66" s="93" t="s">
-        <v>301</v>
-      </c>
-      <c r="C66" s="97" t="s">
-        <v>302</v>
-      </c>
-      <c r="D66" s="95" t="s">
-        <v>298</v>
-      </c>
-      <c r="E66" s="96"/>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="92" t="s">
-        <v>289</v>
-      </c>
-      <c r="B67" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67" s="97" t="s">
-        <v>32</v>
-      </c>
-      <c r="D67" s="95" t="s">
-        <v>256</v>
-      </c>
-      <c r="E67" s="96"/>
-    </row>
-    <row r="68" spans="1:5" ht="61.5" customHeight="1">
-      <c r="A68" s="92" t="s">
-        <v>289</v>
-      </c>
-      <c r="B68" s="93" t="s">
-        <v>42</v>
-      </c>
-      <c r="C68" s="97" t="s">
-        <v>67</v>
-      </c>
-      <c r="D68" s="95" t="s">
-        <v>256</v>
-      </c>
-      <c r="E68" s="98" t="s">
-        <v>344</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E56" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E56"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
@@ -4699,7 +4516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4787,7 +4604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4817,7 +4634,7 @@
         <v>45</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>46</v>
@@ -4832,7 +4649,7 @@
         <v>50</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I1" s="19" t="s">
         <v>52</v>
@@ -4858,31 +4675,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C2">
         <v>123</v>
       </c>
       <c r="D2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="G2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H2" t="s">
         <v>313</v>
       </c>
-      <c r="E2" t="s">
-        <v>315</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="G2" t="s">
-        <v>314</v>
-      </c>
-      <c r="H2" t="s">
-        <v>318</v>
-      </c>
       <c r="I2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="J2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -4902,31 +4719,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C3">
         <v>123</v>
       </c>
       <c r="D3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="G3" t="s">
+        <v>309</v>
+      </c>
+      <c r="H3" t="s">
         <v>313</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>316</v>
       </c>
-      <c r="F3" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="G3" t="s">
-        <v>314</v>
-      </c>
-      <c r="H3" t="s">
-        <v>318</v>
-      </c>
-      <c r="I3" t="s">
-        <v>321</v>
-      </c>
       <c r="J3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K3">
         <v>99</v>
@@ -4946,31 +4763,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C4">
         <v>123</v>
       </c>
       <c r="D4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="G4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H4" t="s">
         <v>313</v>
       </c>
-      <c r="E4" t="s">
-        <v>323</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="G4" t="s">
-        <v>314</v>
-      </c>
-      <c r="H4" t="s">
-        <v>318</v>
-      </c>
       <c r="I4" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="J4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -4986,11 +4803,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
+  <autoFilter ref="A1:N1"/>
   <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -5003,7 +4820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5030,7 +4847,7 @@
         <v>53</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>5</v>
@@ -5041,10 +4858,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4">
@@ -5056,10 +4873,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -5073,10 +4890,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4">
@@ -5088,10 +4905,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4">
@@ -5103,10 +4920,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4">
@@ -5118,10 +4935,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4">
@@ -5133,10 +4950,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4">
@@ -5148,10 +4965,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4">
@@ -5170,7 +4987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5193,7 +5010,7 @@
         <v>23</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>5</v>
@@ -5204,7 +5021,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4">
@@ -5216,7 +5033,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -5230,7 +5047,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4">
@@ -5242,7 +5059,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4">
@@ -5254,7 +5071,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4">
@@ -5266,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4">
@@ -5291,7 +5108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5313,16 +5130,16 @@
         <v>6</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>5</v>
@@ -5333,7 +5150,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5353,7 +5170,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5373,7 +5190,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -5393,7 +5210,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5413,7 +5230,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -5440,7 +5257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5455,49 +5272,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="100" t="s">
-        <v>236</v>
-      </c>
-      <c r="E1" s="100" t="s">
+      <c r="D1" s="93" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="101" t="s">
+      <c r="G1" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="100" t="s">
-        <v>267</v>
-      </c>
-      <c r="I1" s="100" t="s">
+      <c r="H1" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="I1" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="100" t="s">
+      <c r="J1" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="100" t="s">
-        <v>278</v>
-      </c>
-      <c r="L1" s="100" t="s">
+      <c r="K1" s="93" t="s">
+        <v>277</v>
+      </c>
+      <c r="L1" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="100" t="s">
-        <v>245</v>
-      </c>
-      <c r="N1" s="100" t="s">
-        <v>304</v>
-      </c>
-      <c r="O1" s="102" t="s">
+      <c r="M1" s="93" t="s">
+        <v>244</v>
+      </c>
+      <c r="N1" s="93" t="s">
+        <v>299</v>
+      </c>
+      <c r="O1" s="95" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5506,10 +5323,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -5521,7 +5338,7 @@
         <v>1590045283916</v>
       </c>
       <c r="H2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -5541,10 +5358,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -5556,7 +5373,7 @@
         <v>1590045323073</v>
       </c>
       <c r="H3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -5576,10 +5393,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" t="s">
         <v>331</v>
-      </c>
-      <c r="C4" t="s">
-        <v>339</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -5591,7 +5408,7 @@
         <v>1590045603862</v>
       </c>
       <c r="H4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -5611,10 +5428,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C5" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -5626,7 +5443,7 @@
         <v>1590045634319</v>
       </c>
       <c r="H5" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -5646,10 +5463,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C6" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -5661,7 +5478,7 @@
         <v>1590047016939</v>
       </c>
       <c r="H6" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -5681,10 +5498,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -5696,7 +5513,7 @@
         <v>1590047072983</v>
       </c>
       <c r="H7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -5718,7 +5535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5790,7 +5607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5863,7 +5680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5888,7 +5705,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>34</v>
@@ -5920,13 +5737,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>169</v>
-      </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5937,13 +5754,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>171</v>
-      </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5954,13 +5771,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>69</v>
-      </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5971,13 +5788,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>71</v>
-      </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5988,13 +5805,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>73</v>
-      </c>
       <c r="E6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6005,13 +5822,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>75</v>
-      </c>
       <c r="E7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6022,13 +5839,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>77</v>
-      </c>
       <c r="E8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6039,13 +5856,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>79</v>
-      </c>
       <c r="E9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6056,13 +5873,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>81</v>
-      </c>
       <c r="E10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6073,13 +5890,13 @@
         <v>3</v>
       </c>
       <c r="C11" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>83</v>
-      </c>
       <c r="E11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6090,13 +5907,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>85</v>
-      </c>
       <c r="E12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -6107,13 +5924,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="23" t="s">
-        <v>87</v>
-      </c>
       <c r="E13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -6124,13 +5941,13 @@
         <v>4</v>
       </c>
       <c r="C14" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>89</v>
-      </c>
       <c r="E14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6141,13 +5958,13 @@
         <v>4</v>
       </c>
       <c r="C15" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>91</v>
-      </c>
       <c r="E15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6158,13 +5975,13 @@
         <v>4</v>
       </c>
       <c r="C16" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>93</v>
-      </c>
       <c r="E16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6175,13 +5992,13 @@
         <v>4</v>
       </c>
       <c r="C17" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>95</v>
-      </c>
       <c r="E17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6192,13 +6009,13 @@
         <v>5</v>
       </c>
       <c r="C18" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>97</v>
-      </c>
       <c r="E18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6209,13 +6026,13 @@
         <v>5</v>
       </c>
       <c r="C19" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>99</v>
-      </c>
       <c r="E19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6226,13 +6043,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>101</v>
-      </c>
       <c r="E20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -6243,13 +6060,13 @@
         <v>5</v>
       </c>
       <c r="C21" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>103</v>
-      </c>
       <c r="E21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -6260,13 +6077,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="23" t="s">
-        <v>105</v>
-      </c>
       <c r="E22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -6277,13 +6094,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="23" t="s">
-        <v>107</v>
-      </c>
       <c r="E23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -6294,13 +6111,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>109</v>
-      </c>
       <c r="E24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -6311,13 +6128,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="D25" s="23" t="s">
-        <v>111</v>
-      </c>
       <c r="E25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -6328,13 +6145,13 @@
         <v>7</v>
       </c>
       <c r="C26" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D26" s="23" t="s">
-        <v>113</v>
-      </c>
       <c r="E26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -6345,13 +6162,13 @@
         <v>7</v>
       </c>
       <c r="C27" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="23" t="s">
-        <v>115</v>
-      </c>
       <c r="E27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -6362,13 +6179,13 @@
         <v>7</v>
       </c>
       <c r="C28" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="23" t="s">
-        <v>117</v>
-      </c>
       <c r="E28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -6379,13 +6196,13 @@
         <v>7</v>
       </c>
       <c r="C29" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="23" t="s">
-        <v>119</v>
-      </c>
       <c r="E29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -6396,13 +6213,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="23" t="s">
-        <v>121</v>
-      </c>
       <c r="E30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -6413,13 +6230,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="23" t="s">
-        <v>123</v>
-      </c>
       <c r="E31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -6430,13 +6247,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="23" t="s">
-        <v>125</v>
-      </c>
       <c r="E32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -6447,13 +6264,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D33" s="23" t="s">
-        <v>127</v>
-      </c>
       <c r="E33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -6464,13 +6281,13 @@
         <v>9</v>
       </c>
       <c r="C34" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="23" t="s">
-        <v>129</v>
-      </c>
       <c r="E34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -6481,13 +6298,13 @@
         <v>9</v>
       </c>
       <c r="C35" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="D35" s="23" t="s">
-        <v>131</v>
-      </c>
       <c r="E35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -6498,13 +6315,13 @@
         <v>9</v>
       </c>
       <c r="C36" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="D36" s="23" t="s">
-        <v>133</v>
-      </c>
       <c r="E36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -6515,13 +6332,13 @@
         <v>9</v>
       </c>
       <c r="C37" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="D37" s="23" t="s">
-        <v>135</v>
-      </c>
       <c r="E37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -6532,13 +6349,13 @@
         <v>10</v>
       </c>
       <c r="C38" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="D38" s="23" t="s">
-        <v>137</v>
-      </c>
       <c r="E38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -6549,13 +6366,13 @@
         <v>10</v>
       </c>
       <c r="C39" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="D39" s="23" t="s">
-        <v>139</v>
-      </c>
       <c r="E39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -6566,13 +6383,13 @@
         <v>10</v>
       </c>
       <c r="C40" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="D40" s="23" t="s">
-        <v>141</v>
-      </c>
       <c r="E40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -6583,13 +6400,13 @@
         <v>10</v>
       </c>
       <c r="C41" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="23" t="s">
-        <v>143</v>
-      </c>
       <c r="E41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -6600,13 +6417,13 @@
         <v>11</v>
       </c>
       <c r="C42" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="D42" s="23" t="s">
-        <v>145</v>
-      </c>
       <c r="E42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="30">
@@ -6617,13 +6434,13 @@
         <v>11</v>
       </c>
       <c r="C43" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="D43" s="23" t="s">
-        <v>147</v>
-      </c>
       <c r="E43" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30">
@@ -6634,13 +6451,13 @@
         <v>11</v>
       </c>
       <c r="C44" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="D44" s="23" t="s">
-        <v>149</v>
-      </c>
       <c r="E44" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -6651,13 +6468,13 @@
         <v>11</v>
       </c>
       <c r="C45" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="D45" s="23" t="s">
-        <v>151</v>
-      </c>
       <c r="E45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -6668,13 +6485,13 @@
         <v>12</v>
       </c>
       <c r="C46" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="D46" s="23" t="s">
-        <v>153</v>
-      </c>
       <c r="E46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -6685,13 +6502,13 @@
         <v>12</v>
       </c>
       <c r="C47" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D47" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="D47" s="23" t="s">
-        <v>155</v>
-      </c>
       <c r="E47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -6702,13 +6519,13 @@
         <v>12</v>
       </c>
       <c r="C48" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="D48" s="23" t="s">
-        <v>157</v>
-      </c>
       <c r="E48" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -6719,13 +6536,13 @@
         <v>12</v>
       </c>
       <c r="C49" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="D49" s="23" t="s">
-        <v>159</v>
-      </c>
       <c r="E49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -6736,13 +6553,13 @@
         <v>13</v>
       </c>
       <c r="C50" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D50" s="23" t="s">
-        <v>161</v>
-      </c>
       <c r="E50" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -6753,13 +6570,13 @@
         <v>13</v>
       </c>
       <c r="C51" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="D51" s="23" t="s">
-        <v>163</v>
-      </c>
       <c r="E51" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -6770,13 +6587,13 @@
         <v>13</v>
       </c>
       <c r="C52" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="D52" s="23" t="s">
-        <v>165</v>
-      </c>
       <c r="E52" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -6787,13 +6604,13 @@
         <v>13</v>
       </c>
       <c r="C53" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="D53" s="23" t="s">
-        <v>167</v>
-      </c>
       <c r="E53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -6808,7 +6625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6864,7 +6681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6924,7 +6741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7017,10 +6834,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H2" t="s">
         <v>261</v>
-      </c>
-      <c r="H2" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -7031,10 +6848,10 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
+        <v>262</v>
+      </c>
+      <c r="H3" t="s">
         <v>263</v>
-      </c>
-      <c r="H3" t="s">
-        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -7049,7 +6866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
